--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1924953.021362445</v>
+        <v>1907569.922047291</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3840023.544506195</v>
+        <v>3875716.486011792</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11183767.46901722</v>
+        <v>11179701.01472758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6139358.193331901</v>
+        <v>6135499.639639498</v>
       </c>
     </row>
     <row r="11">
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>128.3603895606661</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>31.44061229594357</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>126.9045695765055</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>137.5214856609348</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>84.41768364012754</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4.843090389107303</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>18.04233414290333</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>89.56767109409802</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>118.0492286850818</v>
       </c>
       <c r="U21" t="n">
-        <v>54.34770834538009</v>
+        <v>143.825882071235</v>
       </c>
       <c r="V21" t="n">
-        <v>148.2470446871175</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>121.2194427411697</v>
+        <v>123.6574851937377</v>
       </c>
       <c r="Y21" t="n">
-        <v>121.1291533149966</v>
+        <v>14.02147911243478</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.27843771962952</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,22 +2245,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>64.31846263682937</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>63.30554801319144</v>
       </c>
       <c r="G22" t="n">
-        <v>83.43743689615098</v>
+        <v>85.87547934871895</v>
       </c>
       <c r="H22" t="n">
-        <v>24.52453053740361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>8.805637654365</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,22 +2281,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.608500789386611</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>92.73984891486171</v>
+        <v>79.81408826908529</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>143.3920469659737</v>
+        <v>145.8300894185417</v>
       </c>
       <c r="U22" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="G23" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>66.51385724845387</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>67.75361793140988</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>137.5214856609348</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.628842122590795</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>65.32956555489895</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>75.52958044566114</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>62.95371238364407</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>55.22801715347083</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>30.11994422675666</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.281132841675273</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>38.93211243081694</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>141.387839618667</v>
+        <v>143.825882071235</v>
       </c>
       <c r="V24" t="n">
-        <v>148.2470446871175</v>
+        <v>150.6850871396855</v>
       </c>
       <c r="W24" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>121.2194427411697</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>85.13132108888803</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>55.62660907504016</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8.805637654365</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.608500789386611</v>
+        <v>4.046543241954581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>141.9010980272325</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="V25" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="W25" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>127.1073472171831</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>134.2674751798638</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>143.6899159272611</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>149.9640466420918</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2637,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.177546615171395</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>75.52958044566115</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>62.95371238364409</v>
       </c>
       <c r="G27" t="n">
-        <v>6.536018952659723</v>
+        <v>55.22801715347084</v>
       </c>
       <c r="H27" t="n">
-        <v>32.82951059962619</v>
+        <v>30.11994422675667</v>
       </c>
       <c r="I27" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>89.56767109409803</v>
       </c>
       <c r="T27" t="n">
-        <v>120.7587950579513</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>153.394653512555</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>126.2767621404341</v>
+        <v>123.5671957675646</v>
       </c>
     </row>
     <row r="28">
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>63.30554801319145</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>85.87547934871897</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>80.11167249769979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>73.33497491751849</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>136.515992909238</v>
       </c>
       <c r="T28" t="n">
-        <v>107.2504572020671</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>137.5214856609346</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="F29" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>49.71128378850656</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>84.55619139135726</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>72.55066483567261</v>
+        <v>72.55066483567262</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12.07761008385334</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U30" t="n">
         <v>125.7835479283317</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>151.5371490082765</v>
+        <v>70.02303387408641</v>
       </c>
       <c r="X30" t="n">
-        <v>105.6151510508343</v>
+        <v>105.6151510508344</v>
       </c>
       <c r="Y30" t="n">
-        <v>39.14567582510919</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="31">
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>45.26321387028813</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>62.06933835479646</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.81538951383896</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="V31" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>53.82119797163656</v>
       </c>
     </row>
     <row r="32">
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="H32" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.58347024944643</v>
+        <v>11.32945976837557</v>
       </c>
       <c r="T32" t="n">
         <v>122.9380154114882</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,22 +3108,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>5.867400979401556</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>47.28723141199562</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.888482012818502</v>
       </c>
       <c r="G33" t="n">
         <v>37.1856830105675</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U33" t="n">
         <v>125.7835479283317</v>
       </c>
       <c r="V33" t="n">
-        <v>132.6427529967821</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>151.5371490082765</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.29225294707649</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S34" t="n">
-        <v>16.12233216177408</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U34" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,22 +3269,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>75.38452931123368</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>17.15076572613058</v>
       </c>
       <c r="S35" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3348,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S36" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>110.7680958434065</v>
+        <v>99.98547855432378</v>
       </c>
       <c r="U36" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W36" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y36" t="n">
-        <v>109.425854851154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,31 +3421,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D37" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T37" t="n">
-        <v>43.91152017081764</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>150.6643975236154</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>137.5214856609346</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>18.60658571029125</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="V38" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>18.22851079612141</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>44.81173065560923</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V39" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W39" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>19.7686868491421</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.08613833041252</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U40" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.5214856609346</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>7.160066511585793</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>127.1074086682779</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>48.18445688617746</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>22.42948580408281</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>74.27659955327297</v>
       </c>
       <c r="F42" t="n">
-        <v>60.5156699310761</v>
+        <v>61.70073149125591</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>53.97503626108266</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>28.86696333436849</v>
       </c>
       <c r="I42" t="n">
-        <v>4.843090389107303</v>
+        <v>6.028151949287107</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>16.78935325051516</v>
       </c>
       <c r="S42" t="n">
-        <v>87.12962864153005</v>
+        <v>88.31469020170985</v>
       </c>
       <c r="T42" t="n">
-        <v>115.6111862325138</v>
+        <v>116.7962477926936</v>
       </c>
       <c r="U42" t="n">
-        <v>141.387839618667</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>148.2470446871175</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>122.4045043013495</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>96.46349927980933</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>83.87834019649986</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.62249845633079</v>
       </c>
       <c r="H43" t="n">
-        <v>3.849853979142345</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>70.89693246495051</v>
+        <v>40.83457203565829</v>
       </c>
       <c r="J43" t="n">
-        <v>8.805637654365</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.793562349566415</v>
       </c>
       <c r="R43" t="n">
-        <v>92.73984891486171</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.4630555746645</v>
+        <v>140.6481171348443</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>142.3411744869092</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.031110889787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.2001707874394</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="C20" t="n">
-        <v>170.2001707874394</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="D20" t="n">
-        <v>170.2001707874394</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="E20" t="n">
-        <v>170.2001707874394</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="F20" t="n">
-        <v>170.2001707874394</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="G20" t="n">
-        <v>170.2001707874394</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="H20" t="n">
-        <v>12.49059815267346</v>
+        <v>141.8520068524481</v>
       </c>
       <c r="I20" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J20" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K20" t="n">
-        <v>71.15639592361987</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L20" t="n">
-        <v>225.7275480629539</v>
+        <v>69.0699489968689</v>
       </c>
       <c r="M20" t="n">
-        <v>380.2987002022879</v>
+        <v>219.9836642875878</v>
       </c>
       <c r="N20" t="n">
-        <v>534.8698523416219</v>
+        <v>370.8973795783068</v>
       </c>
       <c r="O20" t="n">
-        <v>534.8698523416219</v>
+        <v>520.0923297209548</v>
       </c>
       <c r="P20" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q20" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R20" t="n">
-        <v>624.5299076336729</v>
+        <v>577.9941907746789</v>
       </c>
       <c r="S20" t="n">
-        <v>624.5299076336729</v>
+        <v>449.8077568590168</v>
       </c>
       <c r="T20" t="n">
-        <v>624.5299076336729</v>
+        <v>449.8077568590168</v>
       </c>
       <c r="U20" t="n">
-        <v>624.5299076336729</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="V20" t="n">
-        <v>624.5299076336729</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="W20" t="n">
-        <v>485.6193160569711</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="X20" t="n">
-        <v>327.9097434222052</v>
+        <v>295.8298818557324</v>
       </c>
       <c r="Y20" t="n">
-        <v>170.2001707874394</v>
+        <v>295.8298818557324</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.38260864672124</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="C21" t="n">
-        <v>17.38260864672124</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="D21" t="n">
-        <v>17.38260864672124</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="E21" t="n">
-        <v>17.38260864672124</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="F21" t="n">
-        <v>17.38260864672124</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="G21" t="n">
-        <v>17.38260864672124</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="H21" t="n">
-        <v>17.38260864672124</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I21" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J21" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K21" t="n">
-        <v>91.42189270234149</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L21" t="n">
-        <v>245.9930448416755</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="M21" t="n">
-        <v>400.5641969810096</v>
+        <v>87.61668062751966</v>
       </c>
       <c r="N21" t="n">
-        <v>555.1353491203436</v>
+        <v>238.5303959182386</v>
       </c>
       <c r="O21" t="n">
-        <v>555.1353491203436</v>
+        <v>389.4441112089575</v>
       </c>
       <c r="P21" t="n">
-        <v>555.1353491203436</v>
+        <v>540.3578264996764</v>
       </c>
       <c r="Q21" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R21" t="n">
-        <v>624.5299076336729</v>
+        <v>591.5278050706792</v>
       </c>
       <c r="S21" t="n">
-        <v>624.5299076336729</v>
+        <v>501.0554100261357</v>
       </c>
       <c r="T21" t="n">
-        <v>624.5299076336729</v>
+        <v>381.8137648896894</v>
       </c>
       <c r="U21" t="n">
-        <v>569.6332325373294</v>
+        <v>236.5350961308662</v>
       </c>
       <c r="V21" t="n">
-        <v>419.8887429543824</v>
+        <v>236.5350961308662</v>
       </c>
       <c r="W21" t="n">
-        <v>262.1791703196165</v>
+        <v>236.5350961308662</v>
       </c>
       <c r="X21" t="n">
-        <v>139.7352887628794</v>
+        <v>111.6285454301211</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.38260864672124</v>
+        <v>97.46543521554047</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.4376739990569</v>
+        <v>227.8510982040377</v>
       </c>
       <c r="C22" t="n">
-        <v>130.4376739990569</v>
+        <v>227.8510982040377</v>
       </c>
       <c r="D22" t="n">
-        <v>130.4376739990569</v>
+        <v>227.8510982040377</v>
       </c>
       <c r="E22" t="n">
-        <v>130.4376739990569</v>
+        <v>162.8829541264323</v>
       </c>
       <c r="F22" t="n">
-        <v>130.4376739990569</v>
+        <v>98.93795613330957</v>
       </c>
       <c r="G22" t="n">
-        <v>46.15743471001549</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="H22" t="n">
-        <v>21.38518164193103</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I22" t="n">
-        <v>21.38518164193103</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J22" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K22" t="n">
-        <v>74.15180828273414</v>
+        <v>71.44259580227856</v>
       </c>
       <c r="L22" t="n">
-        <v>185.1739403281318</v>
+        <v>180.0510658196339</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0699855580387</v>
+        <v>300.5334490214985</v>
       </c>
       <c r="N22" t="n">
-        <v>435.4688432511597</v>
+        <v>425.5186446865772</v>
       </c>
       <c r="O22" t="n">
-        <v>543.5161269237436</v>
+        <v>531.1522663311189</v>
       </c>
       <c r="P22" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q22" t="n">
-        <v>622.9051593615652</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R22" t="n">
-        <v>529.2285442960483</v>
+        <v>529.1320938321115</v>
       </c>
       <c r="S22" t="n">
-        <v>529.2285442960483</v>
+        <v>529.1320938321115</v>
       </c>
       <c r="T22" t="n">
-        <v>384.3880928152668</v>
+        <v>381.828973207322</v>
       </c>
       <c r="U22" t="n">
-        <v>226.6785201805009</v>
+        <v>381.828973207322</v>
       </c>
       <c r="V22" t="n">
-        <v>226.6785201805009</v>
+        <v>227.8510982040377</v>
       </c>
       <c r="W22" t="n">
-        <v>226.6785201805009</v>
+        <v>227.8510982040377</v>
       </c>
       <c r="X22" t="n">
-        <v>226.6785201805009</v>
+        <v>227.8510982040377</v>
       </c>
       <c r="Y22" t="n">
-        <v>226.6785201805009</v>
+        <v>227.8510982040377</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>327.9097434222052</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="C23" t="n">
-        <v>327.9097434222052</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="D23" t="n">
-        <v>170.2001707874394</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="E23" t="n">
-        <v>170.2001707874394</v>
+        <v>387.3365120992064</v>
       </c>
       <c r="F23" t="n">
-        <v>170.2001707874394</v>
+        <v>233.3586370959221</v>
       </c>
       <c r="G23" t="n">
-        <v>12.49059815267346</v>
+        <v>79.38076209263778</v>
       </c>
       <c r="H23" t="n">
-        <v>12.49059815267346</v>
+        <v>79.38076209263778</v>
       </c>
       <c r="I23" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J23" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K23" t="n">
-        <v>115.5056040635958</v>
+        <v>115.2100536111825</v>
       </c>
       <c r="L23" t="n">
-        <v>270.0767562029299</v>
+        <v>266.1237689019014</v>
       </c>
       <c r="M23" t="n">
-        <v>424.6479083422639</v>
+        <v>417.0374841926203</v>
       </c>
       <c r="N23" t="n">
-        <v>579.2190604815979</v>
+        <v>567.9511994833392</v>
       </c>
       <c r="O23" t="n">
-        <v>624.5299076336729</v>
+        <v>567.9511994833392</v>
       </c>
       <c r="P23" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q23" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R23" t="n">
-        <v>624.5299076336729</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="S23" t="n">
-        <v>624.5299076336729</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="T23" t="n">
-        <v>624.5299076336729</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="U23" t="n">
-        <v>624.5299076336729</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="V23" t="n">
-        <v>624.5299076336729</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="W23" t="n">
-        <v>485.6193160569711</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="X23" t="n">
-        <v>327.9097434222052</v>
+        <v>541.3143871024907</v>
       </c>
       <c r="Y23" t="n">
-        <v>327.9097434222052</v>
+        <v>541.3143871024907</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.49059815267346</v>
+        <v>312.2665575272275</v>
       </c>
       <c r="C24" t="n">
-        <v>12.49059815267346</v>
+        <v>311.6313634640045</v>
       </c>
       <c r="D24" t="n">
-        <v>12.49059815267346</v>
+        <v>245.6419033075409</v>
       </c>
       <c r="E24" t="n">
-        <v>12.49059815267346</v>
+        <v>169.3493978068731</v>
       </c>
       <c r="F24" t="n">
-        <v>12.49059815267346</v>
+        <v>105.7597893385457</v>
       </c>
       <c r="G24" t="n">
-        <v>12.49059815267346</v>
+        <v>49.97391342594894</v>
       </c>
       <c r="H24" t="n">
-        <v>12.49059815267346</v>
+        <v>19.54972733831595</v>
       </c>
       <c r="I24" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J24" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K24" t="n">
-        <v>137.8481582105109</v>
+        <v>87.61668062751966</v>
       </c>
       <c r="L24" t="n">
-        <v>137.8481582105109</v>
+        <v>238.5303959182386</v>
       </c>
       <c r="M24" t="n">
-        <v>137.8481582105109</v>
+        <v>389.4441112089575</v>
       </c>
       <c r="N24" t="n">
-        <v>245.9930448416755</v>
+        <v>540.3578264996764</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5641969810096</v>
+        <v>540.3578264996764</v>
       </c>
       <c r="P24" t="n">
-        <v>555.1353491203436</v>
+        <v>540.3578264996764</v>
       </c>
       <c r="Q24" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R24" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S24" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="T24" t="n">
-        <v>585.2045415419386</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="U24" t="n">
-        <v>442.3885419271234</v>
+        <v>464.4737162541825</v>
       </c>
       <c r="V24" t="n">
-        <v>292.6440523441764</v>
+        <v>312.2665575272275</v>
       </c>
       <c r="W24" t="n">
-        <v>134.9344797094105</v>
+        <v>312.2665575272275</v>
       </c>
       <c r="X24" t="n">
-        <v>12.49059815267346</v>
+        <v>312.2665575272275</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.49059815267346</v>
+        <v>312.2665575272275</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.38518164193103</v>
+        <v>154.3747751385714</v>
       </c>
       <c r="C25" t="n">
-        <v>21.38518164193103</v>
+        <v>68.38354171545221</v>
       </c>
       <c r="D25" t="n">
-        <v>21.38518164193103</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="E25" t="n">
-        <v>21.38518164193103</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="F25" t="n">
-        <v>21.38518164193103</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="G25" t="n">
-        <v>21.38518164193103</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="H25" t="n">
-        <v>21.38518164193103</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I25" t="n">
-        <v>21.38518164193103</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J25" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K25" t="n">
-        <v>74.15180828273414</v>
+        <v>71.44259580227849</v>
       </c>
       <c r="L25" t="n">
-        <v>185.1739403281318</v>
+        <v>180.0510658196339</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0699855580387</v>
+        <v>300.5334490214984</v>
       </c>
       <c r="N25" t="n">
-        <v>435.4688432511597</v>
+        <v>425.5186446865771</v>
       </c>
       <c r="O25" t="n">
-        <v>543.5161269237436</v>
+        <v>531.1522663311189</v>
       </c>
       <c r="P25" t="n">
-        <v>624.5299076336729</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q25" t="n">
-        <v>622.9051593615652</v>
+        <v>605.6649675968901</v>
       </c>
       <c r="R25" t="n">
-        <v>622.9051593615652</v>
+        <v>605.6649675968901</v>
       </c>
       <c r="S25" t="n">
-        <v>622.9051593615652</v>
+        <v>462.3305251451401</v>
       </c>
       <c r="T25" t="n">
-        <v>622.9051593615652</v>
+        <v>462.3305251451401</v>
       </c>
       <c r="U25" t="n">
-        <v>465.1955867267993</v>
+        <v>308.3526501418557</v>
       </c>
       <c r="V25" t="n">
-        <v>307.4860140920334</v>
+        <v>154.3747751385714</v>
       </c>
       <c r="W25" t="n">
-        <v>149.7764414572675</v>
+        <v>154.3747751385714</v>
       </c>
       <c r="X25" t="n">
-        <v>21.38518164193103</v>
+        <v>154.3747751385714</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.38518164193103</v>
+        <v>154.3747751385714</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.49059815267346</v>
+        <v>455.7745100097214</v>
       </c>
       <c r="C26" t="n">
-        <v>12.49059815267346</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="D26" t="n">
-        <v>12.49059815267346</v>
+        <v>166.1729227035444</v>
       </c>
       <c r="E26" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="F26" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="G26" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="H26" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I26" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J26" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K26" t="n">
-        <v>115.5056040635958</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L26" t="n">
-        <v>115.5056040635958</v>
+        <v>158.7300042889199</v>
       </c>
       <c r="M26" t="n">
-        <v>270.0767562029298</v>
+        <v>309.6437195796388</v>
       </c>
       <c r="N26" t="n">
-        <v>424.6479083422638</v>
+        <v>460.5574348703577</v>
       </c>
       <c r="O26" t="n">
-        <v>573.8428584849119</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="P26" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q26" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R26" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S26" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="T26" t="n">
-        <v>479.3885784142171</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="U26" t="n">
-        <v>479.3885784142171</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="V26" t="n">
-        <v>327.9097434222052</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="W26" t="n">
-        <v>170.2001707874393</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="X26" t="n">
-        <v>12.49059815267346</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.49059815267346</v>
+        <v>609.7523850130058</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>62.3453746848257</v>
+        <v>240.4867657050118</v>
       </c>
       <c r="C27" t="n">
-        <v>62.3453746848257</v>
+        <v>240.4867657050118</v>
       </c>
       <c r="D27" t="n">
-        <v>62.3453746848257</v>
+        <v>238.2872236694851</v>
       </c>
       <c r="E27" t="n">
-        <v>62.3453746848257</v>
+        <v>161.9947181688173</v>
       </c>
       <c r="F27" t="n">
-        <v>62.3453746848257</v>
+        <v>98.40510970048993</v>
       </c>
       <c r="G27" t="n">
-        <v>55.74333533870477</v>
+        <v>42.61923378789312</v>
       </c>
       <c r="H27" t="n">
-        <v>22.58221352090053</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I27" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J27" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K27" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L27" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="M27" t="n">
-        <v>91.42189270234144</v>
+        <v>87.61668062751966</v>
       </c>
       <c r="N27" t="n">
-        <v>245.9930448416754</v>
+        <v>238.5303959182386</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5641969810094</v>
+        <v>389.4441112089575</v>
       </c>
       <c r="P27" t="n">
-        <v>555.1353491203434</v>
+        <v>540.3578264996764</v>
       </c>
       <c r="Q27" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R27" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S27" t="n">
-        <v>624.5299076336728</v>
+        <v>519.2799899684624</v>
       </c>
       <c r="T27" t="n">
-        <v>502.5513267670553</v>
+        <v>519.2799899684624</v>
       </c>
       <c r="U27" t="n">
-        <v>502.5513267670553</v>
+        <v>519.2799899684624</v>
       </c>
       <c r="V27" t="n">
-        <v>347.607232309929</v>
+        <v>519.2799899684624</v>
       </c>
       <c r="W27" t="n">
-        <v>189.8976596751632</v>
+        <v>365.302114965178</v>
       </c>
       <c r="X27" t="n">
-        <v>189.8976596751632</v>
+        <v>365.302114965178</v>
       </c>
       <c r="Y27" t="n">
-        <v>62.3453746848257</v>
+        <v>240.4867657050118</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.49059815267346</v>
+        <v>317.8795676771578</v>
       </c>
       <c r="C28" t="n">
-        <v>12.49059815267346</v>
+        <v>317.8795676771578</v>
       </c>
       <c r="D28" t="n">
-        <v>12.49059815267346</v>
+        <v>317.8795676771578</v>
       </c>
       <c r="E28" t="n">
-        <v>12.49059815267346</v>
+        <v>317.8795676771578</v>
       </c>
       <c r="F28" t="n">
-        <v>12.49059815267346</v>
+        <v>253.9345696840351</v>
       </c>
       <c r="G28" t="n">
-        <v>12.49059815267346</v>
+        <v>167.1916612509856</v>
       </c>
       <c r="H28" t="n">
-        <v>12.49059815267346</v>
+        <v>86.27077994017779</v>
       </c>
       <c r="I28" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J28" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K28" t="n">
-        <v>69.055675545551</v>
+        <v>71.44259580227845</v>
       </c>
       <c r="L28" t="n">
-        <v>174.9816748537655</v>
+        <v>180.0510658196339</v>
       </c>
       <c r="M28" t="n">
-        <v>292.7815873464893</v>
+        <v>300.5334490214985</v>
       </c>
       <c r="N28" t="n">
-        <v>415.0843123024272</v>
+        <v>425.5186446865772</v>
       </c>
       <c r="O28" t="n">
-        <v>518.035463237828</v>
+        <v>531.1522663311189</v>
       </c>
       <c r="P28" t="n">
-        <v>593.9531112105742</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q28" t="n">
-        <v>593.9531112105742</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R28" t="n">
-        <v>593.9531112105742</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S28" t="n">
-        <v>593.9531112105742</v>
+        <v>471.8574426804421</v>
       </c>
       <c r="T28" t="n">
-        <v>485.6193160569711</v>
+        <v>471.8574426804421</v>
       </c>
       <c r="U28" t="n">
-        <v>327.9097434222052</v>
+        <v>471.8574426804421</v>
       </c>
       <c r="V28" t="n">
-        <v>170.2001707874393</v>
+        <v>471.8574426804421</v>
       </c>
       <c r="W28" t="n">
-        <v>12.49059815267346</v>
+        <v>317.8795676771578</v>
       </c>
       <c r="X28" t="n">
-        <v>12.49059815267346</v>
+        <v>317.8795676771578</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.49059815267346</v>
+        <v>317.8795676771578</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>624.5299076336728</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="C29" t="n">
-        <v>485.6193160569711</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="D29" t="n">
-        <v>327.9097434222052</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="E29" t="n">
-        <v>170.2001707874393</v>
+        <v>166.1729227035444</v>
       </c>
       <c r="F29" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="G29" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="H29" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I29" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J29" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K29" t="n">
-        <v>71.15639592361981</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L29" t="n">
-        <v>225.7275480629538</v>
+        <v>163.108762990979</v>
       </c>
       <c r="M29" t="n">
-        <v>380.2987002022878</v>
+        <v>314.022478281698</v>
       </c>
       <c r="N29" t="n">
-        <v>534.8698523416218</v>
+        <v>460.5574348703577</v>
       </c>
       <c r="O29" t="n">
-        <v>534.8698523416218</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="P29" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q29" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R29" t="n">
-        <v>624.5299076336728</v>
+        <v>559.5389670448174</v>
       </c>
       <c r="S29" t="n">
-        <v>624.5299076336728</v>
+        <v>559.5389670448174</v>
       </c>
       <c r="T29" t="n">
-        <v>624.5299076336728</v>
+        <v>559.5389670448174</v>
       </c>
       <c r="U29" t="n">
-        <v>624.5299076336728</v>
+        <v>559.5389670448174</v>
       </c>
       <c r="V29" t="n">
-        <v>624.5299076336728</v>
+        <v>474.1286727101131</v>
       </c>
       <c r="W29" t="n">
-        <v>624.5299076336728</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="X29" t="n">
-        <v>624.5299076336728</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="Y29" t="n">
-        <v>624.5299076336728</v>
+        <v>320.1507977068287</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>131.139126512687</v>
+        <v>97.67815367957928</v>
       </c>
       <c r="C30" t="n">
-        <v>57.85562667867421</v>
+        <v>24.39465384556652</v>
       </c>
       <c r="D30" t="n">
-        <v>57.85562667867421</v>
+        <v>24.39465384556652</v>
       </c>
       <c r="E30" t="n">
-        <v>57.85562667867421</v>
+        <v>24.39465384556652</v>
       </c>
       <c r="F30" t="n">
-        <v>12.49059815267346</v>
+        <v>24.39465384556652</v>
       </c>
       <c r="G30" t="n">
-        <v>12.49059815267346</v>
+        <v>24.39465384556652</v>
       </c>
       <c r="H30" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I30" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J30" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K30" t="n">
-        <v>137.8481582105109</v>
+        <v>87.61668062751966</v>
       </c>
       <c r="L30" t="n">
-        <v>292.4193103498449</v>
+        <v>87.61668062751966</v>
       </c>
       <c r="M30" t="n">
-        <v>446.9904624891789</v>
+        <v>87.61668062751966</v>
       </c>
       <c r="N30" t="n">
-        <v>555.1353491203434</v>
+        <v>238.5303959182386</v>
       </c>
       <c r="O30" t="n">
-        <v>555.1353491203434</v>
+        <v>389.4441112089575</v>
       </c>
       <c r="P30" t="n">
-        <v>555.1353491203434</v>
+        <v>540.3578264996764</v>
       </c>
       <c r="Q30" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R30" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S30" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="T30" t="n">
-        <v>624.5299076336728</v>
+        <v>508.7353198188861</v>
       </c>
       <c r="U30" t="n">
-        <v>497.4758188171761</v>
+        <v>381.6812310023894</v>
       </c>
       <c r="V30" t="n">
-        <v>497.4758188171761</v>
+        <v>381.6812310023894</v>
       </c>
       <c r="W30" t="n">
-        <v>344.4079915360887</v>
+        <v>310.9508937558375</v>
       </c>
       <c r="X30" t="n">
-        <v>237.7260207776702</v>
+        <v>204.2689229974189</v>
       </c>
       <c r="Y30" t="n">
-        <v>198.1849340856407</v>
+        <v>97.67815367957928</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.49059815267346</v>
+        <v>120.6117671195375</v>
       </c>
       <c r="C31" t="n">
-        <v>12.49059815267346</v>
+        <v>120.6117671195375</v>
       </c>
       <c r="D31" t="n">
-        <v>12.49059815267346</v>
+        <v>120.6117671195375</v>
       </c>
       <c r="E31" t="n">
-        <v>12.49059815267346</v>
+        <v>120.6117671195375</v>
       </c>
       <c r="F31" t="n">
-        <v>12.49059815267346</v>
+        <v>74.89134906874139</v>
       </c>
       <c r="G31" t="n">
-        <v>12.49059815267346</v>
+        <v>74.89134906874139</v>
       </c>
       <c r="H31" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I31" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J31" t="n">
-        <v>19.22126564828411</v>
+        <v>18.92571519587076</v>
       </c>
       <c r="K31" t="n">
-        <v>96.3307245517768</v>
+        <v>96.03517409936342</v>
       </c>
       <c r="L31" t="n">
-        <v>123.6448495594898</v>
+        <v>222.5055549181931</v>
       </c>
       <c r="M31" t="n">
-        <v>247.8694062458034</v>
+        <v>360.8498489215319</v>
       </c>
       <c r="N31" t="n">
-        <v>390.7165127123563</v>
+        <v>475.095245902806</v>
       </c>
       <c r="O31" t="n">
-        <v>514.2120451583723</v>
+        <v>499.4345225377053</v>
       </c>
       <c r="P31" t="n">
-        <v>610.6740746417336</v>
+        <v>595.8965520210666</v>
       </c>
       <c r="Q31" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R31" t="n">
-        <v>606.5345646904011</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S31" t="n">
-        <v>481.4247021809778</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="T31" t="n">
-        <v>481.4247021809778</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="U31" t="n">
-        <v>323.7151295462119</v>
+        <v>455.7745100097214</v>
       </c>
       <c r="V31" t="n">
-        <v>170.2001707874393</v>
+        <v>455.7745100097214</v>
       </c>
       <c r="W31" t="n">
-        <v>12.49059815267346</v>
+        <v>301.7966350064371</v>
       </c>
       <c r="X31" t="n">
-        <v>12.49059815267346</v>
+        <v>174.976613555534</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.49059815267346</v>
+        <v>120.6117671195375</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>327.9097434222052</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="C32" t="n">
-        <v>327.9097434222052</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="D32" t="n">
-        <v>327.9097434222052</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="E32" t="n">
-        <v>170.2001707874393</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="F32" t="n">
-        <v>170.2001707874393</v>
+        <v>166.1729227035444</v>
       </c>
       <c r="G32" t="n">
-        <v>170.2001707874393</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="H32" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I32" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J32" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K32" t="n">
-        <v>71.15639592361981</v>
+        <v>115.2100536111825</v>
       </c>
       <c r="L32" t="n">
-        <v>225.7275480629538</v>
+        <v>158.7300042889199</v>
       </c>
       <c r="M32" t="n">
-        <v>380.2987002022878</v>
+        <v>309.6437195796388</v>
       </c>
       <c r="N32" t="n">
-        <v>534.8698523416218</v>
+        <v>460.5574348703577</v>
       </c>
       <c r="O32" t="n">
-        <v>534.8698523416218</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="P32" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q32" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R32" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S32" t="n">
-        <v>609.7991296039289</v>
+        <v>598.3084862570709</v>
       </c>
       <c r="T32" t="n">
-        <v>485.6193160569711</v>
+        <v>474.1286727101131</v>
       </c>
       <c r="U32" t="n">
-        <v>485.6193160569711</v>
+        <v>474.1286727101131</v>
       </c>
       <c r="V32" t="n">
-        <v>485.6193160569711</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="W32" t="n">
-        <v>485.6193160569711</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="X32" t="n">
-        <v>327.9097434222052</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="Y32" t="n">
-        <v>327.9097434222052</v>
+        <v>320.1507977068287</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>103.7434419930418</v>
+        <v>121.9314329628835</v>
       </c>
       <c r="C33" t="n">
-        <v>97.81677433708066</v>
+        <v>121.9314329628835</v>
       </c>
       <c r="D33" t="n">
-        <v>50.05189412294366</v>
+        <v>121.9314329628835</v>
       </c>
       <c r="E33" t="n">
-        <v>50.05189412294366</v>
+        <v>63.86350740454228</v>
       </c>
       <c r="F33" t="n">
-        <v>50.05189412294366</v>
+        <v>61.95594981583672</v>
       </c>
       <c r="G33" t="n">
-        <v>12.49059815267346</v>
+        <v>24.39465384556651</v>
       </c>
       <c r="H33" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I33" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J33" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K33" t="n">
-        <v>137.8481582105109</v>
+        <v>137.5526077580975</v>
       </c>
       <c r="L33" t="n">
-        <v>245.9930448416754</v>
+        <v>288.4663230488164</v>
       </c>
       <c r="M33" t="n">
-        <v>245.9930448416754</v>
+        <v>439.3800383395354</v>
       </c>
       <c r="N33" t="n">
-        <v>245.9930448416754</v>
+        <v>590.2937536302543</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5641969810094</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="P33" t="n">
-        <v>555.1353491203434</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q33" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R33" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S33" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="T33" t="n">
-        <v>624.5299076336728</v>
+        <v>508.7353198188861</v>
       </c>
       <c r="U33" t="n">
-        <v>497.4758188171761</v>
+        <v>381.6812310023894</v>
       </c>
       <c r="V33" t="n">
-        <v>363.4932400325477</v>
+        <v>381.6812310023894</v>
       </c>
       <c r="W33" t="n">
-        <v>210.4254127514604</v>
+        <v>228.613403721302</v>
       </c>
       <c r="X33" t="n">
-        <v>103.7434419930418</v>
+        <v>121.9314329628835</v>
       </c>
       <c r="Y33" t="n">
-        <v>103.7434419930418</v>
+        <v>121.9314329628835</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.49059815267346</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="C34" t="n">
-        <v>12.49059815267346</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="D34" t="n">
-        <v>12.49059815267346</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="E34" t="n">
-        <v>12.49059815267346</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="F34" t="n">
-        <v>12.49059815267346</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="G34" t="n">
-        <v>12.49059815267346</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="H34" t="n">
-        <v>12.49059815267346</v>
+        <v>60.97510118215557</v>
       </c>
       <c r="I34" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J34" t="n">
-        <v>19.22126564828411</v>
+        <v>18.92571519587077</v>
       </c>
       <c r="K34" t="n">
-        <v>96.3307245517768</v>
+        <v>67.43346461408447</v>
       </c>
       <c r="L34" t="n">
-        <v>123.6448495594898</v>
+        <v>193.9038454329142</v>
       </c>
       <c r="M34" t="n">
-        <v>261.9891435628286</v>
+        <v>332.248139436253</v>
       </c>
       <c r="N34" t="n">
-        <v>390.7165127123563</v>
+        <v>475.095245902806</v>
       </c>
       <c r="O34" t="n">
-        <v>514.2120451583723</v>
+        <v>499.4345225377053</v>
       </c>
       <c r="P34" t="n">
-        <v>610.6740746417336</v>
+        <v>595.8965520210666</v>
       </c>
       <c r="Q34" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R34" t="n">
-        <v>624.5299076336728</v>
+        <v>531.8376807458075</v>
       </c>
       <c r="S34" t="n">
-        <v>608.2447236318808</v>
+        <v>406.7278182363841</v>
       </c>
       <c r="T34" t="n">
-        <v>608.2447236318808</v>
+        <v>277.6492775539211</v>
       </c>
       <c r="U34" t="n">
-        <v>450.535150997115</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="V34" t="n">
-        <v>297.0201922383424</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="W34" t="n">
-        <v>139.3106196035765</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="X34" t="n">
-        <v>12.49059815267346</v>
+        <v>123.6714025506368</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.49059815267346</v>
+        <v>123.6714025506368</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.938866870072</v>
+        <v>592.4283792290355</v>
       </c>
       <c r="C35" t="n">
-        <v>210.938866870072</v>
+        <v>592.4283792290355</v>
       </c>
       <c r="D35" t="n">
-        <v>210.938866870072</v>
+        <v>438.4505042257512</v>
       </c>
       <c r="E35" t="n">
-        <v>210.938866870072</v>
+        <v>284.4726292224668</v>
       </c>
       <c r="F35" t="n">
-        <v>210.938866870072</v>
+        <v>130.4947542191825</v>
       </c>
       <c r="G35" t="n">
-        <v>210.938866870072</v>
+        <v>130.4947542191825</v>
       </c>
       <c r="H35" t="n">
-        <v>134.7928776668056</v>
+        <v>130.4947542191825</v>
       </c>
       <c r="I35" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J35" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K35" t="n">
-        <v>12.49059815267346</v>
+        <v>115.2100536111825</v>
       </c>
       <c r="L35" t="n">
-        <v>76.53259792030576</v>
+        <v>266.1237689019014</v>
       </c>
       <c r="M35" t="n">
-        <v>231.1037500596398</v>
+        <v>417.0374841926203</v>
       </c>
       <c r="N35" t="n">
-        <v>385.6749021989738</v>
+        <v>520.0923297209548</v>
       </c>
       <c r="O35" t="n">
-        <v>534.8698523416218</v>
+        <v>520.0923297209548</v>
       </c>
       <c r="P35" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q35" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R35" t="n">
-        <v>624.5299076336728</v>
+        <v>592.4283792290355</v>
       </c>
       <c r="S35" t="n">
-        <v>503.6981533560664</v>
+        <v>592.4283792290355</v>
       </c>
       <c r="T35" t="n">
-        <v>368.6484395048378</v>
+        <v>592.4283792290355</v>
       </c>
       <c r="U35" t="n">
-        <v>210.938866870072</v>
+        <v>592.4283792290355</v>
       </c>
       <c r="V35" t="n">
-        <v>210.938866870072</v>
+        <v>592.4283792290355</v>
       </c>
       <c r="W35" t="n">
-        <v>210.938866870072</v>
+        <v>592.4283792290355</v>
       </c>
       <c r="X35" t="n">
-        <v>210.938866870072</v>
+        <v>592.4283792290355</v>
       </c>
       <c r="Y35" t="n">
-        <v>210.938866870072</v>
+        <v>592.4283792290355</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.49059815267346</v>
+        <v>247.4904206596206</v>
       </c>
       <c r="C36" t="n">
-        <v>12.49059815267346</v>
+        <v>247.4904206596206</v>
       </c>
       <c r="D36" t="n">
-        <v>12.49059815267346</v>
+        <v>192.8582131364226</v>
       </c>
       <c r="E36" t="n">
-        <v>12.49059815267346</v>
+        <v>127.9229602690204</v>
       </c>
       <c r="F36" t="n">
-        <v>12.49059815267346</v>
+        <v>75.69060443395865</v>
       </c>
       <c r="G36" t="n">
-        <v>12.49059815267346</v>
+        <v>31.26198115462748</v>
       </c>
       <c r="H36" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I36" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J36" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K36" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L36" t="n">
-        <v>12.49059815267346</v>
+        <v>87.61668062751966</v>
       </c>
       <c r="M36" t="n">
-        <v>167.0617502920074</v>
+        <v>87.61668062751966</v>
       </c>
       <c r="N36" t="n">
-        <v>321.6329024313414</v>
+        <v>238.5303959182386</v>
       </c>
       <c r="O36" t="n">
-        <v>469.9587554943388</v>
+        <v>389.4441112089575</v>
       </c>
       <c r="P36" t="n">
-        <v>624.5299076336728</v>
+        <v>540.3578264996764</v>
       </c>
       <c r="Q36" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R36" t="n">
-        <v>613.660007329402</v>
+        <v>602.8850577039448</v>
       </c>
       <c r="S36" t="n">
-        <v>530.5422919229144</v>
+        <v>602.8850577039448</v>
       </c>
       <c r="T36" t="n">
-        <v>418.6553264245239</v>
+        <v>501.8896248207894</v>
       </c>
       <c r="U36" t="n">
-        <v>280.7313373037565</v>
+        <v>501.8896248207894</v>
       </c>
       <c r="V36" t="n">
-        <v>280.7313373037565</v>
+        <v>361.0397187271001</v>
       </c>
       <c r="W36" t="n">
-        <v>123.0217646689906</v>
+        <v>361.0397187271001</v>
       </c>
       <c r="X36" t="n">
-        <v>123.0217646689906</v>
+        <v>247.4904206596206</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.49059815267346</v>
+        <v>247.4904206596206</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>488.8260010666628</v>
+        <v>86.82902849011371</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1894472815994</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="D37" t="n">
-        <v>350.3724370121072</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="E37" t="n">
-        <v>292.7589725725576</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="F37" t="n">
-        <v>236.1686542174907</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="G37" t="n">
-        <v>156.7804254224971</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="H37" t="n">
-        <v>83.21422374974509</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I37" t="n">
-        <v>16.49317114788325</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J37" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K37" t="n">
-        <v>78.94646776795035</v>
+        <v>82.57383910814214</v>
       </c>
       <c r="L37" t="n">
-        <v>194.7632592985643</v>
+        <v>202.3135524313612</v>
       </c>
       <c r="M37" t="n">
-        <v>290.4837633986663</v>
+        <v>333.9271789390894</v>
       </c>
       <c r="N37" t="n">
-        <v>422.6772805770036</v>
+        <v>470.0436179100317</v>
       </c>
       <c r="O37" t="n">
-        <v>535.5192237348037</v>
+        <v>512.8958575289266</v>
       </c>
       <c r="P37" t="n">
-        <v>621.3276639299493</v>
+        <v>602.6272195166772</v>
       </c>
       <c r="Q37" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R37" t="n">
-        <v>624.5299076336728</v>
+        <v>524.9703534367464</v>
       </c>
       <c r="S37" t="n">
-        <v>624.5299076336728</v>
+        <v>392.9931636182621</v>
       </c>
       <c r="T37" t="n">
-        <v>580.174836754059</v>
+        <v>392.9931636182621</v>
       </c>
       <c r="U37" t="n">
-        <v>580.174836754059</v>
+        <v>392.9931636182621</v>
       </c>
       <c r="V37" t="n">
-        <v>580.174836754059</v>
+        <v>240.806903493398</v>
       </c>
       <c r="W37" t="n">
-        <v>580.174836754059</v>
+        <v>86.82902849011371</v>
       </c>
       <c r="X37" t="n">
-        <v>580.174836754059</v>
+        <v>86.82902849011371</v>
       </c>
       <c r="Y37" t="n">
-        <v>580.174836754059</v>
+        <v>86.82902849011371</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>151.4011897293751</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="C38" t="n">
-        <v>12.49059815267346</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="D38" t="n">
-        <v>12.49059815267346</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="E38" t="n">
-        <v>12.49059815267346</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="F38" t="n">
-        <v>12.49059815267346</v>
+        <v>166.1729227035444</v>
       </c>
       <c r="G38" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="H38" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I38" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J38" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K38" t="n">
-        <v>76.53259792030576</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L38" t="n">
-        <v>76.53259792030576</v>
+        <v>69.0699489968689</v>
       </c>
       <c r="M38" t="n">
-        <v>231.1037500596398</v>
+        <v>219.9836642875878</v>
       </c>
       <c r="N38" t="n">
-        <v>385.6749021989738</v>
+        <v>370.8973795783068</v>
       </c>
       <c r="O38" t="n">
-        <v>534.8698523416218</v>
+        <v>520.0923297209548</v>
       </c>
       <c r="P38" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q38" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R38" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S38" t="n">
-        <v>624.5299076336728</v>
+        <v>492.9232037306093</v>
       </c>
       <c r="T38" t="n">
-        <v>624.5299076336728</v>
+        <v>474.1286727101131</v>
       </c>
       <c r="U38" t="n">
-        <v>624.5299076336728</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="V38" t="n">
-        <v>466.8203349989069</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="W38" t="n">
-        <v>309.110762364141</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="X38" t="n">
-        <v>309.110762364141</v>
+        <v>320.1507977068287</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.4011897293751</v>
+        <v>320.1507977068287</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>204.5071862878974</v>
+        <v>56.6236709795913</v>
       </c>
       <c r="C39" t="n">
-        <v>204.5071862878974</v>
+        <v>56.6236709795913</v>
       </c>
       <c r="D39" t="n">
-        <v>186.094549120098</v>
+        <v>56.6236709795913</v>
       </c>
       <c r="E39" t="n">
-        <v>117.156723257486</v>
+        <v>56.6236709795913</v>
       </c>
       <c r="F39" t="n">
-        <v>60.92179442721443</v>
+        <v>56.6236709795913</v>
       </c>
       <c r="G39" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="H39" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I39" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J39" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K39" t="n">
-        <v>137.8481582105109</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L39" t="n">
-        <v>292.4193103498449</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="M39" t="n">
-        <v>446.9904624891789</v>
+        <v>87.61668062751966</v>
       </c>
       <c r="N39" t="n">
-        <v>601.5616146285129</v>
+        <v>238.5303959182386</v>
       </c>
       <c r="O39" t="n">
-        <v>624.5299076336728</v>
+        <v>389.4441112089575</v>
       </c>
       <c r="P39" t="n">
-        <v>624.5299076336728</v>
+        <v>540.3578264996764</v>
       </c>
       <c r="Q39" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R39" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S39" t="n">
-        <v>624.5299076336728</v>
+        <v>530.637242601728</v>
       </c>
       <c r="T39" t="n">
-        <v>624.5299076336728</v>
+        <v>485.3728682021227</v>
       </c>
       <c r="U39" t="n">
-        <v>624.5299076336728</v>
+        <v>351.451452076565</v>
       </c>
       <c r="V39" t="n">
-        <v>479.6774285447736</v>
+        <v>210.6015459828756</v>
       </c>
       <c r="W39" t="n">
-        <v>321.9678559100078</v>
+        <v>56.6236709795913</v>
       </c>
       <c r="X39" t="n">
-        <v>321.9678559100078</v>
+        <v>56.6236709795913</v>
       </c>
       <c r="Y39" t="n">
-        <v>204.5071862878974</v>
+        <v>56.6236709795913</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.49059815267346</v>
+        <v>32.16341825494911</v>
       </c>
       <c r="C40" t="n">
-        <v>12.49059815267346</v>
+        <v>32.16341825494911</v>
       </c>
       <c r="D40" t="n">
-        <v>12.49059815267346</v>
+        <v>32.16341825494911</v>
       </c>
       <c r="E40" t="n">
-        <v>12.49059815267346</v>
+        <v>32.16341825494911</v>
       </c>
       <c r="F40" t="n">
-        <v>12.49059815267346</v>
+        <v>32.16341825494911</v>
       </c>
       <c r="G40" t="n">
-        <v>12.49059815267346</v>
+        <v>32.16341825494911</v>
       </c>
       <c r="H40" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="I40" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J40" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K40" t="n">
-        <v>78.94646776795035</v>
+        <v>82.57383910814214</v>
       </c>
       <c r="L40" t="n">
-        <v>165.9953023872667</v>
+        <v>128.4009270998507</v>
       </c>
       <c r="M40" t="n">
-        <v>293.6860071023898</v>
+        <v>260.0145536075789</v>
       </c>
       <c r="N40" t="n">
-        <v>425.8795242807271</v>
+        <v>396.1309925785213</v>
       </c>
       <c r="O40" t="n">
-        <v>538.7214674385273</v>
+        <v>512.8958575289266</v>
       </c>
       <c r="P40" t="n">
-        <v>624.5299076336728</v>
+        <v>602.6272195166772</v>
       </c>
       <c r="Q40" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R40" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S40" t="n">
-        <v>576.9681517443672</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="T40" t="n">
-        <v>576.9681517443672</v>
+        <v>473.8065170214818</v>
       </c>
       <c r="U40" t="n">
-        <v>419.2585791096013</v>
+        <v>473.8065170214818</v>
       </c>
       <c r="V40" t="n">
-        <v>261.5490064748355</v>
+        <v>319.8286420181975</v>
       </c>
       <c r="W40" t="n">
-        <v>103.8394338400696</v>
+        <v>165.8507670149131</v>
       </c>
       <c r="X40" t="n">
-        <v>103.8394338400696</v>
+        <v>32.16341825494911</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.8394338400696</v>
+        <v>32.16341825494911</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>485.6193160569711</v>
+        <v>147.8187600031528</v>
       </c>
       <c r="C41" t="n">
-        <v>327.9097434222052</v>
+        <v>147.8187600031528</v>
       </c>
       <c r="D41" t="n">
-        <v>327.9097434222052</v>
+        <v>147.8187600031528</v>
       </c>
       <c r="E41" t="n">
-        <v>170.2001707874393</v>
+        <v>147.8187600031528</v>
       </c>
       <c r="F41" t="n">
-        <v>12.49059815267346</v>
+        <v>147.8187600031528</v>
       </c>
       <c r="G41" t="n">
-        <v>12.49059815267346</v>
+        <v>147.8187600031528</v>
       </c>
       <c r="H41" t="n">
-        <v>12.49059815267346</v>
+        <v>140.5863695874096</v>
       </c>
       <c r="I41" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J41" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K41" t="n">
-        <v>115.5056040635958</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L41" t="n">
-        <v>225.7275480629538</v>
+        <v>69.0699489968689</v>
       </c>
       <c r="M41" t="n">
-        <v>380.2987002022878</v>
+        <v>219.9836642875878</v>
       </c>
       <c r="N41" t="n">
-        <v>534.8698523416218</v>
+        <v>370.8973795783068</v>
       </c>
       <c r="O41" t="n">
-        <v>534.8698523416218</v>
+        <v>520.0923297209548</v>
       </c>
       <c r="P41" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q41" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R41" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="S41" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="T41" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="U41" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="V41" t="n">
-        <v>624.5299076336728</v>
+        <v>455.7745100097214</v>
       </c>
       <c r="W41" t="n">
-        <v>624.5299076336728</v>
+        <v>455.7745100097214</v>
       </c>
       <c r="X41" t="n">
-        <v>624.5299076336728</v>
+        <v>301.7966350064371</v>
       </c>
       <c r="Y41" t="n">
-        <v>624.5299076336728</v>
+        <v>147.8187600031528</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78.50954797104055</v>
+        <v>261.9697632490985</v>
       </c>
       <c r="C42" t="n">
-        <v>78.50954797104055</v>
+        <v>261.9697632490985</v>
       </c>
       <c r="D42" t="n">
-        <v>78.50954797104055</v>
+        <v>239.3137169823482</v>
       </c>
       <c r="E42" t="n">
-        <v>78.50954797104055</v>
+        <v>164.2868487467189</v>
       </c>
       <c r="F42" t="n">
-        <v>17.38260864672124</v>
+        <v>101.9628775434301</v>
       </c>
       <c r="G42" t="n">
-        <v>17.38260864672124</v>
+        <v>47.44263889587184</v>
       </c>
       <c r="H42" t="n">
-        <v>17.38260864672124</v>
+        <v>18.2840900732774</v>
       </c>
       <c r="I42" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J42" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K42" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="L42" t="n">
-        <v>167.0617502920074</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="M42" t="n">
-        <v>321.6329024313414</v>
+        <v>163.108762990979</v>
       </c>
       <c r="N42" t="n">
-        <v>476.2040545706755</v>
+        <v>314.022478281698</v>
       </c>
       <c r="O42" t="n">
-        <v>624.5299076336728</v>
+        <v>389.4441112089575</v>
       </c>
       <c r="P42" t="n">
-        <v>624.5299076336728</v>
+        <v>540.3578264996764</v>
       </c>
       <c r="Q42" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="R42" t="n">
-        <v>624.5299076336728</v>
+        <v>592.7934423357177</v>
       </c>
       <c r="S42" t="n">
-        <v>536.5201817331374</v>
+        <v>503.5866845562128</v>
       </c>
       <c r="T42" t="n">
-        <v>419.7412057406992</v>
+        <v>385.6106766848051</v>
       </c>
       <c r="U42" t="n">
-        <v>276.925206125884</v>
+        <v>385.6106766848051</v>
       </c>
       <c r="V42" t="n">
-        <v>127.180716542937</v>
+        <v>385.6106766848051</v>
       </c>
       <c r="W42" t="n">
-        <v>127.180716542937</v>
+        <v>385.6106766848051</v>
       </c>
       <c r="X42" t="n">
-        <v>127.180716542937</v>
+        <v>261.9697632490985</v>
       </c>
       <c r="Y42" t="n">
-        <v>127.180716542937</v>
+        <v>261.9697632490985</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.88698613091373</v>
+        <v>223.6449574866126</v>
       </c>
       <c r="C43" t="n">
-        <v>96.88698613091373</v>
+        <v>138.9193613285319</v>
       </c>
       <c r="D43" t="n">
-        <v>96.88698613091373</v>
+        <v>138.9193613285319</v>
       </c>
       <c r="E43" t="n">
-        <v>96.88698613091373</v>
+        <v>138.9193613285319</v>
       </c>
       <c r="F43" t="n">
-        <v>96.88698613091373</v>
+        <v>138.9193613285319</v>
       </c>
       <c r="G43" t="n">
-        <v>96.88698613091373</v>
+        <v>53.44209016052102</v>
       </c>
       <c r="H43" t="n">
-        <v>92.99824473784065</v>
+        <v>53.44209016052102</v>
       </c>
       <c r="I43" t="n">
-        <v>21.38518164193103</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="J43" t="n">
-        <v>12.49059815267346</v>
+        <v>12.19504770026012</v>
       </c>
       <c r="K43" t="n">
-        <v>74.15180828273401</v>
+        <v>72.68304688574278</v>
       </c>
       <c r="L43" t="n">
-        <v>185.1739403281317</v>
+        <v>175.0892614857767</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0699855580385</v>
+        <v>296.8120957711056</v>
       </c>
       <c r="N43" t="n">
-        <v>435.4688432511596</v>
+        <v>423.0377425196486</v>
       </c>
       <c r="O43" t="n">
-        <v>543.5161269237435</v>
+        <v>529.9118152476545</v>
       </c>
       <c r="P43" t="n">
-        <v>624.5299076336728</v>
+        <v>609.7523850130058</v>
       </c>
       <c r="Q43" t="n">
-        <v>624.5299076336728</v>
+        <v>606.9306048619286</v>
       </c>
       <c r="R43" t="n">
-        <v>530.8532925681559</v>
+        <v>606.9306048619286</v>
       </c>
       <c r="S43" t="n">
-        <v>389.981519260414</v>
+        <v>464.8617996752172</v>
       </c>
       <c r="T43" t="n">
-        <v>389.981519260414</v>
+        <v>464.8617996752172</v>
       </c>
       <c r="U43" t="n">
-        <v>232.2719466256481</v>
+        <v>464.8617996752172</v>
       </c>
       <c r="V43" t="n">
-        <v>232.2719466256481</v>
+        <v>464.8617996752172</v>
       </c>
       <c r="W43" t="n">
-        <v>232.2719466256481</v>
+        <v>464.8617996752172</v>
       </c>
       <c r="X43" t="n">
-        <v>232.2719466256481</v>
+        <v>321.0828355470261</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.88698613091373</v>
+        <v>321.0828355470261</v>
       </c>
     </row>
     <row r="44">
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>279.3482326317951</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>391.8988918784055</v>
+        <v>293.215810219087</v>
       </c>
       <c r="M20" t="n">
-        <v>386.478710135691</v>
+        <v>382.7843294805242</v>
       </c>
       <c r="N20" t="n">
-        <v>385.5455405050092</v>
+        <v>381.8511598498424</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>217.570019327559</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>294.6868566882924</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>298.2665108304366</v>
+        <v>218.3175015253108</v>
       </c>
       <c r="N21" t="n">
-        <v>287.4741889917515</v>
+        <v>283.7798083365848</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>295.0343406976959</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>286.4125036675817</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9641,19 +9641,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>391.8988918784055</v>
+        <v>388.2045112232387</v>
       </c>
       <c r="M23" t="n">
-        <v>386.478710135691</v>
+        <v>382.7843294805242</v>
       </c>
       <c r="N23" t="n">
-        <v>385.5455405050092</v>
+        <v>381.8511598498424</v>
       </c>
       <c r="O23" t="n">
-        <v>275.8667438985302</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>273.4564154822054</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>214.0249065776514</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>290.9924760331256</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>294.5721301752698</v>
       </c>
       <c r="N24" t="n">
-        <v>240.5789713067319</v>
+        <v>283.7798083365848</v>
       </c>
       <c r="O24" t="n">
-        <v>298.7287213528626</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>290.1068843227484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>383.7815226353001</v>
       </c>
       <c r="M26" t="n">
-        <v>386.4787101356909</v>
+        <v>382.7843294805242</v>
       </c>
       <c r="N26" t="n">
-        <v>385.5455405050091</v>
+        <v>381.8511598498424</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>282.4320352994725</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9960,16 +9960,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>221.8626142752183</v>
+        <v>218.3175015253108</v>
       </c>
       <c r="N27" t="n">
-        <v>287.4741889917515</v>
+        <v>283.7798083365848</v>
       </c>
       <c r="O27" t="n">
-        <v>298.7287213528626</v>
+        <v>295.0343406976959</v>
       </c>
       <c r="P27" t="n">
-        <v>290.1068843227484</v>
+        <v>286.4125036675817</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>279.348232631795</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>391.8988918784054</v>
+        <v>388.2045112232387</v>
       </c>
       <c r="M29" t="n">
-        <v>386.4787101356909</v>
+        <v>382.7843294805242</v>
       </c>
       <c r="N29" t="n">
-        <v>385.5455405050091</v>
+        <v>377.4281712619038</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>214.0249065776514</v>
       </c>
       <c r="L30" t="n">
-        <v>294.6868566882924</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>298.2665108304365</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>240.5789713067319</v>
+        <v>283.7798083365848</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>295.0343406976959</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>286.4125036675817</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>279.348232631795</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>391.8988918784054</v>
+        <v>279.7259611091159</v>
       </c>
       <c r="M32" t="n">
-        <v>386.4787101356909</v>
+        <v>382.7843294805242</v>
       </c>
       <c r="N32" t="n">
-        <v>385.5455405050091</v>
+        <v>381.8511598498424</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>247.7916390032727</v>
+        <v>290.9924760331256</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>294.5721301752698</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>283.7798083365848</v>
       </c>
       <c r="O33" t="n">
-        <v>298.7287213528626</v>
+        <v>162.2514276593449</v>
       </c>
       <c r="P33" t="n">
-        <v>290.1068843227484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>300.4553036241613</v>
+        <v>388.2045112232387</v>
       </c>
       <c r="M35" t="n">
-        <v>386.4787101356909</v>
+        <v>382.7843294805242</v>
       </c>
       <c r="N35" t="n">
-        <v>385.5455405050091</v>
+        <v>333.5088671605652</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10668,22 +10668,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>214.7378473831666</v>
       </c>
       <c r="M36" t="n">
-        <v>298.2665108304365</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>287.4741889917515</v>
+        <v>283.7798083365848</v>
       </c>
       <c r="O36" t="n">
-        <v>292.4203384474721</v>
+        <v>295.0343406976959</v>
       </c>
       <c r="P36" t="n">
-        <v>290.1068843227484</v>
+        <v>286.4125036675817</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,16 +10823,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>284.7787396991546</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>293.215810219087</v>
       </c>
       <c r="M38" t="n">
-        <v>386.4787101356909</v>
+        <v>382.7843294805242</v>
       </c>
       <c r="N38" t="n">
-        <v>385.5455405050091</v>
+        <v>381.8511598498424</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>294.6868566882924</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>298.2665108304365</v>
+        <v>218.3175015253108</v>
       </c>
       <c r="N39" t="n">
-        <v>287.4741889917515</v>
+        <v>283.7798083365848</v>
       </c>
       <c r="O39" t="n">
-        <v>165.7965404092524</v>
+        <v>295.0343406976959</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>286.4125036675817</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>347.1017119390357</v>
+        <v>293.215810219087</v>
       </c>
       <c r="M41" t="n">
-        <v>386.4787101356909</v>
+        <v>382.7843294805242</v>
       </c>
       <c r="N41" t="n">
-        <v>385.5455405050091</v>
+        <v>381.8511598498424</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>294.6868566882924</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>298.2665108304365</v>
+        <v>294.5721301752698</v>
       </c>
       <c r="N42" t="n">
-        <v>287.4741889917515</v>
+        <v>283.7798083365848</v>
       </c>
       <c r="O42" t="n">
-        <v>292.4203384474721</v>
+        <v>218.7797120477369</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>286.4125036675817</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>308.9415005024009</v>
+        <v>307.4169956897111</v>
       </c>
       <c r="C14" t="n">
-        <v>291.4805506099278</v>
+        <v>289.9560457972381</v>
       </c>
       <c r="D14" t="n">
-        <v>280.8907004596032</v>
+        <v>279.3661956469135</v>
       </c>
       <c r="E14" t="n">
-        <v>308.1380289111821</v>
+        <v>306.6135240984923</v>
       </c>
       <c r="F14" t="n">
-        <v>333.0837045806317</v>
+        <v>331.559199767942</v>
       </c>
       <c r="G14" t="n">
-        <v>341.5103963540553</v>
+        <v>339.9858915413656</v>
       </c>
       <c r="H14" t="n">
-        <v>265.6824609546874</v>
+        <v>264.1579561419977</v>
       </c>
       <c r="I14" t="n">
-        <v>136.6835484093262</v>
+        <v>135.1590435966365</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>76.07677678006996</v>
+        <v>74.55227196738024</v>
       </c>
       <c r="S14" t="n">
-        <v>135.2277284251656</v>
+        <v>133.7032236124759</v>
       </c>
       <c r="T14" t="n">
-        <v>149.3035084030516</v>
+        <v>147.7790035903619</v>
       </c>
       <c r="U14" t="n">
-        <v>177.5533117467568</v>
+        <v>176.0288069340671</v>
       </c>
       <c r="V14" t="n">
-        <v>253.9599173090552</v>
+        <v>252.4354124963655</v>
       </c>
       <c r="W14" t="n">
-        <v>275.4486275563333</v>
+        <v>273.9241227436436</v>
       </c>
       <c r="X14" t="n">
-        <v>295.9387595173893</v>
+        <v>294.4142547046996</v>
       </c>
       <c r="Y14" t="n">
-        <v>312.4455974949739</v>
+        <v>310.9210926822842</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.74084248878762</v>
+        <v>91.21633767609789</v>
       </c>
       <c r="C15" t="n">
-        <v>98.91615782723602</v>
+        <v>97.39165301454629</v>
       </c>
       <c r="D15" t="n">
-        <v>73.65272440355903</v>
+        <v>72.12821959086931</v>
       </c>
       <c r="E15" t="n">
-        <v>83.85273929432122</v>
+        <v>82.3282344816315</v>
       </c>
       <c r="F15" t="n">
-        <v>71.27687123230416</v>
+        <v>69.75236641961443</v>
       </c>
       <c r="G15" t="n">
-        <v>63.55117600213092</v>
+        <v>62.02667118944119</v>
       </c>
       <c r="H15" t="n">
-        <v>38.44310307541674</v>
+        <v>36.91859826272702</v>
       </c>
       <c r="I15" t="n">
-        <v>15.60429169033536</v>
+        <v>14.07978687764563</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.36549299156341</v>
+        <v>24.84098817887369</v>
       </c>
       <c r="S15" t="n">
-        <v>97.8908299427581</v>
+        <v>96.36632513006838</v>
       </c>
       <c r="T15" t="n">
-        <v>126.3723875337419</v>
+        <v>124.8478827210522</v>
       </c>
       <c r="U15" t="n">
-        <v>152.1490409198951</v>
+        <v>150.6245361072054</v>
       </c>
       <c r="V15" t="n">
-        <v>159.0082459883455</v>
+        <v>157.4837411756558</v>
       </c>
       <c r="W15" t="n">
-        <v>177.9026419998399</v>
+        <v>176.3781371871502</v>
       </c>
       <c r="X15" t="n">
-        <v>131.9806440423978</v>
+        <v>130.456139229708</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.8903546162246</v>
+        <v>130.3658498035349</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0396390208576</v>
+        <v>104.5151342081679</v>
       </c>
       <c r="C16" t="n">
-        <v>93.45447993754811</v>
+        <v>91.92997512485839</v>
       </c>
       <c r="D16" t="n">
-        <v>74.82313185713264</v>
+        <v>73.29862704444291</v>
       </c>
       <c r="E16" t="n">
-        <v>72.64162148548945</v>
+        <v>71.11711667279972</v>
       </c>
       <c r="F16" t="n">
-        <v>71.62870686185153</v>
+        <v>70.1042020491618</v>
       </c>
       <c r="G16" t="n">
-        <v>94.19863819737904</v>
+        <v>92.67413338468931</v>
       </c>
       <c r="H16" t="n">
-        <v>88.43483134635986</v>
+        <v>86.91032653367013</v>
       </c>
       <c r="I16" t="n">
-        <v>81.65813376617857</v>
+        <v>80.13362895348884</v>
       </c>
       <c r="J16" t="n">
-        <v>19.56683895559306</v>
+        <v>18.04233414290333</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.36970209061467</v>
+        <v>10.84519727792494</v>
       </c>
       <c r="R16" t="n">
-        <v>103.5010502160898</v>
+        <v>101.9765454034</v>
       </c>
       <c r="S16" t="n">
-        <v>150.2242568758925</v>
+        <v>148.6997520632028</v>
       </c>
       <c r="T16" t="n">
-        <v>154.1532482672018</v>
+        <v>152.6287434545121</v>
       </c>
       <c r="U16" t="n">
-        <v>212.5266881954112</v>
+        <v>211.0021833827215</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3453021627483</v>
+        <v>176.8207973500586</v>
       </c>
       <c r="W16" t="n">
-        <v>212.7306571755113</v>
+        <v>211.2061523628216</v>
       </c>
       <c r="X16" t="n">
-        <v>151.9173142279574</v>
+        <v>150.3928094152677</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.7923121910151</v>
+        <v>143.2678073783254</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.9415005024009</v>
+        <v>307.4169956897111</v>
       </c>
       <c r="C17" t="n">
-        <v>291.4805506099278</v>
+        <v>289.9560457972381</v>
       </c>
       <c r="D17" t="n">
-        <v>280.8907004596032</v>
+        <v>279.3661956469135</v>
       </c>
       <c r="E17" t="n">
-        <v>308.1380289111821</v>
+        <v>306.6135240984923</v>
       </c>
       <c r="F17" t="n">
-        <v>333.0837045806317</v>
+        <v>331.559199767942</v>
       </c>
       <c r="G17" t="n">
-        <v>341.5103963540553</v>
+        <v>339.9858915413656</v>
       </c>
       <c r="H17" t="n">
-        <v>265.6824609546874</v>
+        <v>264.1579561419977</v>
       </c>
       <c r="I17" t="n">
-        <v>136.6835484093262</v>
+        <v>135.1590435966365</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>76.07677678006996</v>
+        <v>74.55227196738024</v>
       </c>
       <c r="S17" t="n">
-        <v>135.2277284251656</v>
+        <v>133.7032236124759</v>
       </c>
       <c r="T17" t="n">
-        <v>149.3035084030516</v>
+        <v>147.7790035903619</v>
       </c>
       <c r="U17" t="n">
-        <v>177.5533117467568</v>
+        <v>176.0288069340671</v>
       </c>
       <c r="V17" t="n">
-        <v>253.9599173090552</v>
+        <v>252.4354124963655</v>
       </c>
       <c r="W17" t="n">
-        <v>275.4486275563333</v>
+        <v>273.9241227436436</v>
       </c>
       <c r="X17" t="n">
-        <v>295.9387595173893</v>
+        <v>294.4142547046996</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.4455974949739</v>
+        <v>310.9210926822842</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.74084248878762</v>
+        <v>91.21633767609789</v>
       </c>
       <c r="C18" t="n">
-        <v>98.91615782723602</v>
+        <v>97.39165301454629</v>
       </c>
       <c r="D18" t="n">
-        <v>73.65272440355903</v>
+        <v>72.12821959086931</v>
       </c>
       <c r="E18" t="n">
-        <v>83.85273929432122</v>
+        <v>82.3282344816315</v>
       </c>
       <c r="F18" t="n">
-        <v>71.27687123230416</v>
+        <v>69.75236641961443</v>
       </c>
       <c r="G18" t="n">
-        <v>63.55117600213092</v>
+        <v>62.02667118944119</v>
       </c>
       <c r="H18" t="n">
-        <v>38.44310307541674</v>
+        <v>36.91859826272702</v>
       </c>
       <c r="I18" t="n">
-        <v>15.60429169033536</v>
+        <v>14.07978687764563</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.36549299156341</v>
+        <v>24.84098817887369</v>
       </c>
       <c r="S18" t="n">
-        <v>97.8908299427581</v>
+        <v>96.36632513006838</v>
       </c>
       <c r="T18" t="n">
-        <v>126.3723875337419</v>
+        <v>124.8478827210522</v>
       </c>
       <c r="U18" t="n">
-        <v>152.1490409198951</v>
+        <v>150.6245361072054</v>
       </c>
       <c r="V18" t="n">
-        <v>159.0082459883455</v>
+        <v>157.4837411756558</v>
       </c>
       <c r="W18" t="n">
-        <v>177.9026419998399</v>
+        <v>176.3781371871502</v>
       </c>
       <c r="X18" t="n">
-        <v>131.9806440423978</v>
+        <v>130.456139229708</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.8903546162246</v>
+        <v>130.3658498035349</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0396390208576</v>
+        <v>104.5151342081679</v>
       </c>
       <c r="C19" t="n">
-        <v>93.45447993754811</v>
+        <v>91.92997512485839</v>
       </c>
       <c r="D19" t="n">
-        <v>74.82313185713264</v>
+        <v>73.29862704444291</v>
       </c>
       <c r="E19" t="n">
-        <v>72.64162148548945</v>
+        <v>71.11711667279972</v>
       </c>
       <c r="F19" t="n">
-        <v>71.62870686185153</v>
+        <v>70.1042020491618</v>
       </c>
       <c r="G19" t="n">
-        <v>94.19863819737904</v>
+        <v>92.67413338468931</v>
       </c>
       <c r="H19" t="n">
-        <v>88.43483134635986</v>
+        <v>86.91032653367013</v>
       </c>
       <c r="I19" t="n">
-        <v>81.65813376617857</v>
+        <v>80.13362895348884</v>
       </c>
       <c r="J19" t="n">
-        <v>19.56683895559306</v>
+        <v>18.04233414290333</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.36970209061467</v>
+        <v>10.84519727792494</v>
       </c>
       <c r="R19" t="n">
-        <v>103.5010502160898</v>
+        <v>101.9765454034</v>
       </c>
       <c r="S19" t="n">
-        <v>150.2242568758925</v>
+        <v>148.6997520632028</v>
       </c>
       <c r="T19" t="n">
-        <v>154.1532482672018</v>
+        <v>152.6287434545121</v>
       </c>
       <c r="U19" t="n">
-        <v>212.5266881954112</v>
+        <v>211.0021833827215</v>
       </c>
       <c r="V19" t="n">
-        <v>178.3453021627483</v>
+        <v>176.8207973500586</v>
       </c>
       <c r="W19" t="n">
-        <v>212.7306571755113</v>
+        <v>211.2061523628216</v>
       </c>
       <c r="X19" t="n">
-        <v>151.9173142279574</v>
+        <v>150.3928094152677</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.7923121910151</v>
+        <v>143.2678073783254</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>298.1802992011728</v>
+        <v>300.6183416537408</v>
       </c>
       <c r="C20" t="n">
-        <v>280.7193493086997</v>
+        <v>283.1573917612677</v>
       </c>
       <c r="D20" t="n">
-        <v>270.1294991583752</v>
+        <v>272.5675416109432</v>
       </c>
       <c r="E20" t="n">
-        <v>297.376827609954</v>
+        <v>299.814870062522</v>
       </c>
       <c r="F20" t="n">
-        <v>322.3225032794037</v>
+        <v>324.7605457319717</v>
       </c>
       <c r="G20" t="n">
-        <v>330.7491950528273</v>
+        <v>333.1872375053953</v>
       </c>
       <c r="H20" t="n">
-        <v>98.78878274504115</v>
+        <v>104.9212058527759</v>
       </c>
       <c r="I20" t="n">
-        <v>125.9223471080981</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.31557547884191</v>
+        <v>36.31300563546631</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4665271239376</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>138.5423071018236</v>
+        <v>140.9803495543916</v>
       </c>
       <c r="U20" t="n">
-        <v>166.7921104455287</v>
+        <v>16.79205664484525</v>
       </c>
       <c r="V20" t="n">
-        <v>243.1987160078271</v>
+        <v>245.6367584603951</v>
       </c>
       <c r="W20" t="n">
-        <v>127.1659405941705</v>
+        <v>267.1254687076732</v>
       </c>
       <c r="X20" t="n">
-        <v>129.0450813077431</v>
+        <v>287.6156006687293</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.5519192853276</v>
+        <v>304.1224386463138</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81.97964118755957</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>88.15495652600796</v>
+        <v>90.59299897857593</v>
       </c>
       <c r="D21" t="n">
-        <v>62.89152310233098</v>
+        <v>65.32956555489895</v>
       </c>
       <c r="E21" t="n">
-        <v>73.09153799309317</v>
+        <v>75.52958044566114</v>
       </c>
       <c r="F21" t="n">
-        <v>60.5156699310761</v>
+        <v>62.95371238364407</v>
       </c>
       <c r="G21" t="n">
-        <v>52.78997470090286</v>
+        <v>55.22801715347083</v>
       </c>
       <c r="H21" t="n">
-        <v>27.68190177418869</v>
+        <v>30.11994422675666</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.281132841675273</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.60429169033536</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>87.12962864153005</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>115.6111862325138</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>87.04013127328696</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>150.6850871396855</v>
       </c>
       <c r="W21" t="n">
-        <v>11.0089637901936</v>
+        <v>169.5794831511798</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>109.5457166551298</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>97.71648017219749</v>
       </c>
       <c r="C22" t="n">
-        <v>82.69327863632006</v>
+        <v>85.13132108888803</v>
       </c>
       <c r="D22" t="n">
-        <v>64.06193055590458</v>
+        <v>66.49997300847255</v>
       </c>
       <c r="E22" t="n">
-        <v>61.8804201842614</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>60.86750556062347</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>53.14909950772819</v>
+        <v>80.11167249769977</v>
       </c>
       <c r="I22" t="n">
-        <v>70.89693246495051</v>
+        <v>73.33497491751848</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>11.24368010693297</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4.046543241954581</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>15.36380309834439</v>
       </c>
       <c r="S22" t="n">
-        <v>139.4630555746645</v>
+        <v>141.9010980272325</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.63300998576489</v>
+        <v>204.2035293467511</v>
       </c>
       <c r="V22" t="n">
-        <v>167.5841008615202</v>
+        <v>17.58404706083675</v>
       </c>
       <c r="W22" t="n">
-        <v>201.9694558742832</v>
+        <v>204.4074983268512</v>
       </c>
       <c r="X22" t="n">
-        <v>141.1561129267294</v>
+        <v>143.5941553792973</v>
       </c>
       <c r="Y22" t="n">
-        <v>134.031110889787</v>
+        <v>136.469153342355</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>298.1802992011728</v>
+        <v>300.6183416537408</v>
       </c>
       <c r="C23" t="n">
-        <v>280.7193493086997</v>
+        <v>283.1573917612677</v>
       </c>
       <c r="D23" t="n">
-        <v>113.997022249957</v>
+        <v>272.5675416109432</v>
       </c>
       <c r="E23" t="n">
-        <v>297.376827609954</v>
+        <v>147.3767738092706</v>
       </c>
       <c r="F23" t="n">
-        <v>322.3225032794037</v>
+        <v>172.3224494787202</v>
       </c>
       <c r="G23" t="n">
-        <v>174.6167181444091</v>
+        <v>180.7491412521438</v>
       </c>
       <c r="H23" t="n">
-        <v>254.9212596534594</v>
+        <v>257.3593021060274</v>
       </c>
       <c r="I23" t="n">
-        <v>125.9223471080981</v>
+        <v>61.84653231221223</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.31557547884191</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4665271239376</v>
+        <v>126.9045695765055</v>
       </c>
       <c r="T23" t="n">
-        <v>138.5423071018236</v>
+        <v>140.9803495543916</v>
       </c>
       <c r="U23" t="n">
-        <v>166.7921104455287</v>
+        <v>169.2301528980967</v>
       </c>
       <c r="V23" t="n">
-        <v>243.1987160078271</v>
+        <v>245.6367584603951</v>
       </c>
       <c r="W23" t="n">
-        <v>127.1659405941705</v>
+        <v>267.1254687076732</v>
       </c>
       <c r="X23" t="n">
-        <v>129.0450813077431</v>
+        <v>287.6156006687293</v>
       </c>
       <c r="Y23" t="n">
-        <v>301.6843961937458</v>
+        <v>304.1224386463138</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81.97964118755957</v>
+        <v>84.41768364012754</v>
       </c>
       <c r="C24" t="n">
-        <v>88.15495652600796</v>
+        <v>89.96415685598514</v>
       </c>
       <c r="D24" t="n">
-        <v>62.89152310233098</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>73.09153799309317</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>60.5156699310761</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>52.78997470090286</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>27.68190177418869</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>4.843090389107303</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>15.60429169033536</v>
+        <v>18.04233414290333</v>
       </c>
       <c r="S24" t="n">
-        <v>87.12962864153005</v>
+        <v>89.56767109409802</v>
       </c>
       <c r="T24" t="n">
-        <v>76.67907380169689</v>
+        <v>118.0492286850818</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24345,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>11.0089637901936</v>
+        <v>169.5794831511798</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>123.6574851937377</v>
       </c>
       <c r="Y24" t="n">
-        <v>121.1291533149966</v>
+        <v>123.5671957675646</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.27843771962952</v>
+        <v>97.71648017219749</v>
       </c>
       <c r="C25" t="n">
-        <v>82.69327863632006</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>64.06193055590458</v>
+        <v>10.87336393343239</v>
       </c>
       <c r="E25" t="n">
-        <v>61.8804201842614</v>
+        <v>64.31846263682937</v>
       </c>
       <c r="F25" t="n">
-        <v>60.86750556062347</v>
+        <v>63.30554801319144</v>
       </c>
       <c r="G25" t="n">
-        <v>83.43743689615098</v>
+        <v>85.87547934871895</v>
       </c>
       <c r="H25" t="n">
-        <v>77.6736300451318</v>
+        <v>80.11167249769977</v>
       </c>
       <c r="I25" t="n">
-        <v>70.89693246495051</v>
+        <v>73.33497491751848</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.24368010693297</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>92.73984891486171</v>
+        <v>95.17789136742968</v>
       </c>
       <c r="S25" t="n">
-        <v>139.4630555746645</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>143.3920469659737</v>
+        <v>145.8300894185417</v>
       </c>
       <c r="U25" t="n">
-        <v>45.63300998576489</v>
+        <v>51.76543309349964</v>
       </c>
       <c r="V25" t="n">
-        <v>11.451623953102</v>
+        <v>17.58404706083675</v>
       </c>
       <c r="W25" t="n">
-        <v>45.836978965865</v>
+        <v>204.4074983268512</v>
       </c>
       <c r="X25" t="n">
-        <v>14.04876570954626</v>
+        <v>143.5941553792973</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.031110889787</v>
+        <v>136.469153342355</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.3279080266103</v>
+        <v>148.1802454004894</v>
       </c>
       <c r="C26" t="n">
-        <v>285.8669581341373</v>
+        <v>148.889916581404</v>
       </c>
       <c r="D26" t="n">
-        <v>275.2771079838127</v>
+        <v>120.1294453576917</v>
       </c>
       <c r="E26" t="n">
-        <v>302.5244364353915</v>
+        <v>147.3767738092706</v>
       </c>
       <c r="F26" t="n">
-        <v>327.4701121048412</v>
+        <v>324.7605457319717</v>
       </c>
       <c r="G26" t="n">
-        <v>335.8968038782648</v>
+        <v>333.1872375053953</v>
       </c>
       <c r="H26" t="n">
-        <v>260.0688684788969</v>
+        <v>257.3593021060274</v>
       </c>
       <c r="I26" t="n">
-        <v>131.0699559335357</v>
+        <v>128.3603895606661</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>70.46318430427941</v>
+        <v>67.75361793140989</v>
       </c>
       <c r="S26" t="n">
-        <v>129.6141359493751</v>
+        <v>126.9045695765056</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>140.9803495543916</v>
       </c>
       <c r="U26" t="n">
-        <v>171.9397192709662</v>
+        <v>169.2301528980967</v>
       </c>
       <c r="V26" t="n">
-        <v>98.38227819117287</v>
+        <v>245.6367584603951</v>
       </c>
       <c r="W26" t="n">
-        <v>113.7025581721246</v>
+        <v>267.1254687076732</v>
       </c>
       <c r="X26" t="n">
-        <v>134.1926901331806</v>
+        <v>287.6156006687293</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8320050191833</v>
+        <v>304.1224386463138</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.12725001299707</v>
+        <v>84.41768364012755</v>
       </c>
       <c r="C27" t="n">
-        <v>93.30256535144547</v>
+        <v>90.59299897857595</v>
       </c>
       <c r="D27" t="n">
-        <v>68.03913192776848</v>
+        <v>63.15201893972757</v>
       </c>
       <c r="E27" t="n">
-        <v>78.23914681853067</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>65.66327875651361</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>51.40156457368064</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.281132841675287</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.75190051577286</v>
+        <v>18.04233414290334</v>
       </c>
       <c r="S27" t="n">
-        <v>92.27723746696755</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>118.0492286850818</v>
       </c>
       <c r="U27" t="n">
-        <v>146.5354484441045</v>
+        <v>143.825882071235</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>150.6850871396855</v>
       </c>
       <c r="W27" t="n">
-        <v>16.15657261563115</v>
+        <v>17.14138689792838</v>
       </c>
       <c r="X27" t="n">
-        <v>126.3670515666072</v>
+        <v>123.6574851937377</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.426046545067</v>
+        <v>97.71648017219751</v>
       </c>
       <c r="C28" t="n">
-        <v>87.84088746175756</v>
+        <v>85.13132108888804</v>
       </c>
       <c r="D28" t="n">
-        <v>69.20953938134208</v>
+        <v>66.49997300847257</v>
       </c>
       <c r="E28" t="n">
-        <v>67.0280290096989</v>
+        <v>64.31846263682938</v>
       </c>
       <c r="F28" t="n">
-        <v>66.01511438606097</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>88.58504572158849</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>82.8212388705693</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>76.04454129038801</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>13.9532464798025</v>
+        <v>11.24368010693298</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.756109614824112</v>
+        <v>4.046543241954595</v>
       </c>
       <c r="R28" t="n">
-        <v>97.88745774029921</v>
+        <v>95.17789136742969</v>
       </c>
       <c r="S28" t="n">
-        <v>144.610664400102</v>
+        <v>5.385105117994442</v>
       </c>
       <c r="T28" t="n">
-        <v>41.28919858934418</v>
+        <v>145.8300894185417</v>
       </c>
       <c r="U28" t="n">
-        <v>50.78061881120243</v>
+        <v>204.2035293467511</v>
       </c>
       <c r="V28" t="n">
-        <v>16.59923277853954</v>
+        <v>170.0221433140882</v>
       </c>
       <c r="W28" t="n">
-        <v>50.98458779130254</v>
+        <v>51.96940207359978</v>
       </c>
       <c r="X28" t="n">
-        <v>146.3037217521669</v>
+        <v>143.5941553792974</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1787197152245</v>
+        <v>136.469153342355</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>282.5760075108374</v>
+        <v>282.5760075108375</v>
       </c>
       <c r="C29" t="n">
-        <v>127.5935719574298</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D29" t="n">
-        <v>98.39273055962161</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E29" t="n">
-        <v>125.6400590112004</v>
+        <v>129.3344396663672</v>
       </c>
       <c r="F29" t="n">
-        <v>150.5857346806501</v>
+        <v>154.2801153358169</v>
       </c>
       <c r="G29" t="n">
-        <v>315.1449033624919</v>
+        <v>315.144903362492</v>
       </c>
       <c r="H29" t="n">
         <v>239.316967963124</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>108.8622354336022</v>
@@ -24734,13 +24734,13 @@
         <v>122.9380154114882</v>
       </c>
       <c r="U29" t="n">
-        <v>151.1878187551933</v>
+        <v>151.1878187551934</v>
       </c>
       <c r="V29" t="n">
-        <v>227.5944243174918</v>
+        <v>143.0382329261345</v>
       </c>
       <c r="W29" t="n">
-        <v>249.0831345647699</v>
+        <v>96.64503831151845</v>
       </c>
       <c r="X29" t="n">
         <v>269.5732665258259</v>
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>66.37534949722422</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>47.28723141199562</v>
+        <v>47.28723141199563</v>
       </c>
       <c r="E30" t="n">
-        <v>57.48724630275781</v>
+        <v>57.48724630275782</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>44.91137824074076</v>
       </c>
       <c r="G30" t="n">
-        <v>37.1856830105675</v>
+        <v>37.18568301056752</v>
       </c>
       <c r="H30" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>71.52533695119469</v>
+        <v>71.5253369511947</v>
       </c>
       <c r="T30" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,13 +24819,13 @@
         <v>132.6427529967821</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>81.51411513419008</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>66.37918579955203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.67414602929416</v>
+        <v>79.67414602929418</v>
       </c>
       <c r="C31" t="n">
-        <v>67.0889869459847</v>
+        <v>67.08898694598471</v>
       </c>
       <c r="D31" t="n">
-        <v>48.45763886556922</v>
+        <v>48.45763886556924</v>
       </c>
       <c r="E31" t="n">
-        <v>46.27612849392604</v>
+        <v>46.27612849392605</v>
       </c>
       <c r="F31" t="n">
-        <v>45.26321387028811</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>67.83314520581563</v>
+        <v>67.83314520581564</v>
       </c>
       <c r="H31" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.29264077461515</v>
+        <v>55.29264077461517</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>59.32016771068739</v>
+        <v>77.13555722452637</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T31" t="n">
         <v>127.7877552756384</v>
       </c>
       <c r="U31" t="n">
-        <v>30.02871829542954</v>
+        <v>33.72309895059632</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W31" t="n">
-        <v>30.23268727552966</v>
+        <v>33.92706793069644</v>
       </c>
       <c r="X31" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.4268191994517</v>
+        <v>64.60562122781511</v>
       </c>
     </row>
     <row r="32">
@@ -24923,16 +24923,16 @@
         <v>254.5252074680398</v>
       </c>
       <c r="E32" t="n">
-        <v>125.6400590112004</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F32" t="n">
-        <v>306.7182115890683</v>
+        <v>154.2801153358168</v>
       </c>
       <c r="G32" t="n">
-        <v>315.1449033624919</v>
+        <v>162.7068071092405</v>
       </c>
       <c r="H32" t="n">
-        <v>83.1844910547058</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I32" t="n">
         <v>110.3180554177628</v>
@@ -24965,7 +24965,7 @@
         <v>49.71128378850655</v>
       </c>
       <c r="S32" t="n">
-        <v>94.27876518415577</v>
+        <v>97.53277566522664</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24974,13 +24974,13 @@
         <v>151.1878187551933</v>
       </c>
       <c r="V32" t="n">
-        <v>227.5944243174918</v>
+        <v>75.15632806424031</v>
       </c>
       <c r="W32" t="n">
         <v>249.0831345647699</v>
       </c>
       <c r="X32" t="n">
-        <v>113.4407896174077</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y32" t="n">
         <v>286.0801045034104</v>
@@ -24996,22 +24996,22 @@
         <v>66.37534949722421</v>
       </c>
       <c r="C33" t="n">
-        <v>66.68326385627105</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E33" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>44.91137824074075</v>
+        <v>43.02289622792225</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25047,13 +25047,13 @@
         <v>71.52533695119469</v>
       </c>
       <c r="T33" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>67.83314520581563</v>
       </c>
       <c r="H34" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>55.29264077461515</v>
+        <v>7.00038782753866</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>107.736431722555</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>30.02871829542954</v>
+        <v>33.7230989505963</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W34" t="n">
-        <v>30.23268727552966</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y34" t="n">
         <v>118.4268191994517</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C35" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D35" t="n">
-        <v>265.2864087692679</v>
+        <v>108.8857652507588</v>
       </c>
       <c r="E35" t="n">
-        <v>292.5337372208467</v>
+        <v>136.1330937023376</v>
       </c>
       <c r="F35" t="n">
-        <v>317.4794128902964</v>
+        <v>161.0787693717872</v>
       </c>
       <c r="G35" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H35" t="n">
-        <v>174.6936399531184</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>60.4724850897346</v>
+        <v>39.35917209834633</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U35" t="n">
-        <v>5.816543148003234</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V35" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W35" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X35" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>6.820070023825053</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V36" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.165873401086344</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X36" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.860208074735283</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>94.63743640604879</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U37" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V37" t="n">
-        <v>162.7410104724129</v>
+        <v>8.114065683539792</v>
       </c>
       <c r="W37" t="n">
-        <v>197.1263654851759</v>
+        <v>40.72572196666678</v>
       </c>
       <c r="X37" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C38" t="n">
-        <v>138.3547732586578</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D38" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E38" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F38" t="n">
-        <v>317.4794128902964</v>
+        <v>161.0787693717872</v>
       </c>
       <c r="G38" t="n">
-        <v>325.90610466372</v>
+        <v>169.5054611452109</v>
       </c>
       <c r="H38" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I38" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S38" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>133.6992167127163</v>
+        <v>111.1300837371673</v>
       </c>
       <c r="U38" t="n">
-        <v>161.9490200564214</v>
+        <v>5.548376537912276</v>
       </c>
       <c r="V38" t="n">
-        <v>82.22314871030164</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W38" t="n">
-        <v>103.7118589575798</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X38" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y38" t="n">
-        <v>140.7088288962203</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C39" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D39" t="n">
-        <v>39.81992191710226</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S39" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>110.7680958434065</v>
+        <v>61.9938179225396</v>
       </c>
       <c r="U39" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.165873401086344</v>
+        <v>5.897706790995386</v>
       </c>
       <c r="X39" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25546,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C40" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D40" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E40" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F40" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G40" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H40" t="n">
-        <v>72.8305396560245</v>
+        <v>49.0993055416247</v>
       </c>
       <c r="I40" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J40" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S40" t="n">
-        <v>87.53382685514467</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T40" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.78991959665763</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V40" t="n">
-        <v>6.60853356399474</v>
+        <v>6.340366953903782</v>
       </c>
       <c r="W40" t="n">
-        <v>40.99388857675774</v>
+        <v>40.72572196666678</v>
       </c>
       <c r="X40" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.6588135402382</v>
+        <v>299.3653607613526</v>
       </c>
       <c r="C41" t="n">
-        <v>124.5868724002815</v>
+        <v>281.9044108688796</v>
       </c>
       <c r="D41" t="n">
-        <v>270.1294991583752</v>
+        <v>271.314560718555</v>
       </c>
       <c r="E41" t="n">
-        <v>141.2443507015358</v>
+        <v>298.5618891701338</v>
       </c>
       <c r="F41" t="n">
-        <v>166.1900263709855</v>
+        <v>323.5075648395834</v>
       </c>
       <c r="G41" t="n">
-        <v>330.7491950528273</v>
+        <v>331.9342566130071</v>
       </c>
       <c r="H41" t="n">
-        <v>254.9212596534594</v>
+        <v>248.9462547020534</v>
       </c>
       <c r="I41" t="n">
-        <v>125.9223471080981</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.31557547884191</v>
+        <v>66.50063703902171</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4665271239376</v>
+        <v>125.6515886841174</v>
       </c>
       <c r="T41" t="n">
-        <v>138.5423071018236</v>
+        <v>139.7273686620034</v>
       </c>
       <c r="U41" t="n">
-        <v>166.7921104455287</v>
+        <v>167.9771720057085</v>
       </c>
       <c r="V41" t="n">
-        <v>243.1987160078271</v>
+        <v>91.94568131475549</v>
       </c>
       <c r="W41" t="n">
-        <v>264.6874262551053</v>
+        <v>265.872487815285</v>
       </c>
       <c r="X41" t="n">
-        <v>285.1775582161613</v>
+        <v>133.9245235230896</v>
       </c>
       <c r="Y41" t="n">
-        <v>301.6843961937458</v>
+        <v>150.4313615006742</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.7951843013821</v>
+        <v>83.16470274773937</v>
       </c>
       <c r="C42" t="n">
-        <v>88.15495652600796</v>
+        <v>89.34001808618777</v>
       </c>
       <c r="D42" t="n">
-        <v>62.89152310233098</v>
+        <v>41.64709885842798</v>
       </c>
       <c r="E42" t="n">
-        <v>73.09153799309317</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>52.78997470090286</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>27.68190177418869</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>15.60429169033536</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>142.5729011788468</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>149.4321062472973</v>
       </c>
       <c r="W42" t="n">
-        <v>167.1414406986118</v>
+        <v>168.3265022587916</v>
       </c>
       <c r="X42" t="n">
-        <v>121.2194427411697</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.1291533149966</v>
+        <v>122.3142148751764</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.27843771962952</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>82.69327863632006</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>64.06193055590458</v>
+        <v>65.24699211608439</v>
       </c>
       <c r="E43" t="n">
-        <v>61.8804201842614</v>
+        <v>63.0654817444412</v>
       </c>
       <c r="F43" t="n">
-        <v>60.86750556062347</v>
+        <v>62.05256712080327</v>
       </c>
       <c r="G43" t="n">
-        <v>83.43743689615098</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>73.82377606598946</v>
+        <v>78.85869160531161</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>31.24742198947202</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25828,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.608500789386611</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>93.92491047504151</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>143.3920469659737</v>
+        <v>144.5771085261535</v>
       </c>
       <c r="U43" t="n">
-        <v>45.63300998576491</v>
+        <v>202.9505484543629</v>
       </c>
       <c r="V43" t="n">
-        <v>167.5841008615202</v>
+        <v>168.7691624217</v>
       </c>
       <c r="W43" t="n">
-        <v>201.9694558742832</v>
+        <v>203.154517434463</v>
       </c>
       <c r="X43" t="n">
-        <v>141.1561129267294</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>135.2161724499668</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>401574.7153127012</v>
+        <v>404391.3904046267</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>401574.7153127012</v>
+        <v>404391.3904046267</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>525424.8229206968</v>
+        <v>518494.955702127</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>525424.8229206967</v>
+        <v>518494.955702127</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>515351.0597254836</v>
+        <v>518494.9557021269</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>553514.9224971754</v>
+        <v>551089.5825139699</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>553514.9224971753</v>
+        <v>551089.5825139699</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534312.7533570566</v>
+        <v>539004.7030188711</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534312.7533570566</v>
+        <v>539004.7030188713</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>525424.8229206968</v>
+        <v>520809.9631989031</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491125</v>
+        <v>798794.4302491124</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491124</v>
       </c>
       <c r="E2" t="n">
         <v>234740.9065329396</v>
       </c>
       <c r="F2" t="n">
-        <v>383480.7730013411</v>
+        <v>387024.3319879574</v>
       </c>
       <c r="G2" t="n">
-        <v>383480.7730013411</v>
+        <v>387024.3319879576</v>
       </c>
       <c r="H2" t="n">
-        <v>494746.6670534898</v>
+        <v>487038.7875259712</v>
       </c>
       <c r="I2" t="n">
-        <v>494746.6670534896</v>
+        <v>487038.7875259714</v>
       </c>
       <c r="J2" t="n">
-        <v>482073.2230337058</v>
+        <v>487038.7875259712</v>
       </c>
       <c r="K2" t="n">
-        <v>530085.8245851884</v>
+        <v>528044.9309344189</v>
       </c>
       <c r="L2" t="n">
-        <v>530085.8245851884</v>
+        <v>528044.9309344189</v>
       </c>
       <c r="M2" t="n">
-        <v>505928.2569572972</v>
+        <v>512841.3728599391</v>
       </c>
       <c r="N2" t="n">
-        <v>505928.2569572969</v>
+        <v>512841.372859939</v>
       </c>
       <c r="O2" t="n">
-        <v>494746.6670534897</v>
+        <v>489951.216312238</v>
       </c>
       <c r="P2" t="n">
         <v>209639.4407863205</v>
@@ -26375,22 +26375,22 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>51041.31355722793</v>
+        <v>52260.91740737971</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50734.90850316586</v>
+        <v>46568.09354076981</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3874.472311285842</v>
+        <v>7992.559371635843</v>
       </c>
       <c r="K3" t="n">
-        <v>67642.83396984622</v>
+        <v>66694.78472170238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>109632.2639604309</v>
+        <v>111451.1164620685</v>
       </c>
       <c r="F4" t="n">
-        <v>196704.8984266581</v>
+        <v>200598.1579025461</v>
       </c>
       <c r="G4" t="n">
-        <v>196704.8984266581</v>
+        <v>200598.1579025461</v>
       </c>
       <c r="H4" t="n">
-        <v>252832.6874613998</v>
+        <v>250993.0026812923</v>
       </c>
       <c r="I4" t="n">
-        <v>252832.6874613998</v>
+        <v>250993.0026812923</v>
       </c>
       <c r="J4" t="n">
-        <v>245404.0950914407</v>
+        <v>250993.0026812923</v>
       </c>
       <c r="K4" t="n">
-        <v>273520.3055100265</v>
+        <v>274998.0863259787</v>
       </c>
       <c r="L4" t="n">
-        <v>273520.3055100265</v>
+        <v>274998.0863259787</v>
       </c>
       <c r="M4" t="n">
-        <v>259378.4139943218</v>
+        <v>266097.8910640285</v>
       </c>
       <c r="N4" t="n">
-        <v>259378.4139943219</v>
+        <v>266097.8910640285</v>
       </c>
       <c r="O4" t="n">
-        <v>252832.6874613998</v>
+        <v>252697.9446927162</v>
       </c>
       <c r="P4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>6203.648329070811</v>
+        <v>6331.811924168824</v>
       </c>
       <c r="G5" t="n">
-        <v>6203.648329070811</v>
+        <v>6331.811924168824</v>
       </c>
       <c r="H5" t="n">
-        <v>16601.18635729558</v>
+        <v>16171.6042225165</v>
       </c>
       <c r="I5" t="n">
-        <v>16601.18635729558</v>
+        <v>16171.6042225165</v>
       </c>
       <c r="J5" t="n">
-        <v>16168.43203094987</v>
+        <v>16171.6042225165</v>
       </c>
       <c r="K5" t="n">
-        <v>17913.02355541038</v>
+        <v>17688.40521157624</v>
       </c>
       <c r="L5" t="n">
-        <v>17913.02355541038</v>
+        <v>17688.40521157624</v>
       </c>
       <c r="M5" t="n">
-        <v>17008.34012321744</v>
+        <v>17116.84916542625</v>
       </c>
       <c r="N5" t="n">
-        <v>17008.34012321744</v>
+        <v>17116.84916542625</v>
       </c>
       <c r="O5" t="n">
-        <v>16601.18635729558</v>
+        <v>16276.94107315868</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325336.4327549294</v>
+        <v>323517.5802532915</v>
       </c>
       <c r="C6" t="n">
-        <v>325336.4327549296</v>
+        <v>323517.5802532919</v>
       </c>
       <c r="D6" t="n">
-        <v>325336.4327549294</v>
+        <v>323517.5802532919</v>
       </c>
       <c r="E6" t="n">
-        <v>116276.1751086054</v>
+        <v>114457.3226069677</v>
       </c>
       <c r="F6" t="n">
-        <v>129530.9126883843</v>
+        <v>127833.4447538627</v>
       </c>
       <c r="G6" t="n">
-        <v>180572.2262456123</v>
+        <v>180094.3621612426</v>
       </c>
       <c r="H6" t="n">
-        <v>174577.8847316285</v>
+        <v>173306.0870813926</v>
       </c>
       <c r="I6" t="n">
-        <v>225312.7932347942</v>
+        <v>219874.1806221625</v>
       </c>
       <c r="J6" t="n">
-        <v>216626.2236000294</v>
+        <v>211881.6212505265</v>
       </c>
       <c r="K6" t="n">
-        <v>171009.6615499053</v>
+        <v>168663.6546751616</v>
       </c>
       <c r="L6" t="n">
-        <v>238652.4955197515</v>
+        <v>235358.4393968639</v>
       </c>
       <c r="M6" t="n">
-        <v>229541.5028397579</v>
+        <v>229626.6326304843</v>
       </c>
       <c r="N6" t="n">
-        <v>229541.5028397576</v>
+        <v>229626.6326304842</v>
       </c>
       <c r="O6" t="n">
-        <v>225312.7932347943</v>
+        <v>220976.3305463631</v>
       </c>
       <c r="P6" t="n">
-        <v>114701.6283096563</v>
+        <v>112882.7758080187</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="G2" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="H2" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="I2" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="J2" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="K2" t="n">
         <v>100.1578341526431</v>
@@ -26716,13 +26716,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="M2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="N2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="O2" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="I4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="J4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="K4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="L4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="M4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,22 +26917,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>63.80164194653491</v>
+        <v>65.32614675922464</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.843090389107303</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>63.80164194653491</v>
+        <v>65.32614675922464</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.843090389107303</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="P2" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="C14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="D14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="E14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="F14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="G14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="H14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="I14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="S14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="T14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="U14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="V14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="W14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="X14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="Y14" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="C15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="D15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="E15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="F15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="G15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="H15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="I15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="S15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="T15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="U15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="V15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="W15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="X15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="C16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="D16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="E16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="F16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="G16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="H16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="I16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="J16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="R16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="S16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="T16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="U16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="V16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="W16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="X16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="C17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="D17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="E17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="F17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="G17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="H17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="I17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="S17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="T17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="U17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="V17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="W17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="X17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="C18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="D18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="E18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="F18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="G18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="H18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="I18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="S18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="T18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="U18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="V18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="W18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="X18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="Y18" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="C19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="D19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="E19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="F19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="G19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="H19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="I19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="J19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28764,31 +28764,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="R19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="S19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="T19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="U19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="V19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="W19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="X19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.79234116107972</v>
+        <v>75.31684597376945</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="C20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="D20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="E20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="F20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="G20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="H20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="I20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="S20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="T20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="U20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="V20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="W20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="X20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="C21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="D21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="E21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="F21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="G21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="H21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="I21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="S21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="T21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="U21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="V21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="W21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="X21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="Y21" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="C22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="D22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="E22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="F22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="G22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="H22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="I22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="J22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="K22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="L22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="M22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="N22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="O22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="P22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="R22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="S22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="T22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="U22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="V22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="W22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="X22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="C23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="D23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="E23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="F23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="G23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="H23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="I23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="S23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="T23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="U23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="V23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="W23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="X23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="C24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="D24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="E24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="F24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="G24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="H24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="I24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="S24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="T24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="U24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="V24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="W24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="X24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="Y24" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="C25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="D25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="E25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="F25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="G25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="H25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="I25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="J25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="K25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="L25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="M25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="N25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="O25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="P25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="R25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="S25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="T25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="U25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="V25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="W25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="X25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.55354246230777</v>
+        <v>82.1155000097398</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="C26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="D26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="E26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="F26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="G26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="H26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="I26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="S26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="T26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="U26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="V26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="W26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="X26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="C27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="D27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="E27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="F27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="G27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="H27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="I27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="S27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="T27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="U27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="V27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="W27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="X27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="Y27" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="C28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="D28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="E28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="F28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="G28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="H28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="I28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="J28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="K28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="L28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="M28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="N28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="O28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="P28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="R28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="S28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="T28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="U28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="V28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="W28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="X28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.40593363687027</v>
+        <v>82.11550000973979</v>
       </c>
     </row>
     <row r="29">
@@ -29697,16 +29697,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="M31" t="n">
-        <v>85.89547322635497</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="N31" t="n">
-        <v>100.1578341526431</v>
+        <v>71.26721851094726</v>
       </c>
       <c r="O31" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>100.1578341526431</v>
@@ -29931,19 +29931,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="K34" t="n">
+        <v>71.2672185109472</v>
+      </c>
+      <c r="L34" t="n">
         <v>100.1578341526431</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="N34" t="n">
-        <v>85.89547322635494</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="O34" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>100.1578341526431</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="M37" t="n">
-        <v>57.10350091705033</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="N37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="O37" t="n">
-        <v>89.39663285141508</v>
+        <v>18.69996261009657</v>
       </c>
       <c r="P37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="R37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="39">
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L40" t="n">
-        <v>60.33809051677108</v>
+        <v>18.69996261009654</v>
       </c>
       <c r="M40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="N40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="O40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="P40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="R40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y41" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y42" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="C43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="D43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="E43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="F43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="G43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="H43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="I43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="J43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="L43" t="n">
-        <v>84.55354246230777</v>
+        <v>75.85059554779895</v>
       </c>
       <c r="M43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="N43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="O43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="P43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="R43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="S43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="T43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="U43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="V43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="W43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="X43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="Y43" t="n">
-        <v>84.55354246230777</v>
+        <v>83.36848090212797</v>
       </c>
     </row>
     <row r="44">
@@ -36121,19 +36121,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>59.25838158681456</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>156.1324769084182</v>
+        <v>57.44939524909978</v>
       </c>
       <c r="M20" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N20" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>79.72858035320004</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>156.1324769084182</v>
+        <v>76.18346760329246</v>
       </c>
       <c r="N21" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.28405063642492</v>
+        <v>59.84600818385695</v>
       </c>
       <c r="L22" t="n">
-        <v>112.1435677226239</v>
+        <v>109.7055252700559</v>
       </c>
       <c r="M22" t="n">
-        <v>124.1374194241484</v>
+        <v>121.6993769715804</v>
       </c>
       <c r="N22" t="n">
-        <v>128.6857148415364</v>
+        <v>126.2476723889684</v>
       </c>
       <c r="O22" t="n">
-        <v>109.1386703763474</v>
+        <v>106.7006279237795</v>
       </c>
       <c r="P22" t="n">
-        <v>81.83210172720126</v>
+        <v>79.39405927463329</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,19 +36361,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="M23" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N23" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O23" t="n">
-        <v>45.76853247684342</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>42.22341972693592</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>76.18346760329246</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N24" t="n">
-        <v>109.2372592233987</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O24" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.28405063642492</v>
+        <v>59.84600818385695</v>
       </c>
       <c r="L25" t="n">
-        <v>112.1435677226239</v>
+        <v>109.7055252700559</v>
       </c>
       <c r="M25" t="n">
-        <v>124.1374194241484</v>
+        <v>121.6993769715804</v>
       </c>
       <c r="N25" t="n">
-        <v>128.6857148415364</v>
+        <v>126.2476723889684</v>
       </c>
       <c r="O25" t="n">
-        <v>109.1386703763474</v>
+        <v>106.7006279237795</v>
       </c>
       <c r="P25" t="n">
-        <v>81.83210172720126</v>
+        <v>79.39405927463329</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>148.0151076653129</v>
       </c>
       <c r="M26" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N26" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
-        <v>51.19903954420296</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>79.72858035319999</v>
+        <v>76.18346760329246</v>
       </c>
       <c r="N27" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O27" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="P27" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>57.13644181098742</v>
+        <v>59.84600818385694</v>
       </c>
       <c r="L28" t="n">
-        <v>106.9959588971864</v>
+        <v>109.7055252700559</v>
       </c>
       <c r="M28" t="n">
-        <v>118.9898105987109</v>
+        <v>121.6993769715804</v>
       </c>
       <c r="N28" t="n">
-        <v>123.5381060160989</v>
+        <v>126.2476723889684</v>
       </c>
       <c r="O28" t="n">
-        <v>103.9910615509099</v>
+        <v>106.7006279237795</v>
       </c>
       <c r="P28" t="n">
-        <v>76.68449290176376</v>
+        <v>79.39405927463328</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>59.2583815868145</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="M29" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N29" t="n">
-        <v>156.1324769084182</v>
+        <v>148.0151076653129</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>76.18346760329246</v>
       </c>
       <c r="L30" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>109.2372592233986</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.798654035970358</v>
+        <v>6.798654035970344</v>
       </c>
       <c r="K31" t="n">
-        <v>77.88834232676028</v>
+        <v>77.88834232676027</v>
       </c>
       <c r="L31" t="n">
-        <v>27.59002526031614</v>
+        <v>127.7478594129593</v>
       </c>
       <c r="M31" t="n">
-        <v>125.4793501881956</v>
+        <v>139.7417111144837</v>
       </c>
       <c r="N31" t="n">
-        <v>144.2900065318717</v>
+        <v>115.3993908901759</v>
       </c>
       <c r="O31" t="n">
-        <v>124.7429620666828</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
-        <v>97.43639341753662</v>
+        <v>97.43639341753661</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.99579090094875</v>
+        <v>13.99579090094873</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>59.2583815868145</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>156.1324769084182</v>
+        <v>43.95954613912868</v>
       </c>
       <c r="M32" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N32" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>109.2372592233986</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O33" t="n">
-        <v>156.1324769084182</v>
+        <v>19.6551832149005</v>
       </c>
       <c r="P33" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>6.798654035970358</v>
       </c>
       <c r="K34" t="n">
-        <v>77.88834232676028</v>
+        <v>48.99772668506435</v>
       </c>
       <c r="L34" t="n">
-        <v>27.59002526031614</v>
+        <v>127.7478594129593</v>
       </c>
       <c r="M34" t="n">
         <v>139.7417111144837</v>
       </c>
       <c r="N34" t="n">
-        <v>130.0276456055835</v>
+        <v>144.2900065318717</v>
       </c>
       <c r="O34" t="n">
-        <v>124.7429620666828</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P34" t="n">
         <v>97.43639341753662</v>
@@ -37306,19 +37306,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>64.68888865417405</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="M35" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N35" t="n">
-        <v>156.1324769084182</v>
+        <v>104.0958035639743</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>76.18346760329246</v>
       </c>
       <c r="M36" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O36" t="n">
-        <v>149.8240940030276</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="P36" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>67.12714102553223</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L37" t="n">
-        <v>116.9866581117312</v>
+        <v>120.9492053769889</v>
       </c>
       <c r="M37" t="n">
-        <v>96.68737787889091</v>
+        <v>132.9430570785134</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5288052306437</v>
+        <v>137.4913524959014</v>
       </c>
       <c r="O37" t="n">
-        <v>113.9817607654548</v>
+        <v>43.28509052413624</v>
       </c>
       <c r="P37" t="n">
-        <v>86.67519211630857</v>
+        <v>90.63773938156626</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.234589599720692</v>
+        <v>7.19713686497839</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>64.68888865417405</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>57.44939524909978</v>
       </c>
       <c r="M38" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N38" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>156.1324769084182</v>
+        <v>76.18346760329246</v>
       </c>
       <c r="N39" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O39" t="n">
-        <v>23.200295964808</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>67.12714102553223</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L40" t="n">
-        <v>87.92811577708721</v>
+        <v>46.28998787041268</v>
       </c>
       <c r="M40" t="n">
-        <v>128.9805098132557</v>
+        <v>132.9430570785134</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5288052306437</v>
+        <v>137.4913524959014</v>
       </c>
       <c r="O40" t="n">
-        <v>113.9817607654548</v>
+        <v>117.9443080307124</v>
       </c>
       <c r="P40" t="n">
-        <v>86.67519211630857</v>
+        <v>90.63773938156626</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>7.19713686497839</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>111.3352969690485</v>
+        <v>57.44939524909978</v>
       </c>
       <c r="M41" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N41" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>156.1324769084182</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="N42" t="n">
-        <v>156.1324769084182</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="O42" t="n">
-        <v>149.8240940030276</v>
+        <v>76.18346760329243</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>152.4380962532514</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.28405063642492</v>
+        <v>61.09898907624512</v>
       </c>
       <c r="L43" t="n">
-        <v>112.1435677226239</v>
+        <v>103.4406208081151</v>
       </c>
       <c r="M43" t="n">
-        <v>124.1374194241484</v>
+        <v>122.9523578639686</v>
       </c>
       <c r="N43" t="n">
-        <v>128.6857148415364</v>
+        <v>127.5006532813566</v>
       </c>
       <c r="O43" t="n">
-        <v>109.1386703763474</v>
+        <v>107.9536088161676</v>
       </c>
       <c r="P43" t="n">
-        <v>81.83210172720126</v>
+        <v>80.64704016702146</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1891102.350929652</v>
+        <v>1837046.456265696</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3734806.867071135</v>
+        <v>3734806.867071133</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6187591.385798043</v>
+        <v>6187591.385798042</v>
       </c>
     </row>
     <row r="11">
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>30.59619449749312</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>30.59619449749318</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1928,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30.59619449749318</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="T18" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>30.59619449749313</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>30.59619449749318</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>30.59619449749312</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>30.59619449749313</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>30.59619449749318</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.73682390723565</v>
+        <v>19.83499319626512</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S21" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="T21" t="n">
-        <v>30.59619449749312</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.59619449749313</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>30.59619449749318</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="H23" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>86.00267359096034</v>
+        <v>59.35668647049251</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.78023805246563</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>118.9311896975613</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>133.0069696754474</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>82.61961909963169</v>
+        <v>82.61961909963172</v>
       </c>
       <c r="D24" t="n">
-        <v>57.35618567595471</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>35.17664577194107</v>
+        <v>54.98033250469986</v>
       </c>
       <c r="G24" t="n">
-        <v>47.25463727452659</v>
+        <v>47.25463727452662</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>7.224858375566301</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.06895426395911</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V24" t="n">
-        <v>142.7117072607412</v>
+        <v>142.7117072607413</v>
       </c>
       <c r="W24" t="n">
-        <v>161.6061032722355</v>
+        <v>161.6061032722356</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>115.5938158886203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>58.52659312952831</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48.47235535979527</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.13829261875553</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>65.36159503857427</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.270300227988756</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>87.20451148848547</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.9277181482882</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>137.8567095395975</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>49.18594560064204</v>
       </c>
       <c r="V25" t="n">
-        <v>162.0487634351439</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="X25" t="n">
-        <v>135.6207755003531</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>145.782911643426</v>
       </c>
       <c r="F26" t="n">
         <v>165.511934200075</v>
@@ -2572,10 +2572,10 @@
         <v>165.511934200075</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="I26" t="n">
-        <v>120.3870096817219</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>25.39590196170407</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.44430376118329</v>
+        <v>76.44430376118331</v>
       </c>
       <c r="C27" t="n">
-        <v>82.61961909963169</v>
+        <v>82.61961909963171</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>57.35618567595472</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>67.55620056671691</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>54.98033250469985</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47.2546372745266</v>
       </c>
       <c r="H27" t="n">
-        <v>22.14656434781242</v>
+        <v>22.14656434781243</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>142.7117072607412</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>161.6061032722355</v>
+        <v>118.3670551245053</v>
       </c>
       <c r="X27" t="n">
-        <v>41.19660061342666</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>115.5938158886203</v>
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>89.74310029325326</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>77.1579412099438</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>56.34508275788514</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>55.33216813424721</v>
       </c>
       <c r="G28" t="n">
-        <v>77.90209946977471</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.13829261875554</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.270300227988741</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>133.9277181482882</v>
       </c>
       <c r="T28" t="n">
-        <v>137.8567095395974</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>76.50201138351453</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>127.1202528859157</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>145.782911643426</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>59.78023805246563</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>86.00267359096036</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.44430376118329</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>82.61961909963169</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>57.35618567595471</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>67.5562005667169</v>
       </c>
       <c r="F30" t="n">
-        <v>54.98033250469983</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>16.0029097844767</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.06895426395909</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>81.59429121515377</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W30" t="n">
         <v>161.6061032722355</v>
       </c>
       <c r="X30" t="n">
-        <v>115.6841053147934</v>
+        <v>52.99790973651308</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>89.74310029325325</v>
       </c>
       <c r="C31" t="n">
         <v>77.15794120994379</v>
@@ -2970,10 +2970,10 @@
         <v>72.13829261875553</v>
       </c>
       <c r="I31" t="n">
-        <v>65.36159503857424</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.270300227988727</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.93416638458926</v>
+        <v>87.20451148848544</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>135.6207755003531</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>64.6986249137892</v>
       </c>
     </row>
     <row r="32">
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>59.28536056086987</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>119.6947626444529</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>132.3147226381784</v>
       </c>
       <c r="U32" t="n">
-        <v>145.782911643426</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="X32" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>81.92737206236272</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>80.9020441778848</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>109.3836017688686</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>135.1602551550218</v>
       </c>
       <c r="V33" t="n">
-        <v>88.68201463956134</v>
+        <v>121.8691428072697</v>
       </c>
       <c r="W33" t="n">
         <v>160.9138562349666</v>
@@ -3176,7 +3176,7 @@
         <v>114.9918582775245</v>
       </c>
       <c r="Y33" t="n">
-        <v>114.9015688513513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.6238016873687</v>
+        <v>89.05085325598431</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>54.63992109697826</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.578053190719757</v>
+        <v>2.578053190719785</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.2354711110193</v>
       </c>
       <c r="T34" t="n">
         <v>137.1644625023285</v>
       </c>
       <c r="U34" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>90.7214246235371</v>
       </c>
       <c r="W34" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>134.9285284630841</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.511934200075</v>
+        <v>145.782911643426</v>
       </c>
       <c r="C35" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="D35" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="E35" t="n">
-        <v>145.782911643426</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>56.66393863868574</v>
+        <v>56.66393863868576</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>38.1776022226362</v>
+        <v>54.28808546743089</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>46.56239023725765</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>21.45431731054347</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>109.3836017688686</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>135.1602551550218</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>142.0194602234723</v>
@@ -3410,10 +3410,10 @@
         <v>160.9138562349666</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>45.51509727994323</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>114.9015688513514</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>76.46569417267484</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>13.59185285130591</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>64.66934800130527</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.578053190719757</v>
+        <v>2.578053190719785</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.2354711110193</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>161.356516397875</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>139.1863955931557</v>
       </c>
       <c r="X37" t="n">
         <v>134.9285284630841</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.78023805246563</v>
       </c>
       <c r="S38" t="n">
-        <v>118.9311896975613</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.85172194586469</v>
+        <v>133.0069696754473</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>118.5076381155882</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>55.34968673469316</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>54.98033250469983</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>9.337399351078037</v>
       </c>
       <c r="H39" t="n">
         <v>22.14656434781242</v>
@@ -3644,13 +3644,13 @@
         <v>142.7117072607412</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>161.6061032722355</v>
       </c>
       <c r="X39" t="n">
         <v>115.6841053147934</v>
       </c>
       <c r="Y39" t="n">
-        <v>115.5938158886203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.74310029325325</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>58.52659312952831</v>
       </c>
       <c r="E40" t="n">
-        <v>29.12501300048573</v>
+        <v>56.34508275788512</v>
       </c>
       <c r="F40" t="n">
         <v>55.3321681342472</v>
@@ -3684,7 +3684,7 @@
         <v>65.36159503857424</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.270300227988727</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>30.61729587805898</v>
       </c>
     </row>
     <row r="41">
@@ -3739,64 +3739,64 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>115.1867171459329</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>130.7751102928394</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>33.13698726758442</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>82.04972987834849</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.71379558706614</v>
+        <v>24.74091847216864</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>104.8891109255146</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>77.2498243305827</v>
       </c>
       <c r="G42" t="n">
-        <v>43.38424881066955</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>44.41605617369528</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.5772447886139</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>130.7751102928394</v>
-      </c>
-      <c r="V42" t="n">
-        <v>130.7751102928394</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>75.92035278484582</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>80.79608495541117</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>78.61457458376799</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>77.60165996013006</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>100.1715912956576</v>
       </c>
       <c r="H43" t="n">
-        <v>94.40778444463838</v>
+        <v>94.40778444463839</v>
       </c>
       <c r="I43" t="n">
-        <v>87.63108686445709</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.34265518889319</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.4740033143683</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>66.88140791925467</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,26 +3976,26 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>130.7751102928394</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>130.7751102928394</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>115.1867171459329</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="U44" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>115.1867171459329</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>38.43221488239568</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>44.41605617369527</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>32.33844608984194</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>130.7751102928394</v>
       </c>
       <c r="U45" t="n">
-        <v>115.1867171459329</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="W45" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>130.7751102928394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.0125921191361</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>99.42743303582664</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.63108686445709</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>25.53979205387158</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.015838227604296</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="V46" t="n">
-        <v>34.52180228380958</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>130.7751102928394</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>138.9472956289426</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="C17" t="n">
-        <v>138.9472956289426</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="D17" t="n">
-        <v>138.9472956289426</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="E17" t="n">
-        <v>138.9472956289426</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="F17" t="n">
-        <v>108.0420486617778</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="G17" t="n">
-        <v>72.95434774537816</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="H17" t="n">
-        <v>37.8666468289785</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="I17" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="J17" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="K17" t="n">
-        <v>37.16840158074214</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="L17" t="n">
-        <v>37.16840158074214</v>
+        <v>37.1684015807422</v>
       </c>
       <c r="M17" t="n">
-        <v>37.16840158074214</v>
+        <v>71.55785724890555</v>
       </c>
       <c r="N17" t="n">
-        <v>71.55785724890544</v>
+        <v>71.55785724890555</v>
       </c>
       <c r="O17" t="n">
-        <v>105.9473129170687</v>
+        <v>104.5578399607795</v>
       </c>
       <c r="P17" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R17" t="n">
-        <v>138.9472956289426</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="S17" t="n">
-        <v>138.9472956289426</v>
+        <v>72.95434774537827</v>
       </c>
       <c r="T17" t="n">
-        <v>138.9472956289426</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="U17" t="n">
-        <v>138.9472956289426</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="V17" t="n">
-        <v>138.9472956289426</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="W17" t="n">
-        <v>138.9472956289426</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="X17" t="n">
-        <v>138.9472956289426</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="Y17" t="n">
-        <v>138.9472956289426</v>
+        <v>2.778945912578856</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.778945912578852</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="C18" t="n">
-        <v>2.778945912578852</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="D18" t="n">
-        <v>2.778945912578852</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="E18" t="n">
-        <v>2.778945912578852</v>
+        <v>33.68419287974368</v>
       </c>
       <c r="F18" t="n">
-        <v>2.778945912578852</v>
+        <v>33.68419287974368</v>
       </c>
       <c r="G18" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="H18" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="I18" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="J18" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="K18" t="n">
-        <v>37.16840158074214</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="L18" t="n">
-        <v>71.55785724890544</v>
+        <v>35.77892862445277</v>
       </c>
       <c r="M18" t="n">
-        <v>71.55785724890544</v>
+        <v>70.16838429261611</v>
       </c>
       <c r="N18" t="n">
-        <v>71.55785724890544</v>
+        <v>104.5578399607795</v>
       </c>
       <c r="O18" t="n">
-        <v>104.5578399607793</v>
+        <v>104.5578399607795</v>
       </c>
       <c r="P18" t="n">
-        <v>104.5578399607793</v>
+        <v>104.5578399607795</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R18" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="S18" t="n">
-        <v>103.8595947125429</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="T18" t="n">
-        <v>68.77189379614327</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="U18" t="n">
-        <v>33.68419287974363</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="V18" t="n">
-        <v>33.68419287974363</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="W18" t="n">
-        <v>33.68419287974363</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="X18" t="n">
-        <v>2.778945912578852</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.778945912578852</v>
+        <v>103.8595947125431</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.95434774537816</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="C19" t="n">
-        <v>37.8666468289785</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="D19" t="n">
-        <v>2.778945912578852</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="E19" t="n">
-        <v>2.778945912578852</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="F19" t="n">
-        <v>2.778945912578852</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="G19" t="n">
-        <v>2.778945912578852</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="H19" t="n">
-        <v>2.778945912578852</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="I19" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="J19" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="K19" t="n">
-        <v>15.31273894628025</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="L19" t="n">
-        <v>42.62686395399323</v>
+        <v>30.09307092029183</v>
       </c>
       <c r="M19" t="n">
-        <v>77.01631962215652</v>
+        <v>64.48252658845517</v>
       </c>
       <c r="N19" t="n">
-        <v>111.4057752903198</v>
+        <v>98.87198225661851</v>
       </c>
       <c r="O19" t="n">
-        <v>135.7450519252191</v>
+        <v>123.2112588915178</v>
       </c>
       <c r="P19" t="n">
-        <v>135.7450519252191</v>
+        <v>135.7450519252193</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R19" t="n">
-        <v>108.0420486617778</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="S19" t="n">
-        <v>108.0420486617778</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="T19" t="n">
-        <v>108.0420486617778</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="U19" t="n">
-        <v>108.0420486617778</v>
+        <v>103.8595947125431</v>
       </c>
       <c r="V19" t="n">
-        <v>108.0420486617778</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="W19" t="n">
-        <v>108.0420486617778</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="X19" t="n">
-        <v>108.0420486617778</v>
+        <v>68.77189379614339</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.0420486617778</v>
+        <v>68.77189379614339</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.8595947125429</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="C20" t="n">
-        <v>103.8595947125429</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="D20" t="n">
-        <v>103.8595947125429</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="E20" t="n">
-        <v>68.77189379614327</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="F20" t="n">
-        <v>33.68419287974363</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="G20" t="n">
-        <v>2.778945912578852</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="H20" t="n">
-        <v>2.778945912578852</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="I20" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="J20" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="K20" t="n">
-        <v>37.16840158074214</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="L20" t="n">
-        <v>71.55785724890544</v>
+        <v>37.1684015807422</v>
       </c>
       <c r="M20" t="n">
-        <v>104.5578399607793</v>
+        <v>71.55785724890555</v>
       </c>
       <c r="N20" t="n">
-        <v>104.5578399607793</v>
+        <v>71.55785724890555</v>
       </c>
       <c r="O20" t="n">
-        <v>104.5578399607793</v>
+        <v>104.5578399607795</v>
       </c>
       <c r="P20" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R20" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="S20" t="n">
-        <v>138.9472956289426</v>
+        <v>108.042048661778</v>
       </c>
       <c r="T20" t="n">
-        <v>138.9472956289426</v>
+        <v>72.95434774537827</v>
       </c>
       <c r="U20" t="n">
-        <v>138.9472956289426</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="V20" t="n">
-        <v>138.9472956289426</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="W20" t="n">
-        <v>138.9472956289426</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="X20" t="n">
-        <v>103.8595947125429</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="Y20" t="n">
-        <v>103.8595947125429</v>
+        <v>37.86664682897856</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="C21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="D21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="E21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="F21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="G21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="H21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="I21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="J21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="K21" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="L21" t="n">
-        <v>35.77892862445271</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="M21" t="n">
-        <v>70.168384292616</v>
+        <v>37.1684015807422</v>
       </c>
       <c r="N21" t="n">
-        <v>70.168384292616</v>
+        <v>71.55785724890555</v>
       </c>
       <c r="O21" t="n">
-        <v>104.5578399607793</v>
+        <v>104.5578399607795</v>
       </c>
       <c r="P21" t="n">
-        <v>138.9472956289426</v>
+        <v>104.5578399607795</v>
       </c>
       <c r="Q21" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R21" t="n">
-        <v>138.9472956289426</v>
+        <v>128.077395324672</v>
       </c>
       <c r="S21" t="n">
-        <v>103.8595947125429</v>
+        <v>92.98969440827233</v>
       </c>
       <c r="T21" t="n">
-        <v>72.95434774537816</v>
+        <v>57.90199349187262</v>
       </c>
       <c r="U21" t="n">
-        <v>72.95434774537816</v>
+        <v>57.90199349187262</v>
       </c>
       <c r="V21" t="n">
-        <v>72.95434774537816</v>
+        <v>57.90199349187262</v>
       </c>
       <c r="W21" t="n">
-        <v>37.8666468289785</v>
+        <v>22.81429257547292</v>
       </c>
       <c r="X21" t="n">
-        <v>37.8666468289785</v>
+        <v>22.81429257547292</v>
       </c>
       <c r="Y21" t="n">
-        <v>37.8666468289785</v>
+        <v>22.81429257547292</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.778945912578852</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="C22" t="n">
-        <v>2.778945912578852</v>
+        <v>108.042048661778</v>
       </c>
       <c r="D22" t="n">
-        <v>2.778945912578852</v>
+        <v>72.95434774537827</v>
       </c>
       <c r="E22" t="n">
-        <v>2.778945912578852</v>
+        <v>37.86664682897856</v>
       </c>
       <c r="F22" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="G22" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="H22" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="I22" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="J22" t="n">
-        <v>2.778945912578852</v>
+        <v>2.778945912578856</v>
       </c>
       <c r="K22" t="n">
-        <v>15.31273894628025</v>
+        <v>15.31273894628037</v>
       </c>
       <c r="L22" t="n">
-        <v>42.62686395399323</v>
+        <v>42.62686395399334</v>
       </c>
       <c r="M22" t="n">
-        <v>77.01631962215652</v>
+        <v>77.01631962215669</v>
       </c>
       <c r="N22" t="n">
-        <v>111.4057752903198</v>
+        <v>111.40577529032</v>
       </c>
       <c r="O22" t="n">
-        <v>135.7450519252191</v>
+        <v>135.7450519252193</v>
       </c>
       <c r="P22" t="n">
-        <v>135.7450519252191</v>
+        <v>135.7450519252193</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.9472956289426</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="R22" t="n">
-        <v>103.8595947125429</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="S22" t="n">
-        <v>103.8595947125429</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="T22" t="n">
-        <v>68.77189379614327</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="U22" t="n">
-        <v>68.77189379614327</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="V22" t="n">
-        <v>33.68419287974363</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="W22" t="n">
-        <v>33.68419287974363</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="X22" t="n">
-        <v>33.68419287974363</v>
+        <v>138.9472956289428</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.68419287974363</v>
+        <v>138.9472956289428</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>434.479886040158</v>
+        <v>407.564747534635</v>
       </c>
       <c r="C23" t="n">
-        <v>434.479886040158</v>
+        <v>240.3809756153672</v>
       </c>
       <c r="D23" t="n">
-        <v>434.479886040158</v>
+        <v>240.3809756153672</v>
       </c>
       <c r="E23" t="n">
-        <v>434.479886040158</v>
+        <v>240.3809756153672</v>
       </c>
       <c r="F23" t="n">
-        <v>434.479886040158</v>
+        <v>240.3809756153672</v>
       </c>
       <c r="G23" t="n">
-        <v>267.2961141208903</v>
+        <v>73.19720369609945</v>
       </c>
       <c r="H23" t="n">
-        <v>100.1123422016225</v>
+        <v>73.19720369609945</v>
       </c>
       <c r="I23" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J23" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K23" t="n">
-        <v>116.2559606469284</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L23" t="n">
-        <v>280.1127755050027</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="M23" t="n">
-        <v>443.969590363077</v>
+        <v>340.9545844521547</v>
       </c>
       <c r="N23" t="n">
-        <v>607.8264052211513</v>
+        <v>504.811399310229</v>
       </c>
       <c r="O23" t="n">
-        <v>662.0477368003002</v>
+        <v>654.0063494528771</v>
       </c>
       <c r="P23" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q23" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R23" t="n">
-        <v>601.6636579594258</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S23" t="n">
-        <v>601.6636579594258</v>
+        <v>541.9152219542788</v>
       </c>
       <c r="T23" t="n">
-        <v>601.6636579594258</v>
+        <v>407.564747534635</v>
       </c>
       <c r="U23" t="n">
-        <v>601.6636579594258</v>
+        <v>407.564747534635</v>
       </c>
       <c r="V23" t="n">
-        <v>434.479886040158</v>
+        <v>407.564747534635</v>
       </c>
       <c r="W23" t="n">
-        <v>434.479886040158</v>
+        <v>407.564747534635</v>
       </c>
       <c r="X23" t="n">
-        <v>434.479886040158</v>
+        <v>407.564747534635</v>
       </c>
       <c r="Y23" t="n">
-        <v>434.479886040158</v>
+        <v>407.564747534635</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>237.8945787986869</v>
+        <v>207.2605984273439</v>
       </c>
       <c r="C24" t="n">
-        <v>154.4404180919882</v>
+        <v>123.8064377206452</v>
       </c>
       <c r="D24" t="n">
-        <v>96.50487700516526</v>
+        <v>123.8064377206452</v>
       </c>
       <c r="E24" t="n">
-        <v>96.50487700516526</v>
+        <v>123.8064377206452</v>
       </c>
       <c r="F24" t="n">
-        <v>60.97291157896215</v>
+        <v>68.27074832195845</v>
       </c>
       <c r="G24" t="n">
-        <v>13.240954736006</v>
+        <v>20.53879147900227</v>
       </c>
       <c r="H24" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I24" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J24" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K24" t="n">
         <v>138.5985147938434</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5985147938434</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5985147938434</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="N24" t="n">
-        <v>264.9395485708222</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="O24" t="n">
-        <v>428.7963634288965</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="P24" t="n">
-        <v>592.6531782869708</v>
+        <v>592.653178286971</v>
       </c>
       <c r="Q24" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R24" t="n">
-        <v>662.0477368003002</v>
+        <v>651.8770759276143</v>
       </c>
       <c r="S24" t="n">
-        <v>662.0477368003002</v>
+        <v>651.8770759276143</v>
       </c>
       <c r="T24" t="n">
-        <v>662.0477368003002</v>
+        <v>651.8770759276143</v>
       </c>
       <c r="U24" t="n">
-        <v>662.0477368003002</v>
+        <v>514.6523262384317</v>
       </c>
       <c r="V24" t="n">
-        <v>517.8944971429858</v>
+        <v>370.4990865811172</v>
       </c>
       <c r="W24" t="n">
-        <v>354.6560089892125</v>
+        <v>207.2605984273439</v>
       </c>
       <c r="X24" t="n">
-        <v>354.6560089892125</v>
+        <v>207.2605984273439</v>
       </c>
       <c r="Y24" t="n">
-        <v>237.8945787986869</v>
+        <v>207.2605984273439</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>194.1876629259849</v>
+        <v>82.56610146990806</v>
       </c>
       <c r="C25" t="n">
-        <v>194.1876629259849</v>
+        <v>82.56610146990806</v>
       </c>
       <c r="D25" t="n">
-        <v>135.0698920880775</v>
+        <v>82.56610146990806</v>
       </c>
       <c r="E25" t="n">
-        <v>135.0698920880775</v>
+        <v>82.56610146990806</v>
       </c>
       <c r="F25" t="n">
-        <v>135.0698920880775</v>
+        <v>82.56610146990806</v>
       </c>
       <c r="G25" t="n">
-        <v>86.1079169771732</v>
+        <v>82.56610146990806</v>
       </c>
       <c r="H25" t="n">
-        <v>13.240954736006</v>
+        <v>82.56610146990806</v>
       </c>
       <c r="I25" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963101</v>
       </c>
       <c r="J25" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K25" t="n">
-        <v>80.3821489181792</v>
+        <v>80.38214891817917</v>
       </c>
       <c r="L25" t="n">
-        <v>196.8842650156894</v>
+        <v>196.8842650156893</v>
       </c>
       <c r="M25" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977089</v>
       </c>
       <c r="N25" t="n">
-        <v>458.1391360429421</v>
+        <v>458.1391360429424</v>
       </c>
       <c r="O25" t="n">
-        <v>571.6664037676387</v>
+        <v>571.6664037676388</v>
       </c>
       <c r="P25" t="n">
-        <v>658.1601685296804</v>
+        <v>658.1601685296806</v>
       </c>
       <c r="Q25" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R25" t="n">
-        <v>662.0477368003002</v>
+        <v>573.962371660416</v>
       </c>
       <c r="S25" t="n">
-        <v>662.0477368003002</v>
+        <v>438.6818482783067</v>
       </c>
       <c r="T25" t="n">
-        <v>662.0477368003002</v>
+        <v>299.4326467231577</v>
       </c>
       <c r="U25" t="n">
-        <v>662.0477368003002</v>
+        <v>249.7498733891758</v>
       </c>
       <c r="V25" t="n">
-        <v>498.3621171688417</v>
+        <v>249.7498733891758</v>
       </c>
       <c r="W25" t="n">
-        <v>331.1783452495739</v>
+        <v>82.56610146990806</v>
       </c>
       <c r="X25" t="n">
-        <v>194.1876629259849</v>
+        <v>82.56610146990806</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.1876629259849</v>
+        <v>82.56610146990806</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>469.2115386570889</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="C26" t="n">
-        <v>469.2115386570889</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="D26" t="n">
-        <v>469.2115386570889</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="E26" t="n">
-        <v>469.2115386570889</v>
+        <v>514.7922704938093</v>
       </c>
       <c r="F26" t="n">
-        <v>302.0277667378211</v>
+        <v>347.6084985745415</v>
       </c>
       <c r="G26" t="n">
-        <v>134.8439948185534</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="H26" t="n">
-        <v>134.8439948185534</v>
+        <v>13.240954736006</v>
       </c>
       <c r="I26" t="n">
         <v>13.240954736006</v>
@@ -6235,13 +6235,13 @@
         <v>280.1127755050027</v>
       </c>
       <c r="M26" t="n">
-        <v>443.969590363077</v>
+        <v>280.1127755050027</v>
       </c>
       <c r="N26" t="n">
-        <v>607.8264052211513</v>
+        <v>423.1927313656012</v>
       </c>
       <c r="O26" t="n">
-        <v>662.0477368003002</v>
+        <v>572.3876815082492</v>
       </c>
       <c r="P26" t="n">
         <v>662.0477368003002</v>
@@ -6256,22 +6256,22 @@
         <v>662.0477368003002</v>
       </c>
       <c r="T26" t="n">
-        <v>636.3953105763567</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="U26" t="n">
-        <v>636.3953105763567</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="V26" t="n">
-        <v>636.3953105763567</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="W26" t="n">
-        <v>636.3953105763567</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="X26" t="n">
-        <v>636.3953105763567</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="Y26" t="n">
-        <v>469.2115386570889</v>
+        <v>662.0477368003002</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>119.065382460697</v>
+        <v>348.5071562201901</v>
       </c>
       <c r="C27" t="n">
-        <v>35.61122175399834</v>
+        <v>265.0529955134914</v>
       </c>
       <c r="D27" t="n">
-        <v>35.61122175399834</v>
+        <v>207.1174544266684</v>
       </c>
       <c r="E27" t="n">
-        <v>35.61122175399834</v>
+        <v>138.8788679956412</v>
       </c>
       <c r="F27" t="n">
-        <v>35.61122175399834</v>
+        <v>83.34317859695452</v>
       </c>
       <c r="G27" t="n">
-        <v>35.61122175399834</v>
+        <v>35.61122175399836</v>
       </c>
       <c r="H27" t="n">
         <v>13.240954736006</v>
@@ -6311,10 +6311,10 @@
         <v>13.240954736006</v>
       </c>
       <c r="L27" t="n">
-        <v>13.240954736006</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="M27" t="n">
-        <v>101.0827337127479</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="N27" t="n">
         <v>264.9395485708222</v>
@@ -6341,16 +6341,16 @@
         <v>662.0477368003002</v>
       </c>
       <c r="V27" t="n">
-        <v>517.8944971429858</v>
+        <v>662.0477368003002</v>
       </c>
       <c r="W27" t="n">
-        <v>354.6560089892125</v>
+        <v>542.4850548563554</v>
       </c>
       <c r="X27" t="n">
-        <v>313.0432810968623</v>
+        <v>542.4850548563554</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.2818509063367</v>
+        <v>425.7236246658298</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.92994409941481</v>
+        <v>358.8428581891325</v>
       </c>
       <c r="C28" t="n">
-        <v>91.92994409941481</v>
+        <v>280.9055438356539</v>
       </c>
       <c r="D28" t="n">
-        <v>91.92994409941481</v>
+        <v>280.9055438356539</v>
       </c>
       <c r="E28" t="n">
-        <v>91.92994409941481</v>
+        <v>223.9913188276891</v>
       </c>
       <c r="F28" t="n">
-        <v>91.92994409941481</v>
+        <v>168.100239904207</v>
       </c>
       <c r="G28" t="n">
-        <v>13.240954736006</v>
+        <v>89.41125054079821</v>
       </c>
       <c r="H28" t="n">
-        <v>13.240954736006</v>
+        <v>16.544288299631</v>
       </c>
       <c r="I28" t="n">
-        <v>13.240954736006</v>
+        <v>16.544288299631</v>
       </c>
       <c r="J28" t="n">
         <v>13.240954736006</v>
@@ -6390,16 +6390,16 @@
         <v>80.38214891817904</v>
       </c>
       <c r="L28" t="n">
-        <v>196.8842650156892</v>
+        <v>196.8842650156893</v>
       </c>
       <c r="M28" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977087</v>
       </c>
       <c r="N28" t="n">
-        <v>458.1391360429421</v>
+        <v>458.1391360429423</v>
       </c>
       <c r="O28" t="n">
-        <v>571.6664037676386</v>
+        <v>571.6664037676387</v>
       </c>
       <c r="P28" t="n">
         <v>658.1601685296804</v>
@@ -6414,22 +6414,22 @@
         <v>526.7672134181909</v>
       </c>
       <c r="T28" t="n">
-        <v>387.5180118630419</v>
+        <v>526.7672134181909</v>
       </c>
       <c r="U28" t="n">
-        <v>387.5180118630419</v>
+        <v>449.4924544449439</v>
       </c>
       <c r="V28" t="n">
-        <v>387.5180118630419</v>
+        <v>449.4924544449439</v>
       </c>
       <c r="W28" t="n">
-        <v>220.3342399437742</v>
+        <v>449.4924544449439</v>
       </c>
       <c r="X28" t="n">
-        <v>91.92994409941481</v>
+        <v>449.4924544449439</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.92994409941481</v>
+        <v>449.4924544449439</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.4247266552737</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="C29" t="n">
-        <v>180.4247266552737</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="D29" t="n">
-        <v>180.4247266552737</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="E29" t="n">
-        <v>13.240954736006</v>
+        <v>494.8639648810325</v>
       </c>
       <c r="F29" t="n">
-        <v>13.240954736006</v>
+        <v>347.6084985745416</v>
       </c>
       <c r="G29" t="n">
-        <v>13.240954736006</v>
+        <v>180.4247266552738</v>
       </c>
       <c r="H29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J29" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K29" t="n">
-        <v>116.2559606469284</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L29" t="n">
-        <v>280.1127755050027</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="M29" t="n">
-        <v>443.969590363077</v>
+        <v>340.9545844521547</v>
       </c>
       <c r="N29" t="n">
-        <v>607.8264052211513</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="O29" t="n">
-        <v>662.0477368003002</v>
+        <v>572.3876815082493</v>
       </c>
       <c r="P29" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q29" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R29" t="n">
-        <v>601.6636579594258</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S29" t="n">
-        <v>601.6636579594258</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T29" t="n">
-        <v>601.6636579594258</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U29" t="n">
-        <v>514.7922704938093</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="V29" t="n">
-        <v>347.6084985745415</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="W29" t="n">
-        <v>180.4247266552737</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="X29" t="n">
-        <v>180.4247266552737</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.4247266552737</v>
+        <v>662.0477368003003</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>294.5694876970967</v>
+        <v>81.47954116703318</v>
       </c>
       <c r="C30" t="n">
-        <v>211.115326990398</v>
+        <v>81.47954116703318</v>
       </c>
       <c r="D30" t="n">
-        <v>153.1797859035751</v>
+        <v>81.47954116703318</v>
       </c>
       <c r="E30" t="n">
-        <v>84.94119947254795</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F30" t="n">
-        <v>29.40551007386125</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J30" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K30" t="n">
         <v>138.5985147938434</v>
       </c>
       <c r="L30" t="n">
-        <v>302.4553296519177</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="M30" t="n">
-        <v>428.7963634288965</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7963634288965</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="O30" t="n">
-        <v>592.6531782869708</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="P30" t="n">
-        <v>592.6531782869708</v>
+        <v>592.653178286971</v>
       </c>
       <c r="Q30" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R30" t="n">
-        <v>651.8770759276142</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S30" t="n">
-        <v>651.8770759276142</v>
+        <v>579.6292608253975</v>
       </c>
       <c r="T30" t="n">
-        <v>651.8770759276142</v>
+        <v>579.6292608253975</v>
       </c>
       <c r="U30" t="n">
-        <v>651.8770759276142</v>
+        <v>442.4045111362149</v>
       </c>
       <c r="V30" t="n">
-        <v>651.8770759276142</v>
+        <v>298.2512714789005</v>
       </c>
       <c r="W30" t="n">
-        <v>488.6385877738409</v>
+        <v>135.0127833251272</v>
       </c>
       <c r="X30" t="n">
-        <v>371.7859561427364</v>
+        <v>81.47954116703318</v>
       </c>
       <c r="Y30" t="n">
-        <v>371.7859561427364</v>
+        <v>81.47954116703318</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>480.6791086336917</v>
+        <v>417.9606290270398</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7417942802132</v>
+        <v>340.0233146735612</v>
       </c>
       <c r="D31" t="n">
-        <v>343.6240234423058</v>
+        <v>280.9055438356538</v>
       </c>
       <c r="E31" t="n">
-        <v>286.7097984343411</v>
+        <v>223.991318827689</v>
       </c>
       <c r="F31" t="n">
-        <v>230.818719510859</v>
+        <v>168.100239904207</v>
       </c>
       <c r="G31" t="n">
-        <v>152.1297301474502</v>
+        <v>89.41125054079819</v>
       </c>
       <c r="H31" t="n">
-        <v>79.26276790628302</v>
+        <v>16.54428829963098</v>
       </c>
       <c r="I31" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963098</v>
       </c>
       <c r="J31" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K31" t="n">
-        <v>80.38214891817904</v>
+        <v>80.38214891817915</v>
       </c>
       <c r="L31" t="n">
-        <v>196.8842650156892</v>
+        <v>196.8842650156893</v>
       </c>
       <c r="M31" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977087</v>
       </c>
       <c r="N31" t="n">
-        <v>458.1391360429421</v>
+        <v>458.1391360429423</v>
       </c>
       <c r="O31" t="n">
-        <v>571.6664037676386</v>
+        <v>571.6664037676387</v>
       </c>
       <c r="P31" t="n">
-        <v>658.1601685296804</v>
+        <v>658.1601685296805</v>
       </c>
       <c r="Q31" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R31" t="n">
-        <v>617.6697909572807</v>
+        <v>573.962371660416</v>
       </c>
       <c r="S31" t="n">
-        <v>617.6697909572807</v>
+        <v>573.962371660416</v>
       </c>
       <c r="T31" t="n">
-        <v>617.6697909572807</v>
+        <v>573.962371660416</v>
       </c>
       <c r="U31" t="n">
-        <v>617.6697909572807</v>
+        <v>573.962371660416</v>
       </c>
       <c r="V31" t="n">
-        <v>617.6697909572807</v>
+        <v>573.962371660416</v>
       </c>
       <c r="W31" t="n">
-        <v>617.6697909572807</v>
+        <v>573.962371660416</v>
       </c>
       <c r="X31" t="n">
-        <v>480.6791086336917</v>
+        <v>573.962371660416</v>
       </c>
       <c r="Y31" t="n">
-        <v>480.6791086336917</v>
+        <v>508.6102252828512</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.240954736006</v>
+        <v>361.2127298929736</v>
       </c>
       <c r="C32" t="n">
-        <v>13.240954736006</v>
+        <v>361.2127298929736</v>
       </c>
       <c r="D32" t="n">
-        <v>13.240954736006</v>
+        <v>194.0289579737058</v>
       </c>
       <c r="E32" t="n">
-        <v>13.240954736006</v>
+        <v>134.1447553869686</v>
       </c>
       <c r="F32" t="n">
-        <v>13.240954736006</v>
+        <v>134.1447553869686</v>
       </c>
       <c r="G32" t="n">
-        <v>13.240954736006</v>
+        <v>134.1447553869686</v>
       </c>
       <c r="H32" t="n">
-        <v>13.240954736006</v>
+        <v>134.1447553869686</v>
       </c>
       <c r="I32" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J32" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K32" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L32" t="n">
-        <v>95.47910164945256</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="M32" t="n">
-        <v>259.3359165075269</v>
+        <v>340.9545844521547</v>
       </c>
       <c r="N32" t="n">
-        <v>423.1927313656012</v>
+        <v>504.811399310229</v>
       </c>
       <c r="O32" t="n">
-        <v>572.3876815082492</v>
+        <v>654.0063494528771</v>
       </c>
       <c r="P32" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q32" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R32" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S32" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T32" t="n">
-        <v>662.0477368003002</v>
+        <v>528.3965018122414</v>
       </c>
       <c r="U32" t="n">
-        <v>514.7922704938093</v>
+        <v>528.3965018122414</v>
       </c>
       <c r="V32" t="n">
-        <v>347.6084985745415</v>
+        <v>528.3965018122414</v>
       </c>
       <c r="W32" t="n">
-        <v>180.4247266552737</v>
+        <v>361.2127298929736</v>
       </c>
       <c r="X32" t="n">
-        <v>13.240954736006</v>
+        <v>361.2127298929736</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.240954736006</v>
+        <v>361.2127298929736</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95.99587601111986</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="C33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="D33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="E33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J33" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5985147938434</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L33" t="n">
-        <v>302.4553296519177</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="M33" t="n">
-        <v>466.312144509992</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="N33" t="n">
-        <v>498.1909219422259</v>
+        <v>340.9545844521547</v>
       </c>
       <c r="O33" t="n">
-        <v>662.0477368003002</v>
+        <v>504.811399310229</v>
       </c>
       <c r="P33" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q33" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R33" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S33" t="n">
-        <v>580.3285002569822</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T33" t="n">
-        <v>580.3285002569822</v>
+        <v>551.5592501650794</v>
       </c>
       <c r="U33" t="n">
-        <v>580.3285002569822</v>
+        <v>415.0337399074816</v>
       </c>
       <c r="V33" t="n">
-        <v>490.7507076917688</v>
+        <v>291.9335956577142</v>
       </c>
       <c r="W33" t="n">
-        <v>328.2114589695803</v>
+        <v>129.3943469355257</v>
       </c>
       <c r="X33" t="n">
-        <v>212.0580667700606</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="Y33" t="n">
-        <v>95.99587601111986</v>
+        <v>13.24095473600601</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.84504886804616</v>
+        <v>71.03688835994343</v>
       </c>
       <c r="C34" t="n">
-        <v>15.84504886804616</v>
+        <v>71.03688835994343</v>
       </c>
       <c r="D34" t="n">
-        <v>15.84504886804616</v>
+        <v>71.03688835994343</v>
       </c>
       <c r="E34" t="n">
-        <v>15.84504886804616</v>
+        <v>71.03688835994343</v>
       </c>
       <c r="F34" t="n">
-        <v>15.84504886804616</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="G34" t="n">
-        <v>15.84504886804616</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="H34" t="n">
-        <v>15.84504886804616</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="I34" t="n">
-        <v>15.84504886804616</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="J34" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K34" t="n">
-        <v>81.06747348507547</v>
+        <v>81.06747348507544</v>
       </c>
       <c r="L34" t="n">
-        <v>198.2549141494819</v>
+        <v>193.4576421812081</v>
       </c>
       <c r="M34" t="n">
-        <v>327.3162679983976</v>
+        <v>322.5189960301237</v>
       </c>
       <c r="N34" t="n">
-        <v>456.0831623422533</v>
+        <v>456.0831623422534</v>
       </c>
       <c r="O34" t="n">
-        <v>570.2957546338461</v>
+        <v>570.2957546338462</v>
       </c>
       <c r="P34" t="n">
-        <v>657.4748439627841</v>
+        <v>657.4748439627842</v>
       </c>
       <c r="Q34" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R34" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S34" t="n">
-        <v>662.0477368003002</v>
+        <v>527.4664528497758</v>
       </c>
       <c r="T34" t="n">
-        <v>523.4977746767361</v>
+        <v>388.9164907262117</v>
       </c>
       <c r="U34" t="n">
-        <v>356.3140027574683</v>
+        <v>388.9164907262117</v>
       </c>
       <c r="V34" t="n">
-        <v>356.3140027574683</v>
+        <v>297.2786880761742</v>
       </c>
       <c r="W34" t="n">
-        <v>189.1302308382006</v>
+        <v>297.2786880761742</v>
       </c>
       <c r="X34" t="n">
-        <v>52.83878794619636</v>
+        <v>160.98724518417</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.83878794619636</v>
+        <v>160.98724518417</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>494.8639648810324</v>
+        <v>347.6084985745416</v>
       </c>
       <c r="C35" t="n">
-        <v>327.6801929617646</v>
+        <v>180.4247266552738</v>
       </c>
       <c r="D35" t="n">
-        <v>160.4964210424969</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="E35" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F35" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G35" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H35" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I35" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J35" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K35" t="n">
-        <v>13.240954736006</v>
+        <v>95.47910164945259</v>
       </c>
       <c r="L35" t="n">
-        <v>95.47910164945256</v>
+        <v>259.3359165075269</v>
       </c>
       <c r="M35" t="n">
         <v>259.3359165075269</v>
       </c>
       <c r="N35" t="n">
-        <v>423.1927313656012</v>
+        <v>423.1927313656013</v>
       </c>
       <c r="O35" t="n">
-        <v>572.3876815082492</v>
+        <v>572.3876815082493</v>
       </c>
       <c r="P35" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q35" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R35" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S35" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T35" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U35" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="V35" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="W35" t="n">
-        <v>662.0477368003002</v>
+        <v>494.8639648810325</v>
       </c>
       <c r="X35" t="n">
-        <v>662.0477368003002</v>
+        <v>494.8639648810325</v>
       </c>
       <c r="Y35" t="n">
-        <v>662.0477368003002</v>
+        <v>494.8639648810325</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.0404909595635</v>
+        <v>194.017451356125</v>
       </c>
       <c r="C36" t="n">
-        <v>109.0404909595635</v>
+        <v>194.017451356125</v>
       </c>
       <c r="D36" t="n">
-        <v>51.8041893043254</v>
+        <v>136.7811497008868</v>
       </c>
       <c r="E36" t="n">
-        <v>51.8041893043254</v>
+        <v>136.7811497008868</v>
       </c>
       <c r="F36" t="n">
-        <v>13.240954736006</v>
+        <v>81.94469973378492</v>
       </c>
       <c r="G36" t="n">
-        <v>13.240954736006</v>
+        <v>34.91198232241356</v>
       </c>
       <c r="H36" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I36" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J36" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K36" t="n">
-        <v>138.5985147938434</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L36" t="n">
-        <v>302.4553296519177</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="M36" t="n">
-        <v>466.312144509992</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="N36" t="n">
-        <v>630.1689593680663</v>
+        <v>340.9545844521547</v>
       </c>
       <c r="O36" t="n">
-        <v>662.0477368003002</v>
+        <v>504.811399310229</v>
       </c>
       <c r="P36" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q36" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R36" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S36" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T36" t="n">
-        <v>551.5592501650793</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U36" t="n">
-        <v>415.0337399074816</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="V36" t="n">
-        <v>271.579739681752</v>
+        <v>518.5937365745707</v>
       </c>
       <c r="W36" t="n">
-        <v>109.0404909595635</v>
+        <v>356.0544878523822</v>
       </c>
       <c r="X36" t="n">
-        <v>109.0404909595635</v>
+        <v>310.0796421150658</v>
       </c>
       <c r="Y36" t="n">
-        <v>109.0404909595635</v>
+        <v>194.017451356125</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.89676690098676</v>
+        <v>93.08312378993998</v>
       </c>
       <c r="C37" t="n">
-        <v>94.89676690098676</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="D37" t="n">
-        <v>94.89676690098676</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="E37" t="n">
-        <v>94.89676690098676</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="F37" t="n">
-        <v>94.89676690098676</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="G37" t="n">
-        <v>94.89676690098676</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="H37" t="n">
-        <v>81.16762260673836</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="I37" t="n">
-        <v>15.84504886804616</v>
+        <v>15.8450488680462</v>
       </c>
       <c r="J37" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K37" t="n">
-        <v>81.06747348507547</v>
+        <v>81.06747348507544</v>
       </c>
       <c r="L37" t="n">
-        <v>193.4576421812079</v>
+        <v>198.2549141494819</v>
       </c>
       <c r="M37" t="n">
-        <v>322.5189960301235</v>
+        <v>327.3162679983975</v>
       </c>
       <c r="N37" t="n">
-        <v>456.0831623422533</v>
+        <v>460.8804343105272</v>
       </c>
       <c r="O37" t="n">
-        <v>570.2957546338461</v>
+        <v>570.2957546338462</v>
       </c>
       <c r="P37" t="n">
-        <v>657.4748439627841</v>
+        <v>657.4748439627842</v>
       </c>
       <c r="Q37" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R37" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S37" t="n">
-        <v>527.4664528497757</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T37" t="n">
-        <v>527.4664528497757</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U37" t="n">
-        <v>360.2826809305079</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="V37" t="n">
-        <v>360.2826809305079</v>
+        <v>499.0613566004266</v>
       </c>
       <c r="W37" t="n">
-        <v>360.2826809305079</v>
+        <v>358.4690378194612</v>
       </c>
       <c r="X37" t="n">
-        <v>223.9912380385037</v>
+        <v>222.177594927457</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.89676690098676</v>
+        <v>93.08312378993998</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>514.7922704938093</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="C38" t="n">
-        <v>347.6084985745415</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="D38" t="n">
-        <v>180.4247266552737</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="E38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="F38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="G38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="H38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J38" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K38" t="n">
         <v>116.2559606469284</v>
@@ -7186,40 +7186,40 @@
         <v>443.969590363077</v>
       </c>
       <c r="N38" t="n">
-        <v>443.969590363077</v>
+        <v>512.8527866576522</v>
       </c>
       <c r="O38" t="n">
-        <v>572.3876815082492</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="P38" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="Q38" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R38" t="n">
-        <v>662.0477368003002</v>
+        <v>601.6636579594259</v>
       </c>
       <c r="S38" t="n">
-        <v>541.9152219542786</v>
+        <v>601.6636579594259</v>
       </c>
       <c r="T38" t="n">
-        <v>514.7922704938093</v>
+        <v>467.3131835397821</v>
       </c>
       <c r="U38" t="n">
-        <v>514.7922704938093</v>
+        <v>467.3131835397821</v>
       </c>
       <c r="V38" t="n">
-        <v>514.7922704938093</v>
+        <v>347.6084985745416</v>
       </c>
       <c r="W38" t="n">
-        <v>514.7922704938093</v>
+        <v>180.4247266552738</v>
       </c>
       <c r="X38" t="n">
-        <v>514.7922704938093</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="Y38" t="n">
-        <v>514.7922704938093</v>
+        <v>13.24095473600601</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>147.0556856321731</v>
+        <v>100.5786276689255</v>
       </c>
       <c r="C39" t="n">
-        <v>147.0556856321731</v>
+        <v>100.5786276689255</v>
       </c>
       <c r="D39" t="n">
-        <v>147.0556856321731</v>
+        <v>100.5786276689255</v>
       </c>
       <c r="E39" t="n">
-        <v>91.14691115268505</v>
+        <v>100.5786276689255</v>
       </c>
       <c r="F39" t="n">
-        <v>35.61122175399834</v>
+        <v>45.04293827023879</v>
       </c>
       <c r="G39" t="n">
-        <v>35.61122175399834</v>
+        <v>35.61122175399835</v>
       </c>
       <c r="H39" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="I39" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="J39" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K39" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="L39" t="n">
-        <v>177.0977695940803</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="M39" t="n">
-        <v>340.9545844521546</v>
+        <v>101.0827337127479</v>
       </c>
       <c r="N39" t="n">
-        <v>504.8113993102289</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="O39" t="n">
-        <v>504.8113993102289</v>
+        <v>428.7963634288966</v>
       </c>
       <c r="P39" t="n">
-        <v>662.0477368003002</v>
+        <v>592.653178286971</v>
       </c>
       <c r="Q39" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R39" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="S39" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="T39" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="U39" t="n">
-        <v>524.8229871111175</v>
+        <v>524.8229871111176</v>
       </c>
       <c r="V39" t="n">
-        <v>380.6697474538032</v>
+        <v>380.6697474538033</v>
       </c>
       <c r="W39" t="n">
-        <v>380.6697474538032</v>
+        <v>217.43125930003</v>
       </c>
       <c r="X39" t="n">
-        <v>263.8171158226987</v>
+        <v>100.5786276689255</v>
       </c>
       <c r="Y39" t="n">
-        <v>147.0556856321731</v>
+        <v>100.5786276689255</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>316.1290034853367</v>
+        <v>406.0451278438381</v>
       </c>
       <c r="C40" t="n">
-        <v>316.1290034853367</v>
+        <v>406.0451278438381</v>
       </c>
       <c r="D40" t="n">
-        <v>316.1290034853367</v>
+        <v>346.9273570059308</v>
       </c>
       <c r="E40" t="n">
-        <v>286.7097984343411</v>
+        <v>290.013131997966</v>
       </c>
       <c r="F40" t="n">
-        <v>230.818719510859</v>
+        <v>234.122053074484</v>
       </c>
       <c r="G40" t="n">
-        <v>152.1297301474502</v>
+        <v>155.4330637110752</v>
       </c>
       <c r="H40" t="n">
-        <v>79.26276790628302</v>
+        <v>82.56610146990801</v>
       </c>
       <c r="I40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963098</v>
       </c>
       <c r="J40" t="n">
-        <v>13.240954736006</v>
+        <v>13.24095473600601</v>
       </c>
       <c r="K40" t="n">
         <v>80.3821489181792</v>
@@ -7341,43 +7341,43 @@
         <v>196.8842650156894</v>
       </c>
       <c r="M40" t="n">
-        <v>325.2602942977086</v>
+        <v>325.2602942977088</v>
       </c>
       <c r="N40" t="n">
-        <v>458.1391360429421</v>
+        <v>458.1391360429424</v>
       </c>
       <c r="O40" t="n">
-        <v>571.6664037676387</v>
+        <v>571.6664037676388</v>
       </c>
       <c r="P40" t="n">
-        <v>658.1601685296804</v>
+        <v>658.1601685296805</v>
       </c>
       <c r="Q40" t="n">
-        <v>662.0477368003002</v>
+        <v>662.0477368003003</v>
       </c>
       <c r="R40" t="n">
-        <v>573.9623716604159</v>
+        <v>573.962371660416</v>
       </c>
       <c r="S40" t="n">
-        <v>573.9623716604159</v>
+        <v>573.962371660416</v>
       </c>
       <c r="T40" t="n">
-        <v>573.9623716604159</v>
+        <v>573.962371660416</v>
       </c>
       <c r="U40" t="n">
-        <v>573.9623716604159</v>
+        <v>573.962371660416</v>
       </c>
       <c r="V40" t="n">
-        <v>573.9623716604159</v>
+        <v>573.962371660416</v>
       </c>
       <c r="W40" t="n">
-        <v>406.7785997411481</v>
+        <v>573.962371660416</v>
       </c>
       <c r="X40" t="n">
-        <v>406.7785997411481</v>
+        <v>436.971689336827</v>
       </c>
       <c r="Y40" t="n">
-        <v>406.7785997411481</v>
+        <v>406.0451278438381</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43.93371313411848</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="C41" t="n">
-        <v>43.93371313411848</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="D41" t="n">
-        <v>43.93371313411848</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="E41" t="n">
-        <v>43.93371313411848</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="F41" t="n">
-        <v>43.93371313411848</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="G41" t="n">
-        <v>10.46200882342715</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="H41" t="n">
-        <v>10.46200882342715</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="I41" t="n">
         <v>10.46200882342715</v>
@@ -7417,16 +7417,16 @@
         <v>113.4770147343495</v>
       </c>
       <c r="L41" t="n">
-        <v>242.9443739242605</v>
+        <v>134.6983636016245</v>
       </c>
       <c r="M41" t="n">
-        <v>242.9443739242605</v>
+        <v>264.1657227915355</v>
       </c>
       <c r="N41" t="n">
-        <v>372.4117331141715</v>
+        <v>393.6330819814465</v>
       </c>
       <c r="O41" t="n">
-        <v>433.4403858793065</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="P41" t="n">
         <v>523.1004411713575</v>
@@ -7435,28 +7435,28 @@
         <v>523.1004411713575</v>
       </c>
       <c r="R41" t="n">
-        <v>440.2219261427226</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="S41" t="n">
-        <v>440.2219261427226</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="T41" t="n">
-        <v>440.2219261427226</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="U41" t="n">
-        <v>440.2219261427226</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="V41" t="n">
-        <v>440.2219261427226</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="W41" t="n">
-        <v>440.2219261427226</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="X41" t="n">
-        <v>308.1258551398546</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="Y41" t="n">
-        <v>176.0297841369865</v>
+        <v>126.8122281627534</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.28448236955801</v>
+        <v>261.1006312662619</v>
       </c>
       <c r="C42" t="n">
-        <v>54.28448236955801</v>
+        <v>155.1520343718028</v>
       </c>
       <c r="D42" t="n">
-        <v>54.28448236955801</v>
+        <v>155.1520343718028</v>
       </c>
       <c r="E42" t="n">
-        <v>54.28448236955801</v>
+        <v>155.1520343718028</v>
       </c>
       <c r="F42" t="n">
-        <v>54.28448236955801</v>
+        <v>77.12190878535561</v>
       </c>
       <c r="G42" t="n">
-        <v>10.46200882342715</v>
+        <v>77.12190878535561</v>
       </c>
       <c r="H42" t="n">
-        <v>10.46200882342715</v>
+        <v>32.2572055796028</v>
       </c>
       <c r="I42" t="n">
         <v>10.46200882342715</v>
@@ -7493,19 +7493,19 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K42" t="n">
-        <v>10.46200882342715</v>
+        <v>135.8195688812646</v>
       </c>
       <c r="L42" t="n">
-        <v>10.46200882342715</v>
+        <v>265.2869280711756</v>
       </c>
       <c r="M42" t="n">
-        <v>139.9293680133381</v>
+        <v>324.2385234681173</v>
       </c>
       <c r="N42" t="n">
-        <v>269.3967272032491</v>
+        <v>324.2385234681173</v>
       </c>
       <c r="O42" t="n">
-        <v>398.8640863931601</v>
+        <v>324.2385234681173</v>
       </c>
       <c r="P42" t="n">
         <v>453.7058826580282</v>
@@ -7523,19 +7523,19 @@
         <v>418.1875290086942</v>
       </c>
       <c r="U42" t="n">
+        <v>418.1875290086942</v>
+      </c>
+      <c r="V42" t="n">
+        <v>418.1875290086942</v>
+      </c>
+      <c r="W42" t="n">
+        <v>418.1875290086942</v>
+      </c>
+      <c r="X42" t="n">
+        <v>418.1875290086942</v>
+      </c>
+      <c r="Y42" t="n">
         <v>286.0914580058262</v>
-      </c>
-      <c r="V42" t="n">
-        <v>153.9953870029582</v>
-      </c>
-      <c r="W42" t="n">
-        <v>153.9953870029582</v>
-      </c>
-      <c r="X42" t="n">
-        <v>153.9953870029582</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>153.9953870029582</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>194.3396566103923</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="C43" t="n">
-        <v>194.3396566103923</v>
+        <v>446.4132161361597</v>
       </c>
       <c r="D43" t="n">
-        <v>194.3396566103923</v>
+        <v>364.8010091104919</v>
       </c>
       <c r="E43" t="n">
-        <v>194.3396566103923</v>
+        <v>285.3923479147666</v>
       </c>
       <c r="F43" t="n">
-        <v>194.3396566103923</v>
+        <v>207.0068328035241</v>
       </c>
       <c r="G43" t="n">
-        <v>194.3396566103923</v>
+        <v>105.8234072523548</v>
       </c>
       <c r="H43" t="n">
-        <v>98.97825818146462</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="I43" t="n">
         <v>10.46200882342715</v>
@@ -7572,10 +7572,10 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K43" t="n">
-        <v>55.55640609797626</v>
+        <v>55.55640609797632</v>
       </c>
       <c r="L43" t="n">
-        <v>150.0117252878624</v>
+        <v>150.0117252878625</v>
       </c>
       <c r="M43" t="n">
         <v>256.3409576622578</v>
@@ -7590,31 +7590,31 @@
         <v>523.1004411713575</v>
       </c>
       <c r="Q43" t="n">
-        <v>504.5725066371219</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="R43" t="n">
-        <v>393.9927053094772</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="S43" t="n">
-        <v>261.8966343066091</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="T43" t="n">
-        <v>194.3396566103923</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="U43" t="n">
-        <v>194.3396566103923</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="V43" t="n">
-        <v>194.3396566103923</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="W43" t="n">
-        <v>194.3396566103923</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="X43" t="n">
-        <v>194.3396566103923</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3396566103923</v>
+        <v>523.1004411713575</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>142.5580798262952</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="C44" t="n">
-        <v>142.5580798262952</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="D44" t="n">
-        <v>142.5580798262952</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="E44" t="n">
         <v>142.5580798262952</v>
@@ -7639,7 +7639,7 @@
         <v>142.5580798262952</v>
       </c>
       <c r="G44" t="n">
-        <v>10.46200882342715</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="H44" t="n">
         <v>10.46200882342715</v>
@@ -7651,7 +7651,7 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K44" t="n">
-        <v>10.46200882342715</v>
+        <v>45.03830830957355</v>
       </c>
       <c r="L44" t="n">
         <v>45.03830830957355</v>
@@ -7675,16 +7675,16 @@
         <v>523.1004411713575</v>
       </c>
       <c r="S44" t="n">
-        <v>523.1004411713575</v>
+        <v>406.7502218320313</v>
       </c>
       <c r="T44" t="n">
-        <v>523.1004411713575</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="U44" t="n">
-        <v>391.0043701684895</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="V44" t="n">
-        <v>391.0043701684895</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="W44" t="n">
         <v>274.6541508291633</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10.46200882342715</v>
+        <v>94.1471311023069</v>
       </c>
       <c r="C45" t="n">
-        <v>10.46200882342715</v>
+        <v>94.1471311023069</v>
       </c>
       <c r="D45" t="n">
-        <v>10.46200882342715</v>
+        <v>94.1471311023069</v>
       </c>
       <c r="E45" t="n">
-        <v>10.46200882342715</v>
+        <v>55.32671202917994</v>
       </c>
       <c r="F45" t="n">
-        <v>10.46200882342715</v>
+        <v>55.32671202917994</v>
       </c>
       <c r="G45" t="n">
-        <v>10.46200882342715</v>
+        <v>55.32671202917994</v>
       </c>
       <c r="H45" t="n">
         <v>10.46200882342715</v>
@@ -7730,49 +7730,49 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K45" t="n">
-        <v>135.8195688812646</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="L45" t="n">
-        <v>135.8195688812646</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="M45" t="n">
-        <v>135.8195688812646</v>
+        <v>139.9293680133381</v>
       </c>
       <c r="N45" t="n">
-        <v>194.7711642782063</v>
+        <v>269.3967272032491</v>
       </c>
       <c r="O45" t="n">
-        <v>324.2385234681173</v>
+        <v>398.8640863931601</v>
       </c>
       <c r="P45" t="n">
-        <v>453.7058826580282</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="Q45" t="n">
         <v>523.1004411713575</v>
       </c>
       <c r="R45" t="n">
-        <v>523.1004411713575</v>
+        <v>490.4353441109111</v>
       </c>
       <c r="S45" t="n">
-        <v>523.1004411713575</v>
+        <v>490.4353441109111</v>
       </c>
       <c r="T45" t="n">
-        <v>391.0043701684895</v>
+        <v>358.339273108043</v>
       </c>
       <c r="U45" t="n">
-        <v>274.6541508291633</v>
+        <v>226.243202105175</v>
       </c>
       <c r="V45" t="n">
-        <v>274.6541508291633</v>
+        <v>94.1471311023069</v>
       </c>
       <c r="W45" t="n">
-        <v>142.5580798262952</v>
+        <v>94.1471311023069</v>
       </c>
       <c r="X45" t="n">
-        <v>142.5580798262952</v>
+        <v>94.1471311023069</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.46200882342715</v>
+        <v>94.1471311023069</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.8937593646662</v>
+        <v>124.7760279328501</v>
       </c>
       <c r="C46" t="n">
-        <v>10.46200882342715</v>
+        <v>124.7760279328501</v>
       </c>
       <c r="D46" t="n">
-        <v>10.46200882342715</v>
+        <v>124.7760279328501</v>
       </c>
       <c r="E46" t="n">
-        <v>10.46200882342715</v>
+        <v>124.7760279328501</v>
       </c>
       <c r="F46" t="n">
-        <v>10.46200882342715</v>
+        <v>124.7760279328501</v>
       </c>
       <c r="G46" t="n">
-        <v>10.46200882342715</v>
+        <v>124.7760279328501</v>
       </c>
       <c r="H46" t="n">
-        <v>10.46200882342715</v>
+        <v>124.7760279328501</v>
       </c>
       <c r="I46" t="n">
-        <v>10.46200882342715</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="J46" t="n">
         <v>10.46200882342715</v>
       </c>
       <c r="K46" t="n">
-        <v>55.55640609797626</v>
+        <v>55.55640609797632</v>
       </c>
       <c r="L46" t="n">
-        <v>150.0117252878624</v>
+        <v>150.0117252878625</v>
       </c>
       <c r="M46" t="n">
         <v>256.3409576622578</v>
@@ -7836,22 +7836,22 @@
         <v>523.1004411713575</v>
       </c>
       <c r="T46" t="n">
-        <v>523.1004411713575</v>
+        <v>521.0642409414542</v>
       </c>
       <c r="U46" t="n">
-        <v>523.1004411713575</v>
+        <v>388.9681699385861</v>
       </c>
       <c r="V46" t="n">
-        <v>488.2299338139741</v>
+        <v>388.9681699385861</v>
       </c>
       <c r="W46" t="n">
-        <v>356.133862811106</v>
+        <v>256.8720989357181</v>
       </c>
       <c r="X46" t="n">
-        <v>356.133862811106</v>
+        <v>256.8720989357181</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.037791808238</v>
+        <v>124.7760279328501</v>
       </c>
     </row>
   </sheetData>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>254.8266749522162</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>270.5032388772229</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>265.0830571345084</v>
       </c>
       <c r="N17" t="n">
-        <v>264.1498875038266</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>264.8350353289223</v>
+        <v>263.4315272922664</v>
       </c>
       <c r="P17" t="n">
-        <v>264.5663116258492</v>
+        <v>265.9698196625052</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>172.5782628815946</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>173.2912036871098</v>
+        <v>171.8876956504539</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>176.870857829254</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>166.078535990569</v>
       </c>
       <c r="O18" t="n">
-        <v>175.9295603150241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9330,10 +9330,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>173.6626078548407</v>
+        <v>173.6626078548408</v>
       </c>
       <c r="N19" t="n">
-        <v>162.4223683724688</v>
+        <v>162.4223683724689</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9403,19 +9403,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>254.8266749522162</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
         <v>270.5032388772229</v>
       </c>
       <c r="M20" t="n">
-        <v>263.6795490978524</v>
+        <v>265.0830571345084</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>263.4315272922664</v>
       </c>
       <c r="P20" t="n">
         <v>265.9698196625052</v>
@@ -9485,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>171.8876956504538</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>176.870857829254</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>166.078535990569</v>
       </c>
       <c r="O21" t="n">
-        <v>177.3330683516801</v>
+        <v>175.9295603150242</v>
       </c>
       <c r="P21" t="n">
-        <v>168.7112313215659</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>174.7185979932572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9567,10 +9567,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>173.6626078548407</v>
+        <v>173.6626078548408</v>
       </c>
       <c r="N22" t="n">
-        <v>162.4223683724688</v>
+        <v>162.4223683724689</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
         <v>401.2783491700623</v>
@@ -9649,13 +9649,13 @@
         <v>395.8581674273478</v>
       </c>
       <c r="N23" t="n">
-        <v>394.9249977966659</v>
+        <v>394.924997796666</v>
       </c>
       <c r="O23" t="n">
-        <v>284.8672332188069</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>239.3556092375152</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9722,16 +9722,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>266.1715856152064</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>307.6459681220934</v>
       </c>
       <c r="N24" t="n">
-        <v>258.9589179186655</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>308.1081786445195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>299.4863416144053</v>
@@ -9883,16 +9883,16 @@
         <v>401.2783491700623</v>
       </c>
       <c r="M26" t="n">
-        <v>395.8581674273478</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>394.9249977966659</v>
+        <v>373.9382715365894</v>
       </c>
       <c r="O26" t="n">
-        <v>284.8672332188069</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9959,13 +9959,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>304.0663139799492</v>
       </c>
       <c r="M27" t="n">
-        <v>230.863103595495</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>296.8536462834084</v>
+        <v>220.07078175681</v>
       </c>
       <c r="O27" t="n">
         <v>308.1081786445195</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
         <v>401.2783491700623</v>
@@ -10123,13 +10123,13 @@
         <v>395.8581674273478</v>
       </c>
       <c r="N29" t="n">
-        <v>394.9249977966659</v>
+        <v>312.4818988626986</v>
       </c>
       <c r="O29" t="n">
-        <v>284.8672332188069</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>304.0663139799492</v>
+        <v>266.1715856152064</v>
       </c>
       <c r="M30" t="n">
-        <v>269.7512397573504</v>
+        <v>307.6459681220934</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>308.1081786445195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>299.4863416144053</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10354,19 +10354,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>318.8352502360949</v>
+        <v>401.2783491700623</v>
       </c>
       <c r="M32" t="n">
         <v>395.8581674273478</v>
       </c>
       <c r="N32" t="n">
-        <v>394.9249977966659</v>
+        <v>394.924997796666</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>239.3556092375152</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>304.0663139799492</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>307.6459681220933</v>
+        <v>307.6459681220934</v>
       </c>
       <c r="N33" t="n">
-        <v>163.542497368418</v>
+        <v>296.8536462834084</v>
       </c>
       <c r="O33" t="n">
         <v>308.1081786445195</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>292.7989907376345</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10588,16 +10588,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>303.1586863110882</v>
       </c>
       <c r="L35" t="n">
-        <v>318.8352502360949</v>
+        <v>401.2783491700623</v>
       </c>
       <c r="M35" t="n">
-        <v>395.8581674273478</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>394.9249977966659</v>
+        <v>394.924997796666</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>304.0663139799492</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>307.6459681220933</v>
+        <v>307.6459681220934</v>
       </c>
       <c r="N36" t="n">
         <v>296.8536462834084</v>
       </c>
       <c r="O36" t="n">
-        <v>174.7970297295291</v>
+        <v>308.1081786445195</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>292.7989907376345</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10834,13 +10834,13 @@
         <v>395.8581674273478</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>298.9920497527275</v>
       </c>
       <c r="O38" t="n">
-        <v>359.8134550026688</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10907,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>304.0663139799492</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>307.6459681220933</v>
+        <v>230.863103595495</v>
       </c>
       <c r="N39" t="n">
         <v>296.8536462834084</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>308.1081786445195</v>
       </c>
       <c r="P39" t="n">
-        <v>292.7989907376345</v>
+        <v>299.4863416144053</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>366.5415252628266</v>
+        <v>257.2021208965276</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>361.1213435201121</v>
       </c>
       <c r="N41" t="n">
         <v>360.1881738894303</v>
       </c>
       <c r="O41" t="n">
-        <v>291.7433152248534</v>
+        <v>360.8733217145261</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>269.3294900727136</v>
       </c>
       <c r="M42" t="n">
-        <v>272.9091442148577</v>
+        <v>201.6810999795352</v>
       </c>
       <c r="N42" t="n">
-        <v>262.1168223761726</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>273.3713547372838</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>189.3701612172274</v>
+        <v>264.7495177071696</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>255.0154060814921</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6919700064988</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>361.1213435201121</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>272.9091442148577</v>
       </c>
       <c r="N45" t="n">
-        <v>190.8887781408502</v>
+        <v>262.1168223761726</v>
       </c>
       <c r="O45" t="n">
         <v>273.3713547372838</v>
       </c>
       <c r="P45" t="n">
-        <v>264.7495177071696</v>
+        <v>259.4656748670549</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.4643498375978</v>
+        <v>360.4643498375977</v>
       </c>
       <c r="C11" t="n">
         <v>343.0033999451247</v>
@@ -23266,7 +23266,7 @@
         <v>332.4135497948001</v>
       </c>
       <c r="E11" t="n">
-        <v>359.660878246379</v>
+        <v>359.6608782463789</v>
       </c>
       <c r="F11" t="n">
         <v>384.6065539158286</v>
@@ -23320,7 +23320,7 @@
         <v>305.482766644252</v>
       </c>
       <c r="W11" t="n">
-        <v>326.9714768915302</v>
+        <v>326.9714768915301</v>
       </c>
       <c r="X11" t="n">
         <v>347.4616088525862</v>
@@ -23472,7 +23472,7 @@
         <v>205.6760976023986</v>
       </c>
       <c r="U13" t="n">
-        <v>264.0495375306081</v>
+        <v>264.049537530608</v>
       </c>
       <c r="V13" t="n">
         <v>229.8681514979451</v>
@@ -23743,16 +23743,16 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F17" t="n">
-        <v>286.8832183928033</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G17" t="n">
-        <v>291.1692807564843</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H17" t="n">
-        <v>215.3413453571164</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I17" t="n">
-        <v>86.34243281175519</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.4724850897346</v>
+        <v>25.7356611824989</v>
       </c>
       <c r="S17" t="n">
-        <v>119.6234367348303</v>
+        <v>89.02724223733708</v>
       </c>
       <c r="T17" t="n">
-        <v>133.6992167127163</v>
+        <v>98.96239280548059</v>
       </c>
       <c r="U17" t="n">
-        <v>161.9490200564214</v>
+        <v>127.2121961491857</v>
       </c>
       <c r="V17" t="n">
         <v>238.3556256187198</v>
@@ -23816,16 +23816,16 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D18" t="n">
-        <v>58.04843271322368</v>
+        <v>23.31160880598797</v>
       </c>
       <c r="E18" t="n">
-        <v>68.24844760398587</v>
+        <v>33.51162369675016</v>
       </c>
       <c r="F18" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G18" t="n">
-        <v>47.94688431179556</v>
+        <v>17.35068981430238</v>
       </c>
       <c r="H18" t="n">
         <v>22.83881138508139</v>
@@ -23861,13 +23861,13 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S18" t="n">
-        <v>47.5497143451871</v>
+        <v>47.54971434518704</v>
       </c>
       <c r="T18" t="n">
-        <v>76.03127193617088</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U18" t="n">
-        <v>101.8079253223241</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V18" t="n">
         <v>143.4039542980102</v>
@@ -23876,7 +23876,7 @@
         <v>162.2983503095045</v>
       </c>
       <c r="X18" t="n">
-        <v>85.78015785456927</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y18" t="n">
         <v>116.2860629258893</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.69852342328657</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C19" t="n">
-        <v>43.11336433997711</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D19" t="n">
-        <v>24.48201625956163</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E19" t="n">
         <v>57.03732979515409</v>
       </c>
       <c r="F19" t="n">
-        <v>56.02441517151617</v>
+        <v>25.42822067402299</v>
       </c>
       <c r="G19" t="n">
         <v>78.59434650704368</v>
@@ -23910,7 +23910,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I19" t="n">
-        <v>66.05384207584321</v>
+        <v>31.3170181686075</v>
       </c>
       <c r="J19" t="n">
         <v>3.962547265257697</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.30056402826128</v>
+        <v>53.1599346185187</v>
       </c>
       <c r="S19" t="n">
         <v>134.6199651855572</v>
@@ -23949,7 +23949,7 @@
         <v>196.9223965050758</v>
       </c>
       <c r="V19" t="n">
-        <v>162.7410104724129</v>
+        <v>128.0041865651772</v>
       </c>
       <c r="W19" t="n">
         <v>197.1263654851759</v>
@@ -23977,19 +23977,19 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E20" t="n">
-        <v>257.7969133136111</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F20" t="n">
-        <v>282.7425889830607</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G20" t="n">
-        <v>295.3099101662269</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H20" t="n">
         <v>250.0781692643521</v>
       </c>
       <c r="I20" t="n">
-        <v>121.0792567189908</v>
+        <v>86.34243281175513</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S20" t="n">
-        <v>119.6234367348303</v>
+        <v>89.02724223733708</v>
       </c>
       <c r="T20" t="n">
-        <v>133.6992167127163</v>
+        <v>98.96239280548059</v>
       </c>
       <c r="U20" t="n">
-        <v>161.9490200564214</v>
+        <v>127.2121961491857</v>
       </c>
       <c r="V20" t="n">
         <v>238.3556256187198</v>
@@ -24034,7 +24034,7 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X20" t="n">
-        <v>245.5976439198183</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y20" t="n">
         <v>296.8413058046385</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.39972689121662</v>
+        <v>57.30155760218715</v>
       </c>
       <c r="C21" t="n">
         <v>83.31186613690066</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>47.5497143451871</v>
+        <v>47.54971434518704</v>
       </c>
       <c r="T21" t="n">
-        <v>80.1719013459134</v>
+        <v>76.03127193617082</v>
       </c>
       <c r="U21" t="n">
         <v>136.5447492295597</v>
@@ -24110,7 +24110,7 @@
         <v>143.4039542980102</v>
       </c>
       <c r="W21" t="n">
-        <v>127.5615264022689</v>
+        <v>127.5615264022688</v>
       </c>
       <c r="X21" t="n">
         <v>116.3763523520624</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.83915283302909</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C22" t="n">
-        <v>77.85018824721276</v>
+        <v>47.25399374971958</v>
       </c>
       <c r="D22" t="n">
-        <v>59.21884016679728</v>
+        <v>24.48201625956158</v>
       </c>
       <c r="E22" t="n">
-        <v>57.03732979515409</v>
+        <v>22.30050588791839</v>
       </c>
       <c r="F22" t="n">
-        <v>56.02441517151617</v>
+        <v>21.28759126428046</v>
       </c>
       <c r="G22" t="n">
         <v>78.59434650704368</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.15993461851876</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S22" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8121326696308</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U22" t="n">
         <v>196.9223965050758</v>
       </c>
       <c r="V22" t="n">
-        <v>128.0041865651773</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W22" t="n">
         <v>197.1263654851759</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>292.6449617747965</v>
+        <v>292.6449617747966</v>
       </c>
       <c r="C23" t="n">
-        <v>275.1840118823235</v>
+        <v>109.6720776822485</v>
       </c>
       <c r="D23" t="n">
-        <v>264.5941617319989</v>
+        <v>264.594161731999</v>
       </c>
       <c r="E23" t="n">
-        <v>291.8414901835777</v>
+        <v>291.8414901835778</v>
       </c>
       <c r="F23" t="n">
         <v>316.7871658530274</v>
       </c>
       <c r="G23" t="n">
-        <v>159.7019234263759</v>
+        <v>159.701923426376</v>
       </c>
       <c r="H23" t="n">
-        <v>83.87398802700804</v>
+        <v>249.3859222270831</v>
       </c>
       <c r="I23" t="n">
-        <v>34.38433609076152</v>
+        <v>61.03032321122939</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>59.78023805246566</v>
       </c>
       <c r="S23" t="n">
-        <v>118.9311896975613</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>133.0069696754473</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>161.2567730191524</v>
+        <v>161.2567730191525</v>
       </c>
       <c r="V23" t="n">
-        <v>72.1514443813758</v>
+        <v>237.6633785814509</v>
       </c>
       <c r="W23" t="n">
-        <v>259.1520888287289</v>
+        <v>259.152088828729</v>
       </c>
       <c r="X23" t="n">
         <v>279.642220789785</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.1490587673695</v>
+        <v>296.1490587673696</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.44430376118329</v>
+        <v>76.44430376118332</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>57.35618567595473</v>
       </c>
       <c r="E24" t="n">
-        <v>67.5562005667169</v>
+        <v>67.55620056671692</v>
       </c>
       <c r="F24" t="n">
-        <v>19.80368673275876</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22.14656434781242</v>
+        <v>14.92170597224614</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.06895426395909</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>81.59429121515377</v>
+        <v>81.5942912151538</v>
       </c>
       <c r="T24" t="n">
         <v>110.0758488061376</v>
       </c>
       <c r="U24" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>115.6841053147934</v>
+        <v>115.6841053147935</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.74310029325325</v>
+        <v>89.74310029325328</v>
       </c>
       <c r="C25" t="n">
-        <v>77.15794120994379</v>
+        <v>77.15794120994381</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>58.52659312952834</v>
       </c>
       <c r="E25" t="n">
-        <v>56.34508275788512</v>
+        <v>56.34508275788515</v>
       </c>
       <c r="F25" t="n">
-        <v>55.3321681342472</v>
+        <v>55.33216813424723</v>
       </c>
       <c r="G25" t="n">
-        <v>29.42974410997944</v>
+        <v>77.90209946977474</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.13829261875556</v>
       </c>
       <c r="I25" t="n">
-        <v>65.36159503857424</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.270300227988727</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.20451148848544</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.9277181482882</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>137.8567095395974</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2301494678068</v>
+        <v>147.0442038671648</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>162.048763435144</v>
       </c>
       <c r="W25" t="n">
-        <v>30.92218424783189</v>
+        <v>30.92218424783192</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.4957734634107</v>
+        <v>128.4957734634108</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>292.6449617747965</v>
+        <v>292.6449617747966</v>
       </c>
       <c r="C26" t="n">
         <v>275.1840118823235</v>
       </c>
       <c r="D26" t="n">
-        <v>264.5941617319989</v>
+        <v>264.594161731999</v>
       </c>
       <c r="E26" t="n">
-        <v>291.8414901835777</v>
+        <v>146.0585785401518</v>
       </c>
       <c r="F26" t="n">
-        <v>151.2752316529523</v>
+        <v>151.2752316529524</v>
       </c>
       <c r="G26" t="n">
-        <v>159.7019234263759</v>
+        <v>159.701923426376</v>
       </c>
       <c r="H26" t="n">
-        <v>249.3859222270831</v>
+        <v>83.87398802700807</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>120.3870096817219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>59.78023805246563</v>
+        <v>59.78023805246565</v>
       </c>
       <c r="S26" t="n">
         <v>118.9311896975613</v>
       </c>
       <c r="T26" t="n">
-        <v>107.6110677137432</v>
+        <v>133.0069696754473</v>
       </c>
       <c r="U26" t="n">
-        <v>161.2567730191524</v>
+        <v>161.2567730191525</v>
       </c>
       <c r="V26" t="n">
-        <v>237.6633785814508</v>
+        <v>237.6633785814509</v>
       </c>
       <c r="W26" t="n">
-        <v>259.1520888287289</v>
+        <v>259.152088828729</v>
       </c>
       <c r="X26" t="n">
         <v>279.642220789785</v>
       </c>
       <c r="Y26" t="n">
-        <v>130.6371245672945</v>
+        <v>296.1490587673695</v>
       </c>
     </row>
     <row r="27">
@@ -24527,16 +24527,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>57.35618567595471</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>67.5562005667169</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>54.98033250469983</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>47.25463727452659</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.06895426395909</v>
+        <v>10.0689542639591</v>
       </c>
       <c r="S27" t="n">
-        <v>81.59429121515377</v>
+        <v>81.59429121515379</v>
       </c>
       <c r="T27" t="n">
         <v>110.0758488061376</v>
@@ -24581,13 +24581,13 @@
         <v>135.8525021922908</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>43.23904814773026</v>
       </c>
       <c r="X27" t="n">
-        <v>74.48750470136676</v>
+        <v>115.6841053147934</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.74310029325325</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>77.15794120994379</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>58.52659312952831</v>
+        <v>58.52659312952832</v>
       </c>
       <c r="E28" t="n">
-        <v>56.34508275788512</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>55.3321681342472</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.13829261875553</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>65.36159503857424</v>
+        <v>65.36159503857425</v>
       </c>
       <c r="J28" t="n">
-        <v>3.270300227988727</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.20451148848544</v>
+        <v>87.20451148848545</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>137.8567095395975</v>
       </c>
       <c r="U28" t="n">
-        <v>196.2301494678068</v>
+        <v>119.7281380842923</v>
       </c>
       <c r="V28" t="n">
-        <v>162.0487634351439</v>
+        <v>162.048763435144</v>
       </c>
       <c r="W28" t="n">
-        <v>30.92218424783189</v>
+        <v>196.434118447907</v>
       </c>
       <c r="X28" t="n">
-        <v>8.500522614437344</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.4957734634107</v>
+        <v>128.4957734634108</v>
       </c>
     </row>
     <row r="29">
@@ -24688,16 +24688,16 @@
         <v>264.5941617319989</v>
       </c>
       <c r="E29" t="n">
-        <v>126.3295559835027</v>
+        <v>126.3295559835026</v>
       </c>
       <c r="F29" t="n">
-        <v>316.7871658530274</v>
+        <v>171.0042542096013</v>
       </c>
       <c r="G29" t="n">
-        <v>325.213857626451</v>
+        <v>159.7019234263759</v>
       </c>
       <c r="H29" t="n">
-        <v>249.3859222270831</v>
+        <v>83.87398802700801</v>
       </c>
       <c r="I29" t="n">
         <v>120.3870096817219</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>59.78023805246563</v>
       </c>
       <c r="S29" t="n">
         <v>118.9311896975613</v>
@@ -24736,13 +24736,13 @@
         <v>133.0069696754473</v>
       </c>
       <c r="U29" t="n">
-        <v>75.25409942819208</v>
+        <v>161.2567730191524</v>
       </c>
       <c r="V29" t="n">
-        <v>72.1514443813758</v>
+        <v>237.6633785814508</v>
       </c>
       <c r="W29" t="n">
-        <v>93.6401546286539</v>
+        <v>259.1520888287289</v>
       </c>
       <c r="X29" t="n">
         <v>279.642220789785</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>76.44430376118329</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>82.61961909963169</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>57.35618567595471</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>54.98033250469983</v>
       </c>
       <c r="G30" t="n">
-        <v>31.25172749004989</v>
+        <v>47.25463727452659</v>
       </c>
       <c r="H30" t="n">
         <v>22.14656434781242</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.06895426395909</v>
       </c>
       <c r="S30" t="n">
-        <v>81.59429121515377</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>110.0758488061376</v>
       </c>
       <c r="U30" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>142.7117072607412</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>62.68619557828035</v>
       </c>
       <c r="Y30" t="n">
         <v>115.5938158886203</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.74310029325325</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>65.36159503857424</v>
       </c>
       <c r="J31" t="n">
-        <v>3.270300227988727</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.27034510389618</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>133.9277181482882</v>
@@ -24903,10 +24903,10 @@
         <v>196.4341184479069</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.4957734634107</v>
+        <v>63.79714854962153</v>
       </c>
     </row>
     <row r="32">
@@ -24922,10 +24922,10 @@
         <v>274.4917648450545</v>
       </c>
       <c r="D32" t="n">
-        <v>263.90191469473</v>
+        <v>98.38998049465488</v>
       </c>
       <c r="E32" t="n">
-        <v>291.1492431463088</v>
+        <v>231.8638825854389</v>
       </c>
       <c r="F32" t="n">
         <v>316.0949188157584</v>
@@ -24937,7 +24937,7 @@
         <v>248.6936751898141</v>
       </c>
       <c r="I32" t="n">
-        <v>119.6947626444529</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>59.08799101519666</v>
+        <v>59.08799101519669</v>
       </c>
       <c r="S32" t="n">
-        <v>118.2389426602923</v>
+        <v>118.2389426602924</v>
       </c>
       <c r="T32" t="n">
-        <v>132.3147226381784</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>14.7816143384575</v>
+        <v>160.5645259818835</v>
       </c>
       <c r="V32" t="n">
-        <v>71.45919734410685</v>
+        <v>236.9711315441819</v>
       </c>
       <c r="W32" t="n">
-        <v>92.94790759138496</v>
+        <v>92.94790759138493</v>
       </c>
       <c r="X32" t="n">
-        <v>113.438039552441</v>
+        <v>278.949973752516</v>
       </c>
       <c r="Y32" t="n">
         <v>295.4568117301006</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.75205672391432</v>
+        <v>75.75205672391435</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>81.92737206236275</v>
       </c>
       <c r="D33" t="n">
-        <v>56.66393863868574</v>
+        <v>56.66393863868576</v>
       </c>
       <c r="E33" t="n">
-        <v>66.86395352944793</v>
+        <v>66.86395352944795</v>
       </c>
       <c r="F33" t="n">
-        <v>54.28808546743086</v>
+        <v>54.28808546743089</v>
       </c>
       <c r="G33" t="n">
-        <v>46.56239023725762</v>
+        <v>46.56239023725765</v>
       </c>
       <c r="H33" t="n">
-        <v>21.45431731054344</v>
+        <v>21.45431731054347</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.376707226690115</v>
+        <v>9.376707226690144</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>80.90204417788483</v>
       </c>
       <c r="T33" t="n">
-        <v>109.3836017688686</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>135.1602551550218</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>53.33744558391092</v>
+        <v>20.15031741620253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>114.9015688513514</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.42705156861558</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>76.46569417267482</v>
+        <v>76.46569417267484</v>
       </c>
       <c r="D34" t="n">
-        <v>57.83434609225934</v>
+        <v>57.83434609225937</v>
       </c>
       <c r="E34" t="n">
-        <v>55.65283572061615</v>
+        <v>55.65283572061618</v>
       </c>
       <c r="F34" t="n">
-        <v>54.63992109697823</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>77.20985243250574</v>
+        <v>77.20985243250577</v>
       </c>
       <c r="H34" t="n">
-        <v>71.44604558148656</v>
+        <v>71.44604558148659</v>
       </c>
       <c r="I34" t="n">
-        <v>64.66934800130527</v>
+        <v>64.66934800130529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.51226445121647</v>
+        <v>86.5122644512165</v>
       </c>
       <c r="S34" t="n">
-        <v>133.2354711110193</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>30.02596823046284</v>
+        <v>195.5379024305379</v>
       </c>
       <c r="V34" t="n">
-        <v>161.356516397875</v>
+        <v>70.63509177433789</v>
       </c>
       <c r="W34" t="n">
-        <v>30.22993721056295</v>
+        <v>195.741871410638</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>126.4407805374525</v>
+        <v>146.1698030941015</v>
       </c>
       <c r="C35" t="n">
         <v>108.9798306449795</v>
       </c>
       <c r="D35" t="n">
-        <v>98.38998049465491</v>
+        <v>98.38998049465488</v>
       </c>
       <c r="E35" t="n">
-        <v>145.3663315028828</v>
+        <v>291.1492431463088</v>
       </c>
       <c r="F35" t="n">
         <v>316.0949188157584</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>59.08799101519666</v>
+        <v>59.08799101519669</v>
       </c>
       <c r="S35" t="n">
-        <v>118.2389426602923</v>
+        <v>118.2389426602924</v>
       </c>
       <c r="T35" t="n">
         <v>132.3147226381784</v>
@@ -25216,7 +25216,7 @@
         <v>236.9711315441819</v>
       </c>
       <c r="W35" t="n">
-        <v>258.45984179146</v>
+        <v>92.94790759138493</v>
       </c>
       <c r="X35" t="n">
         <v>278.949973752516</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.75205672391432</v>
+        <v>75.75205672391435</v>
       </c>
       <c r="C36" t="n">
-        <v>81.92737206236272</v>
+        <v>81.92737206236275</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>66.86395352944793</v>
+        <v>66.86395352944795</v>
       </c>
       <c r="F36" t="n">
-        <v>16.11048324479466</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>46.56239023725762</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>21.45431731054344</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.376707226690115</v>
+        <v>9.376707226690144</v>
       </c>
       <c r="S36" t="n">
-        <v>80.9020441778848</v>
+        <v>80.90204417788483</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>109.3836017688686</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>135.1602551550218</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>114.9918582775245</v>
+        <v>69.47676099758125</v>
       </c>
       <c r="Y36" t="n">
-        <v>114.9015688513513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.05085325598428</v>
+        <v>89.05085325598431</v>
       </c>
       <c r="C37" t="n">
-        <v>76.46569417267482</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>57.83434609225934</v>
+        <v>57.83434609225937</v>
       </c>
       <c r="E37" t="n">
-        <v>55.65283572061615</v>
+        <v>55.65283572061618</v>
       </c>
       <c r="F37" t="n">
-        <v>54.63992109697823</v>
+        <v>54.63992109697826</v>
       </c>
       <c r="G37" t="n">
-        <v>77.20985243250574</v>
+        <v>77.20985243250577</v>
       </c>
       <c r="H37" t="n">
-        <v>57.85419273018064</v>
+        <v>71.44604558148659</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.66934800130529</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.51226445121647</v>
+        <v>86.5122644512165</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.2354711110193</v>
       </c>
       <c r="T37" t="n">
         <v>137.1644625023285</v>
       </c>
       <c r="U37" t="n">
-        <v>30.02596823046284</v>
+        <v>195.5379024305379</v>
       </c>
       <c r="V37" t="n">
-        <v>161.356516397875</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>195.741871410638</v>
+        <v>56.55547581748226</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>292.6449617747965</v>
       </c>
       <c r="C38" t="n">
-        <v>109.6720776822484</v>
+        <v>275.1840118823235</v>
       </c>
       <c r="D38" t="n">
-        <v>99.08222753192385</v>
+        <v>264.5941617319989</v>
       </c>
       <c r="E38" t="n">
-        <v>126.3295559835027</v>
+        <v>291.8414901835777</v>
       </c>
       <c r="F38" t="n">
         <v>316.7871658530274</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.78023805246563</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>118.9311896975613</v>
       </c>
       <c r="T38" t="n">
-        <v>106.1552477295826</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>161.2567730191524</v>
       </c>
       <c r="V38" t="n">
-        <v>237.6633785814508</v>
+        <v>119.1557404658627</v>
       </c>
       <c r="W38" t="n">
-        <v>259.1520888287289</v>
+        <v>93.64015462865387</v>
       </c>
       <c r="X38" t="n">
-        <v>279.642220789785</v>
+        <v>114.1302865897099</v>
       </c>
       <c r="Y38" t="n">
         <v>296.1490587673695</v>
@@ -25478,13 +25478,13 @@
         <v>57.35618567595471</v>
       </c>
       <c r="E39" t="n">
-        <v>12.20651383202374</v>
+        <v>67.5562005667169</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>47.25463727452659</v>
+        <v>37.91723792344855</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>161.6061032722355</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="40">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>89.74310029325325</v>
       </c>
       <c r="C40" t="n">
         <v>77.15794120994379</v>
       </c>
       <c r="D40" t="n">
-        <v>58.52659312952831</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>27.2200697573994</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.270300227988727</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>162.0487634351439</v>
       </c>
       <c r="W40" t="n">
-        <v>30.92218424783189</v>
+        <v>196.4341184479069</v>
       </c>
       <c r="X40" t="n">
-        <v>135.6207755003531</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.4957734634107</v>
+        <v>97.87847758535176</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>184.13934330784</v>
+        <v>314.9144536006794</v>
       </c>
       <c r="C41" t="n">
         <v>297.4535037082064</v>
@@ -25642,13 +25642,13 @@
         <v>339.0566576789103</v>
       </c>
       <c r="G41" t="n">
-        <v>314.3463621847495</v>
+        <v>347.4833494523339</v>
       </c>
       <c r="H41" t="n">
         <v>271.655414052966</v>
       </c>
       <c r="I41" t="n">
-        <v>142.6565015076047</v>
+        <v>27.46978436167178</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>82.0497298783485</v>
       </c>
       <c r="S41" t="n">
-        <v>141.2006815234441</v>
+        <v>10.42557123060479</v>
       </c>
       <c r="T41" t="n">
-        <v>155.2764615013302</v>
+        <v>24.5013512084908</v>
       </c>
       <c r="U41" t="n">
-        <v>183.5262648450353</v>
+        <v>52.75115455219594</v>
       </c>
       <c r="V41" t="n">
         <v>259.9328704073337</v>
@@ -25693,10 +25693,10 @@
         <v>281.4215806546118</v>
       </c>
       <c r="X41" t="n">
-        <v>171.1366023228285</v>
+        <v>301.9117126156679</v>
       </c>
       <c r="Y41" t="n">
-        <v>187.643440300413</v>
+        <v>318.4185505932524</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>73.97287711489751</v>
       </c>
       <c r="C42" t="n">
-        <v>104.8891109255145</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>79.62567750183756</v>
+        <v>79.62567750183757</v>
       </c>
       <c r="E42" t="n">
-        <v>89.82569239259975</v>
+        <v>89.82569239259976</v>
       </c>
       <c r="F42" t="n">
-        <v>77.24982433058268</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>26.13988028973989</v>
+        <v>69.52412910040945</v>
       </c>
       <c r="H42" t="n">
-        <v>44.41605617369527</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.57724478861388</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>32.33844608984194</v>
+        <v>32.33844608984195</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,10 +25763,10 @@
         <v>132.3453406320204</v>
       </c>
       <c r="U42" t="n">
-        <v>27.34688372533424</v>
+        <v>158.1219940181736</v>
       </c>
       <c r="V42" t="n">
-        <v>34.20608879378472</v>
+        <v>164.9811990866241</v>
       </c>
       <c r="W42" t="n">
         <v>183.8755950981184</v>
@@ -25775,7 +25775,7 @@
         <v>137.9535971406763</v>
       </c>
       <c r="Y42" t="n">
-        <v>137.8633077145032</v>
+        <v>7.088197421663807</v>
       </c>
     </row>
     <row r="43">
@@ -25788,28 +25788,28 @@
         <v>112.0125921191361</v>
       </c>
       <c r="C43" t="n">
-        <v>99.42743303582664</v>
+        <v>23.50708025098083</v>
       </c>
       <c r="D43" t="n">
-        <v>80.79608495541116</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.61457458376798</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.60165996013005</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>100.1715912956576</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.6310868644571</v>
       </c>
       <c r="J43" t="n">
-        <v>25.53979205387158</v>
+        <v>25.53979205387159</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>18.3426551888932</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.4740033143683</v>
       </c>
       <c r="S43" t="n">
-        <v>25.4220996813317</v>
+        <v>156.1972099741711</v>
       </c>
       <c r="T43" t="n">
-        <v>93.24479344622564</v>
+        <v>160.1262013654803</v>
       </c>
       <c r="U43" t="n">
         <v>218.4996412936897</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>184.13934330784</v>
+        <v>314.9144536006794</v>
       </c>
       <c r="C44" t="n">
         <v>297.4535037082064</v>
@@ -25873,16 +25873,16 @@
         <v>286.8636535578818</v>
       </c>
       <c r="E44" t="n">
-        <v>314.1109820094606</v>
+        <v>183.3358717166212</v>
       </c>
       <c r="F44" t="n">
         <v>339.0566576789103</v>
       </c>
       <c r="G44" t="n">
-        <v>216.7082391594945</v>
+        <v>347.4833494523339</v>
       </c>
       <c r="H44" t="n">
-        <v>271.655414052966</v>
+        <v>140.8803037601266</v>
       </c>
       <c r="I44" t="n">
         <v>142.6565015076047</v>
@@ -25915,19 +25915,19 @@
         <v>82.04972987834849</v>
       </c>
       <c r="S44" t="n">
-        <v>141.2006815234441</v>
+        <v>26.01396437751126</v>
       </c>
       <c r="T44" t="n">
-        <v>155.2764615013302</v>
+        <v>24.5013512084908</v>
       </c>
       <c r="U44" t="n">
-        <v>52.75115455219594</v>
+        <v>183.5262648450353</v>
       </c>
       <c r="V44" t="n">
         <v>259.9328704073337</v>
       </c>
       <c r="W44" t="n">
-        <v>166.2348635086789</v>
+        <v>281.4215806546118</v>
       </c>
       <c r="X44" t="n">
         <v>301.9117126156679</v>
@@ -25952,7 +25952,7 @@
         <v>79.62567750183756</v>
       </c>
       <c r="E45" t="n">
-        <v>89.82569239259975</v>
+        <v>51.39347751020406</v>
       </c>
       <c r="F45" t="n">
         <v>77.24982433058268</v>
@@ -25961,7 +25961,7 @@
         <v>69.52412910040944</v>
       </c>
       <c r="H45" t="n">
-        <v>44.41605617369527</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>21.57724478861388</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>32.33844608984194</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>103.8637830410366</v>
@@ -26000,19 +26000,19 @@
         <v>1.570230339181023</v>
       </c>
       <c r="U45" t="n">
-        <v>42.93527687224068</v>
+        <v>27.34688372533424</v>
       </c>
       <c r="V45" t="n">
-        <v>164.9811990866241</v>
+        <v>34.20608879378472</v>
       </c>
       <c r="W45" t="n">
-        <v>53.10048480527905</v>
+        <v>183.8755950981184</v>
       </c>
       <c r="X45" t="n">
         <v>137.9535971406763</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.088197421663779</v>
+        <v>137.8633077145032</v>
       </c>
     </row>
     <row r="46">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>112.0125921191361</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>99.42743303582664</v>
       </c>
       <c r="D46" t="n">
         <v>80.79608495541116</v>
@@ -26043,10 +26043,10 @@
         <v>94.40778444463838</v>
       </c>
       <c r="I46" t="n">
-        <v>87.63108686445709</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.53979205387158</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>156.1972099741711</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1262013654803</v>
+        <v>158.110363137876</v>
       </c>
       <c r="U46" t="n">
-        <v>218.4996412936897</v>
+        <v>87.72453100085033</v>
       </c>
       <c r="V46" t="n">
-        <v>149.7964529772173</v>
+        <v>184.3182552610268</v>
       </c>
       <c r="W46" t="n">
         <v>87.92849998095045</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>454463.3765454083</v>
+        <v>454463.3765454084</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>454463.3765454082</v>
+        <v>454463.3765454084</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>541713.686557768</v>
+        <v>541713.6865577679</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>541713.6865577681</v>
+        <v>541713.686557768</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542957.059151288</v>
+        <v>542957.0591512881</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>542957.059151288</v>
+        <v>542957.0591512882</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>541713.686557768</v>
+        <v>541713.6865577679</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491125</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491127</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="E2" t="n">
         <v>263721.0620066095</v>
       </c>
       <c r="F2" t="n">
-        <v>263721.0620066092</v>
+        <v>263721.0620066095</v>
       </c>
       <c r="G2" t="n">
         <v>438865.4281460262</v>
@@ -26334,28 +26334,28 @@
         <v>438865.4281460262</v>
       </c>
       <c r="I2" t="n">
-        <v>512674.0111225422</v>
+        <v>512674.0111225423</v>
       </c>
       <c r="J2" t="n">
         <v>512674.0111225423</v>
       </c>
       <c r="K2" t="n">
-        <v>512674.0111225422</v>
+        <v>512674.0111225421</v>
       </c>
       <c r="L2" t="n">
         <v>514238.2540627775</v>
       </c>
       <c r="M2" t="n">
-        <v>514238.2540627775</v>
+        <v>514238.2540627777</v>
       </c>
       <c r="N2" t="n">
         <v>512674.0111225421</v>
       </c>
       <c r="O2" t="n">
-        <v>441841.5808559834</v>
+        <v>441841.5808559833</v>
       </c>
       <c r="P2" t="n">
-        <v>441841.5808559834</v>
+        <v>441841.5808559835</v>
       </c>
     </row>
     <row r="3">
@@ -26380,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63222.55520104046</v>
+        <v>63222.55520104048</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>35329.64573399732</v>
+        <v>35329.64573399729</v>
       </c>
       <c r="J3" t="n">
-        <v>17815.59346070628</v>
+        <v>17815.59346070629</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54255.51045024096</v>
+        <v>54255.51045024093</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>266250.0959350778</v>
       </c>
       <c r="M4" t="n">
-        <v>266250.0959350779</v>
+        <v>266250.0959350778</v>
       </c>
       <c r="N4" t="n">
         <v>265334.3847879227</v>
@@ -26484,10 +26484,10 @@
         <v>1872.173908310146</v>
       </c>
       <c r="G5" t="n">
-        <v>9627.484420745541</v>
+        <v>9627.484420745544</v>
       </c>
       <c r="H5" t="n">
-        <v>9627.484420745541</v>
+        <v>9627.484420745544</v>
       </c>
       <c r="I5" t="n">
         <v>17636.80764272634</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323517.5802532919</v>
+        <v>323473.444474611</v>
       </c>
       <c r="C6" t="n">
-        <v>323517.5802532918</v>
+        <v>323473.444474611</v>
       </c>
       <c r="D6" t="n">
-        <v>323517.5802532919</v>
+        <v>323473.4444746112</v>
       </c>
       <c r="E6" t="n">
-        <v>115617.1334686343</v>
+        <v>101853.1677350172</v>
       </c>
       <c r="F6" t="n">
-        <v>133432.7269293404</v>
+        <v>119668.7611957236</v>
       </c>
       <c r="G6" t="n">
-        <v>137190.2316227824</v>
+        <v>127917.1470722272</v>
       </c>
       <c r="H6" t="n">
-        <v>200412.7868238228</v>
+        <v>191139.7022732677</v>
       </c>
       <c r="I6" t="n">
-        <v>194373.1729578958</v>
+        <v>186992.6161759694</v>
       </c>
       <c r="J6" t="n">
-        <v>211887.225231187</v>
+        <v>204506.6684492604</v>
       </c>
       <c r="K6" t="n">
-        <v>229702.8186918931</v>
+        <v>222322.2619099665</v>
       </c>
       <c r="L6" t="n">
-        <v>176037.6435185562</v>
+        <v>168697.1955299692</v>
       </c>
       <c r="M6" t="n">
-        <v>230293.1539687971</v>
+        <v>222952.7059802103</v>
       </c>
       <c r="N6" t="n">
-        <v>229702.8186918931</v>
+        <v>222322.2619099666</v>
       </c>
       <c r="O6" t="n">
-        <v>202551.715720351</v>
+        <v>193354.9427777434</v>
       </c>
       <c r="P6" t="n">
-        <v>202551.7157203509</v>
+        <v>193354.9427777435</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="F2" t="n">
         <v>22.26949182588285</v>
@@ -26706,25 +26706,25 @@
         <v>89.39663285141508</v>
       </c>
       <c r="I2" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="J2" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="K2" t="n">
         <v>90.08887988868405</v>
       </c>
       <c r="L2" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="M2" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="N2" t="n">
         <v>90.08887988868405</v>
       </c>
       <c r="O2" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="P2" t="n">
         <v>67.8193880628012</v>
@@ -26804,28 +26804,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="H4" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="I4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="J4" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="K4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="L4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N4" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O4" t="n">
         <v>130.7751102928394</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,16 +26928,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6922470372689702</v>
+        <v>0.6922470372689418</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588287</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6922470372689702</v>
+        <v>0.6922470372689418</v>
       </c>
       <c r="O2" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588287</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="C11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="D11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="E11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="F11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="G11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="H11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="I11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -28137,28 +28137,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="S11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="T11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="U11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="V11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="W11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="X11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
     </row>
     <row r="12">
@@ -28168,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="C12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="D12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="E12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="F12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="G12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="H12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="I12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28216,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="S12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="T12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="U12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="V12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="W12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="X12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
     </row>
     <row r="13">
@@ -28247,34 +28247,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="C13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="D13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="E13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="F13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="G13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="H13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="J13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28292,31 +28292,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="R13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="S13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="T13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="U13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="V13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="W13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="X13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.26949182588285</v>
+        <v>22.26949182588286</v>
       </c>
     </row>
     <row r="14">
@@ -28748,7 +28748,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K19" t="n">
-        <v>34.92988882962164</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>15.38183773884543</v>
       </c>
       <c r="Q19" t="n">
         <v>89.39663285141508</v>
@@ -28985,7 +28985,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K22" t="n">
-        <v>34.92988882962164</v>
+        <v>34.92988882962175</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="C23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="D23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="E23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="F23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="G23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="H23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="I23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29085,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="S23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="T23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="U23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="V23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="W23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="X23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="Y23" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
     </row>
     <row r="24">
@@ -29116,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="C24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="D24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="E24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="F24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="G24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="H24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="S24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="T24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="U24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="V24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="W24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="X24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="C25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="D25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="E25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="F25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="G25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="H25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="I25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="J25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="K25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="L25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="M25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="N25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="O25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="P25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="R25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="S25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="T25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="U25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="V25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="W25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="X25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868402</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y26" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="27">
@@ -29353,25 +29353,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="K28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="L28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="M28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="N28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="O28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="P28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="R28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.08887988868405</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="29">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="J34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="K34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="L34" t="n">
-        <v>90.78112692595302</v>
+        <v>85.93539766507037</v>
       </c>
       <c r="M34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="N34" t="n">
-        <v>85.9353976650701</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="O34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="P34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="R34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y35" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y36" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="J37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="K37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="L37" t="n">
-        <v>85.93539766507011</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="M37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="N37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="O37" t="n">
-        <v>90.78112692595302</v>
+        <v>85.93539766507038</v>
       </c>
       <c r="P37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="R37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.78112692595302</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="38">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="C41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="D41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="E41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="F41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="G41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="H41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="I41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="S41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="T41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="U41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="V41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="W41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="X41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="Y41" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="C42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="D42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="E42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="F42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="G42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="H42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="I42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="S42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="T42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="U42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="V42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="W42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="X42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="C43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="D43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="E43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="F43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="G43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="H43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="I43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="J43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="K43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="L43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="M43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="N43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="O43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="P43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="R43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="S43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="T43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="U43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="V43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="W43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="X43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
     </row>
     <row r="44">
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="N17" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>34.73682390723565</v>
+        <v>33.33331587057971</v>
       </c>
       <c r="P17" t="n">
-        <v>33.33331587057965</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>34.73682390723565</v>
+        <v>33.33331587057971</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="O18" t="n">
-        <v>33.33331587057965</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.66039700373879</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="N19" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>12.66039700373892</v>
       </c>
       <c r="Q19" t="n">
         <v>3.234589599720692</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="M20" t="n">
-        <v>33.33331587057965</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>33.33331587057971</v>
       </c>
       <c r="P20" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>33.33331587057965</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="O21" t="n">
-        <v>34.73682390723565</v>
+        <v>33.33331587057971</v>
       </c>
       <c r="P21" t="n">
-        <v>34.73682390723565</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.66039700373879</v>
+        <v>12.6603970037389</v>
       </c>
       <c r="L22" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M22" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="N22" t="n">
-        <v>34.73682390723565</v>
+        <v>34.7368239072357</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M23" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N23" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O23" t="n">
-        <v>54.76902179712011</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>8.122613482245667</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>127.6172058353322</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N24" t="n">
-        <v>127.6172058353322</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280117</v>
       </c>
       <c r="L25" t="n">
         <v>117.6789051490002</v>
@@ -36533,10 +36533,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P25" t="n">
-        <v>87.36743915357754</v>
+        <v>87.36743915357751</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.926836636989663</v>
+        <v>3.926836636989634</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,16 +36603,16 @@
         <v>165.511934200075</v>
       </c>
       <c r="M26" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>165.511934200075</v>
+        <v>144.5252079399985</v>
       </c>
       <c r="O26" t="n">
-        <v>54.76902179712011</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="M27" t="n">
-        <v>88.7290696734767</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>165.511934200075</v>
+        <v>88.72906967347669</v>
       </c>
       <c r="O27" t="n">
         <v>165.511934200075</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>67.8193880628012</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="L28" t="n">
         <v>117.6789051490002</v>
@@ -36770,10 +36770,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P28" t="n">
-        <v>87.36743915357754</v>
+        <v>87.36743915357752</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.926836636989663</v>
+        <v>3.926836636989648</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M29" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N29" t="n">
-        <v>165.511934200075</v>
+        <v>83.06883526610767</v>
       </c>
       <c r="O29" t="n">
-        <v>54.76902179712011</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>165.511934200075</v>
+        <v>127.6172058353322</v>
       </c>
       <c r="M30" t="n">
-        <v>127.6172058353321</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>83.06883526610763</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M32" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N32" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>8.122613482245667</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N33" t="n">
-        <v>32.20078528508469</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O33" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>158.8245833233043</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.51163510007017</v>
+        <v>68.51163510007014</v>
       </c>
       <c r="L34" t="n">
-        <v>118.3711521862692</v>
+        <v>113.5254229253865</v>
       </c>
       <c r="M34" t="n">
         <v>130.3650038877936</v>
       </c>
       <c r="N34" t="n">
-        <v>130.0675700442987</v>
+        <v>134.9132993051816</v>
       </c>
       <c r="O34" t="n">
         <v>115.3662548399927</v>
       </c>
       <c r="P34" t="n">
-        <v>88.05968619084651</v>
+        <v>88.05968619084648</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.619083674258633</v>
+        <v>4.619083674258604</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>83.06883526610766</v>
       </c>
       <c r="L35" t="n">
-        <v>83.06883526610763</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M35" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N36" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O36" t="n">
-        <v>32.20078528508469</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>158.8245833233043</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.51163510007017</v>
+        <v>68.51163510007014</v>
       </c>
       <c r="L37" t="n">
-        <v>113.5254229253863</v>
+        <v>118.3711521862691</v>
       </c>
       <c r="M37" t="n">
         <v>130.3650038877936</v>
@@ -37478,13 +37478,13 @@
         <v>134.9132993051816</v>
       </c>
       <c r="O37" t="n">
-        <v>115.3662548399927</v>
+        <v>110.5205255791101</v>
       </c>
       <c r="P37" t="n">
-        <v>88.05968619084651</v>
+        <v>88.05968619084648</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.619083674258633</v>
+        <v>4.619083674258604</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="M38" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>69.57898615613658</v>
       </c>
       <c r="O38" t="n">
-        <v>129.7152435809821</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>165.511934200075</v>
+        <v>88.72906967347667</v>
       </c>
       <c r="N39" t="n">
-        <v>165.511934200075</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="P39" t="n">
-        <v>158.8245833233043</v>
+        <v>165.5119342000751</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
+        <v>21.43570592654039</v>
+      </c>
+      <c r="M41" t="n">
         <v>130.7751102928394</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>130.7751102928394</v>
       </c>
       <c r="O41" t="n">
-        <v>61.64510380316668</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="M42" t="n">
+        <v>59.54706605751685</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>130.7751102928394</v>
-      </c>
-      <c r="N42" t="n">
-        <v>130.7751102928394</v>
-      </c>
-      <c r="O42" t="n">
-        <v>130.7751102928394</v>
-      </c>
-      <c r="P42" t="n">
-        <v>55.39575380289713</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.54989623691834</v>
+        <v>45.54989623691833</v>
       </c>
       <c r="L43" t="n">
-        <v>95.40941332311733</v>
+        <v>95.40941332311732</v>
       </c>
       <c r="M43" t="n">
         <v>107.4032650246418</v>
@@ -37952,10 +37952,10 @@
         <v>111.9515604420298</v>
       </c>
       <c r="O43" t="n">
-        <v>92.40451597684087</v>
+        <v>92.40451597684086</v>
       </c>
       <c r="P43" t="n">
-        <v>65.09794732769468</v>
+        <v>65.09794732769467</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>34.92555503651152</v>
       </c>
       <c r="L44" t="n">
-        <v>34.92555503651152</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>130.7751102928394</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="N45" t="n">
-        <v>59.54706605751688</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="O45" t="n">
         <v>130.7751102928394</v>
       </c>
       <c r="P45" t="n">
-        <v>130.7751102928394</v>
+        <v>125.4912674527247</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
